--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 10:17 AM</t>
+    <t>Thursday, 11 September, 2025 10:41 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -44,7 +44,73 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 10:41 AM</t>
+    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>LIPONA 20MG 10 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>41.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>مسك الرمان</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 11 September, 2025 10:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -254,10 +320,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -266,7 +332,7 @@
     <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -674,56 +740,202 @@
     </row>
     <row r="7" ht="25.5" customHeight="1">
       <c r="A7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
+      <c t="s" r="C7" s="8">
+        <v>11</v>
+      </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
+      <c t="s" r="H7" s="9">
+        <v>12</v>
+      </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
+      <c t="s" r="L7" s="10">
+        <v>13</v>
+      </c>
       <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
+      <c t="s" r="N7" s="8">
+        <v>14</v>
+      </c>
       <c r="O7" s="8"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="12"/>
+      <c t="s" r="P7" s="11">
+        <v>15</v>
+      </c>
+      <c t="s" r="Q7" s="12">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c t="s" r="A9" s="14">
-        <v>11</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c t="s" r="G9" s="15">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c t="s" r="C8" s="8">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c t="s" r="H8" s="9">
         <v>12</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16"/>
-      <c t="s" r="K9" s="17">
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c t="s" r="L8" s="10">
         <v>13</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
+      <c r="M8" s="10"/>
+      <c t="s" r="N8" s="8">
+        <v>18</v>
+      </c>
+      <c r="O8" s="8"/>
+      <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="25.5" customHeight="1">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c t="s" r="C9" s="8">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c t="s" r="H9" s="9">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c t="s" r="L9" s="10">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10"/>
+      <c t="s" r="N9" s="8">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8"/>
+      <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>25</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>26</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>29</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>30</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>26</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>31</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>155.22</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>33</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>34</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>35</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -737,10 +949,30 @@
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="L7:M7"/>
     <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="A9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -62,21 +62,12 @@
     <t>0:1</t>
   </si>
   <si>
-    <t>LIPONA 20MG 10 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>41.0000</t>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
@@ -98,19 +89,7 @@
     <t>7.0000</t>
   </si>
   <si>
-    <t>مسك الرمان</t>
-  </si>
-  <si>
-    <t>19:0</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 11 September, 2025 10:48 AM</t>
+    <t>Thursday, 11 September, 2025 10:50 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -784,7 +763,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -794,14 +773,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -817,125 +796,59 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="A10" s="7">
-        <v>4</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c t="s" r="C10" s="8">
-        <v>24</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c t="s" r="H10" s="9">
-        <v>25</v>
-      </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c t="s" r="L10" s="10">
+      <c r="P10" s="13">
+        <v>84.219999999999999</v>
+      </c>
+      <c r="Q10" s="13"/>
+    </row>
+    <row r="11" ht="16.5" customHeight="1">
+      <c t="s" r="A11" s="14">
         <v>26</v>
       </c>
-      <c r="M10" s="10"/>
-      <c t="s" r="N10" s="8">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c t="s" r="G11" s="15">
         <v>27</v>
       </c>
-      <c r="O10" s="8"/>
-      <c t="s" r="P10" s="11">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c t="s" r="K11" s="17">
         <v>28</v>
       </c>
-      <c t="s" r="Q10" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" ht="25.5" customHeight="1">
-      <c r="A11" s="7">
-        <v>5</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c t="s" r="C11" s="8">
-        <v>29</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c t="s" r="H11" s="9">
-        <v>30</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c t="s" r="L11" s="10">
-        <v>26</v>
-      </c>
-      <c r="M11" s="10"/>
-      <c t="s" r="N11" s="8">
-        <v>31</v>
-      </c>
-      <c r="O11" s="8"/>
-      <c t="s" r="P11" s="11">
-        <v>32</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>155.22</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
-        <v>33</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
-        <v>34</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
-        <v>35</v>
-      </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="27">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -959,20 +872,10 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="K11:Q11"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -74,22 +74,46 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>7.00</t>
   </si>
   <si>
     <t>7.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 10:50 AM</t>
+    <t>مسك الرمان</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 11 September, 2025 11:15 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -817,38 +841,104 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>84.219999999999999</v>
-      </c>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
         <v>26</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
         <v>27</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>23</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
         <v>28</v>
       </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
+        <v>31</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>23</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
+        <v>32</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>294.22000000000003</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>34</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>35</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>36</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -872,10 +962,20 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -104,13 +104,16 @@
     <t>مسك الرمان</t>
   </si>
   <si>
-    <t>19:0</t>
+    <t>17:0</t>
   </si>
   <si>
     <t>30.00</t>
   </si>
   <si>
-    <t>30.0000</t>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
   </si>
   <si>
     <t>Thursday, 11 September, 2025 11:15 AM</t>
@@ -903,18 +906,18 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
       <c r="P12" s="13">
-        <v>294.22000000000003</v>
+        <v>354.22000000000003</v>
       </c>
       <c r="Q12" s="13"/>
     </row>
     <row r="13" ht="16.5" customHeight="1">
       <c t="s" r="A13" s="14">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -922,13 +925,13 @@
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
       <c t="s" r="G13" s="15">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
       <c t="s" r="K13" s="17">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L13" s="17"/>
       <c r="M13" s="17"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -116,7 +116,7 @@
     <t>3:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:15 AM</t>
+    <t>Thursday, 11 September, 2025 11:22 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -89,6 +89,18 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">زيت شعر املا 180 مل </t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -113,10 +125,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>Thursday, 11 September, 2025 11:22 AM</t>
+    <t>Thursday, 11 September, 2025 11:23 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -906,42 +915,75 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>354.22000000000003</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
         <v>35</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>23</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>36</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>37</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="P13" s="13">
+        <v>439.22000000000003</v>
+      </c>
+      <c r="Q13" s="13"/>
+    </row>
+    <row r="14" ht="16.5" customHeight="1">
+      <c t="s" r="A14" s="14">
+        <v>38</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c t="s" r="G14" s="15">
+        <v>39</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16"/>
+      <c t="s" r="K14" s="17">
+        <v>40</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="42">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -975,10 +1017,15 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="K14:Q14"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -125,7 +125,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:23 AM</t>
+    <t>Thursday, 11 September, 2025 11:27 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -125,7 +125,7 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:27 AM</t>
+    <t>Thursday, 11 September, 2025 11:40 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -44,15 +44,27 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -62,12 +74,21 @@
     <t>0:1</t>
   </si>
   <si>
+    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
@@ -80,9 +101,6 @@
     <t>5:0</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -101,6 +119,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>2.0000</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -113,6 +140,18 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
@@ -125,7 +164,19 @@
     <t>90.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:40 AM</t>
+    <t>معجون سيجنال 50 مل</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 11 September, 2025 11:44 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -799,7 +850,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -809,14 +860,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
+        <v>19</v>
+      </c>
+      <c t="s" r="Q8" s="12">
         <v>20</v>
-      </c>
-      <c t="s" r="Q8" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -832,24 +883,24 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -858,31 +909,31 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -891,31 +942,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -924,66 +975,231 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>35</v>
+      </c>
+      <c t="s" r="Q12" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>36</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>12</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>22</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
         <v>37</v>
       </c>
-      <c t="s" r="Q12" s="12">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" ht="24.75" customHeight="1">
-      <c r="P13" s="13">
-        <v>439.22000000000003</v>
-      </c>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" ht="16.5" customHeight="1">
-      <c t="s" r="A14" s="14">
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
         <v>38</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c t="s" r="G14" s="15">
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>39</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="16"/>
-      <c t="s" r="K14" s="17">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
         <v>40</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
+        <v>22</v>
+      </c>
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
+        <v>41</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
+        <v>43</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>44</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>22</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>45</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q15" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>47</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>48</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>22</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>49</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>50</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
+        <v>51</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>52</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>22</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
+        <v>53</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>675.22000000000003</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>55</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>56</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>57</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1022,10 +1238,35 @@
     <mergeCell ref="H12:K12"/>
     <mergeCell ref="L12:M12"/>
     <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="K14:Q14"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -176,7 +176,19 @@
     <t>35.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:44 AM</t>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>23:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 11 September, 2025 11:46 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1168,38 +1180,71 @@
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>675.22000000000003</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>55</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
         <v>56</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>22</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>57</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>58</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>720.22000000000003</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>59</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>60</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>61</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1263,10 +1308,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -188,7 +188,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:46 AM</t>
+    <t>Thursday, 11 September, 2025 11:54 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -152,6 +152,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
@@ -188,7 +194,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:54 AM</t>
+    <t>Thursday, 11 September, 2025 12:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1136,14 +1142,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1152,14 +1158,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1169,14 +1175,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1185,14 +1191,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1202,49 +1208,82 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>720.22000000000003</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>58</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>22</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
         <v>59</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
+      <c t="s" r="Q19" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>735.22000000000003</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
         <v>61</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>62</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>63</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1313,10 +1352,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -194,7 +194,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 12:34 PM</t>
+    <t>Thursday, 11 September, 2025 12:35 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -44,22 +44,61 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ASPOCID 75MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>124.00</t>
   </si>
   <si>
     <t>124.0000</t>
   </si>
   <si>
-    <t>1:0</t>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>COBAL F 500/200MCG 30 F.C. TAB</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>14.8500</t>
+  </si>
+  <si>
+    <t>0:1</t>
   </si>
   <si>
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
@@ -71,7 +110,16 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>0:1</t>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
   </si>
   <si>
     <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
@@ -125,7 +173,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>2.0000</t>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>4:0</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -188,13 +239,10 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 12:35 PM</t>
+    <t>Thursday, 11 September, 2025 12:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -868,7 +916,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c t="s" r="H8" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
@@ -878,14 +926,14 @@
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -901,13 +949,13 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -918,7 +966,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -927,7 +975,7 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
@@ -944,14 +992,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -960,31 +1008,31 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -993,31 +1041,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1026,28 +1074,28 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1059,31 +1107,31 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1092,28 +1140,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1125,28 +1173,28 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
@@ -1158,31 +1206,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1191,28 +1239,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1224,66 +1272,198 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>735.22000000000003</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>61</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>64</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>65</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>38</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
         <v>62</v>
       </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
         <v>63</v>
       </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+      <c t="s" r="Q20" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
+        <v>66</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
+        <v>67</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>38</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
+        <v>68</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>69</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>70</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>71</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>38</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>72</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>73</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>74</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>75</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>38</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>27</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="P24" s="13">
+        <v>874.07000000000005</v>
+      </c>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="16.5" customHeight="1">
+      <c t="s" r="A25" s="14">
+        <v>77</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c t="s" r="G25" s="15">
+        <v>78</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c t="s" r="K25" s="17">
+        <v>79</v>
+      </c>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="97">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1357,10 +1537,30 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="K25:Q25"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -242,7 +242,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 12:45 PM</t>
+    <t>Thursday, 11 September, 2025 12:52 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -101,6 +101,24 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CONGESTAL SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -146,9 +164,6 @@
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>180.00</t>
   </si>
   <si>
@@ -191,6 +206,15 @@
     <t>7.0000</t>
   </si>
   <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -206,9 +230,6 @@
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
-    <t>15:0</t>
-  </si>
-  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
@@ -242,7 +263,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 12:52 PM</t>
+    <t>Thursday, 11 September, 2025 12:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1015,7 +1036,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1025,14 +1046,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1041,14 +1062,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1058,14 +1079,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1074,31 +1095,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1107,14 +1128,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1124,11 +1145,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>29</v>
@@ -1140,28 +1161,28 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1173,31 +1194,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1206,31 +1227,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>55</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1239,28 +1260,28 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1272,31 +1293,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1305,28 +1326,28 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1338,31 +1359,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1371,28 +1392,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1404,66 +1425,165 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
-      <c r="P24" s="13">
-        <v>874.07000000000005</v>
-      </c>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c t="s" r="A25" s="14">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>73</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>74</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>44</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>75</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
         <v>77</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c t="s" r="G25" s="15">
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
         <v>78</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="16"/>
-      <c t="s" r="K25" s="17">
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>44</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
         <v>79</v>
       </c>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
-      <c r="Q25" s="17"/>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
+        <v>81</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
+        <v>82</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>44</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>27</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>955.07000000000005</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>84</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>85</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>86</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1557,10 +1677,25 @@
     <mergeCell ref="H23:K23"/>
     <mergeCell ref="L23:M23"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="K25:Q25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
@@ -263,7 +272,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 12:53 PM</t>
+    <t>Thursday, 11 September, 2025 1:48 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1135,7 +1144,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1145,14 +1154,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1161,31 +1170,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1194,7 +1203,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1207,7 +1216,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1218,7 +1227,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1234,13 +1243,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1251,7 +1260,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1267,21 +1276,21 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1293,20 +1302,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1317,7 +1326,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1326,31 +1335,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1359,20 +1368,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1399,21 +1408,21 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1425,28 +1434,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1458,31 +1467,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1491,31 +1500,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1524,24 +1533,24 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
@@ -1552,38 +1561,71 @@
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>955.07000000000005</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
         <v>84</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
         <v>85</v>
       </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>47</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>27</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
         <v>86</v>
       </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+      <c t="s" r="Q27" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="P28" s="13">
+        <v>1007.0700000000001</v>
+      </c>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="16.5" customHeight="1">
+      <c t="s" r="A29" s="14">
+        <v>87</v>
+      </c>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c t="s" r="G29" s="15">
+        <v>88</v>
+      </c>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c t="s" r="K29" s="17">
+        <v>89</v>
+      </c>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="117">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1692,10 +1734,15 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="K29:Q29"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 1:48 PM</t>
+    <t>Thursday, 11 September, 2025 1:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>HEPTA CARBAMIDE CREAM</t>
+  </si>
+  <si>
+    <t>69.50</t>
+  </si>
+  <si>
+    <t>69.5000</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -137,12 +146,21 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>110.00</t>
   </si>
   <si>
@@ -272,7 +290,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 1:49 PM</t>
+    <t>Thursday, 11 September, 2025 1:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1177,7 +1195,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1187,14 +1205,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1203,31 +1221,31 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1236,14 +1254,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1253,11 +1271,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>29</v>
@@ -1269,20 +1287,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1309,24 +1327,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1335,31 +1353,31 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1368,28 +1386,28 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1401,7 +1419,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1414,18 +1432,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1434,28 +1452,28 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1467,28 +1485,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1500,31 +1518,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1533,28 +1551,28 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1566,66 +1584,132 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>27</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q27" s="12">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
         <v>86</v>
       </c>
-      <c t="s" r="Q27" s="12">
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>87</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>53</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>88</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="28" ht="24.75" customHeight="1">
-      <c r="P28" s="13">
-        <v>1007.0700000000001</v>
-      </c>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" ht="16.5" customHeight="1">
-      <c t="s" r="A29" s="14">
-        <v>87</v>
-      </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c t="s" r="G29" s="15">
-        <v>88</v>
-      </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="16"/>
-      <c t="s" r="K29" s="17">
-        <v>89</v>
-      </c>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
-      <c r="Q29" s="17"/>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>90</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>91</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>53</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>27</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="P30" s="13">
+        <v>1121.1199999999999</v>
+      </c>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c t="s" r="A31" s="14">
+        <v>93</v>
+      </c>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c t="s" r="G31" s="15">
+        <v>94</v>
+      </c>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c t="s" r="K31" s="17">
+        <v>95</v>
+      </c>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="117">
+  <mergeCells count="127">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1739,10 +1823,20 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="K31:Q31"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -146,6 +146,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>MOIST-1 CREAM 100 ML</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -191,12 +200,6 @@
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">زيت شعر املا 180 مل </t>
   </si>
   <si>
@@ -242,6 +245,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>شامبو فاتيكا 360مل</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -290,7 +302,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 1:50 PM</t>
+    <t>Thursday, 11 September, 2025 1:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1228,7 +1240,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1238,14 +1250,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1254,14 +1266,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1294,24 +1306,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1320,7 +1332,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1333,7 +1345,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1344,7 +1356,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1360,13 +1372,13 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1377,7 +1389,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1393,21 +1405,21 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1419,31 +1431,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>69</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1452,31 +1464,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1485,28 +1497,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1518,28 +1530,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -1551,20 +1563,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1584,31 +1596,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>63</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1617,28 +1629,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1650,66 +1662,132 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q29" s="12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>90</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>91</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>56</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
         <v>92</v>
       </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" ht="24.75" customHeight="1">
-      <c r="P30" s="13">
-        <v>1121.1199999999999</v>
-      </c>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" ht="16.5" customHeight="1">
-      <c t="s" r="A31" s="14">
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
         <v>93</v>
       </c>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c t="s" r="G31" s="15">
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
         <v>94</v>
       </c>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="16"/>
-      <c t="s" r="K31" s="17">
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
         <v>95</v>
       </c>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>56</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>27</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q31" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="P32" s="13">
+        <v>1371.1199999999999</v>
+      </c>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1">
+      <c t="s" r="A33" s="14">
+        <v>97</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c t="s" r="G33" s="15">
+        <v>98</v>
+      </c>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c t="s" r="K33" s="17">
+        <v>99</v>
+      </c>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="127">
+  <mergeCells count="137">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1833,10 +1911,20 @@
     <mergeCell ref="H29:K29"/>
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="K33:Q33"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -302,7 +302,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 1:53 PM</t>
+    <t>Thursday, 11 September, 2025 1:55 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -155,6 +155,15 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
@@ -302,7 +311,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 1:55 PM</t>
+    <t>Thursday, 11 September, 2025 1:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1273,7 +1282,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1283,14 +1292,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1299,14 +1308,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1339,24 +1348,24 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1365,7 +1374,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1378,7 +1387,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1389,7 +1398,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1405,24 +1414,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1431,28 +1440,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1464,20 +1473,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1488,7 +1497,7 @@
         <v>69</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1497,31 +1506,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1530,20 +1539,20 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1570,13 +1579,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1603,21 +1612,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>16</v>
@@ -1629,28 +1638,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1662,31 +1671,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1695,31 +1704,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1728,24 +1737,24 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1756,38 +1765,71 @@
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
-      <c r="P32" s="13">
-        <v>1371.1199999999999</v>
-      </c>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1">
-      <c t="s" r="A33" s="14">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>97</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c t="s" r="G33" s="15">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>98</v>
       </c>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="16"/>
-      <c t="s" r="K33" s="17">
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>59</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>27</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
         <v>99</v>
       </c>
-      <c r="L33" s="17"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1496.1199999999999</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>100</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>101</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>102</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="137">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1921,10 +1963,15 @@
     <mergeCell ref="H31:K31"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -263,6 +263,15 @@
     <t>70.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -311,7 +320,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 1:56 PM</t>
+    <t>Thursday, 11 September, 2025 1:58 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1645,7 +1654,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1655,11 +1664,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1671,14 +1680,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1688,11 +1697,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1704,14 +1713,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1721,14 +1730,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1737,14 +1746,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1754,14 +1763,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1770,14 +1779,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1787,7 +1796,7 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -1798,38 +1807,71 @@
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1496.1199999999999</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>100</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
         <v>101</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>59</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
+        <v>27</v>
+      </c>
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>102</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="P34" s="13">
+        <v>1571.1199999999999</v>
+      </c>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="16.5" customHeight="1">
+      <c t="s" r="A35" s="14">
+        <v>103</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c t="s" r="G35" s="15">
+        <v>104</v>
+      </c>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c t="s" r="K35" s="17">
+        <v>105</v>
+      </c>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="147">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1968,10 +2010,15 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="K35:Q35"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -320,7 +320,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 1:58 PM</t>
+    <t>Thursday, 11 September, 2025 1:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -44,15 +44,30 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>2:4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>12.4800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ASPOCID 75MG 30 TAB.</t>
   </si>
   <si>
     <t>6:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>33.00</t>
   </si>
   <si>
@@ -98,9 +113,6 @@
     <t>14.8500</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
@@ -320,7 +332,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 1:59 PM</t>
+    <t>Thursday, 11 September, 2025 2:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1011,7 +1023,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1020,14 +1032,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1037,14 +1049,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1060,7 +1072,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1070,14 +1082,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1086,14 +1098,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1136,14 +1148,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1152,14 +1164,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1169,14 +1181,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1185,14 +1197,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1202,11 +1214,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1218,14 +1230,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1235,14 +1247,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1251,14 +1263,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1268,14 +1280,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1284,14 +1296,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1301,14 +1313,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1317,14 +1329,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1341,7 +1353,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1357,7 +1369,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1367,14 +1379,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1383,20 +1395,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1423,24 +1435,24 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1449,28 +1461,28 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1482,31 +1494,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1522,24 +1534,24 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1555,24 +1567,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q25" s="12">
         <v>77</v>
-      </c>
-      <c t="s" r="Q25" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1588,24 +1600,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1614,31 +1626,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1647,31 +1659,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1680,20 +1692,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1704,7 +1716,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1720,24 +1732,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1746,31 +1758,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1792,7 +1804,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -1803,7 +1815,7 @@
         <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1825,53 +1837,86 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
-      <c r="P34" s="13">
-        <v>1571.1199999999999</v>
-      </c>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="14">
-        <v>103</v>
-      </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c t="s" r="G35" s="15">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
         <v>104</v>
       </c>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="16"/>
-      <c t="s" r="K35" s="17">
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
         <v>105</v>
       </c>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="17"/>
-      <c r="P35" s="17"/>
-      <c r="Q35" s="17"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>63</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>32</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1583.5999999999999</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>107</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>108</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>109</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2015,10 +2060,15 @@
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
     <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="K35:Q35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -104,6 +104,21 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>CEVA-FRESH TAB</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
     <t>COBAL F 500/200MCG 30 F.C. TAB</t>
   </si>
   <si>
@@ -200,9 +215,6 @@
     <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>60.00</t>
   </si>
   <si>
@@ -287,9 +299,6 @@
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>15.00</t>
   </si>
   <si>
@@ -332,7 +341,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 2:04 PM</t>
+    <t>Thursday, 11 September, 2025 2:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1105,24 +1114,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1131,14 +1140,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1148,14 +1157,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1164,14 +1173,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1181,11 +1190,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>21</v>
@@ -1197,14 +1206,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1214,14 +1223,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1230,7 +1239,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1247,14 +1256,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1263,7 +1272,7 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
@@ -1280,11 +1289,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1296,7 +1305,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1313,11 +1322,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>21</v>
@@ -1329,7 +1338,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1346,11 +1355,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1362,14 +1371,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1379,14 +1388,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1395,14 +1404,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1412,11 +1421,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1428,31 +1437,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1461,7 +1470,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1474,18 +1483,18 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1494,31 +1503,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1527,28 +1536,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1567,24 +1576,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1600,24 +1609,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>81</v>
-      </c>
-      <c t="s" r="Q26" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1633,21 +1642,21 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1659,28 +1668,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1692,28 +1701,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1725,20 +1734,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1765,21 +1774,21 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1791,31 +1800,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>71</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1824,31 +1833,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1857,24 +1866,24 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>32</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -1885,38 +1894,71 @@
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1583.5999999999999</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>107</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>108</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>33</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>37</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
         <v>109</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c t="s" r="Q35" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="P36" s="13">
+        <v>1595.5999999999999</v>
+      </c>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="14">
+        <v>110</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c t="s" r="G37" s="15">
+        <v>111</v>
+      </c>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c t="s" r="K37" s="17">
+        <v>112</v>
+      </c>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="157">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2065,10 +2107,15 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="K37:Q37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -306,6 +306,15 @@
   </si>
   <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>24.0000</t>
   </si>
   <si>
     <t>مسك الرمان</t>
@@ -1840,7 +1849,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1850,11 +1859,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>75</v>
@@ -1866,14 +1875,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1883,14 +1892,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1899,14 +1908,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1916,7 +1925,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -1927,38 +1936,71 @@
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
-      <c r="P36" s="13">
-        <v>1595.5999999999999</v>
-      </c>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c t="s" r="A37" s="14">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
         <v>110</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c t="s" r="G37" s="15">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
         <v>111</v>
       </c>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="16"/>
-      <c t="s" r="K37" s="17">
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>33</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>37</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
         <v>112</v>
       </c>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="17"/>
-      <c r="P37" s="17"/>
-      <c r="Q37" s="17"/>
+      <c t="s" r="Q36" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="P37" s="13">
+        <v>1619.5999999999999</v>
+      </c>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="16.5" customHeight="1">
+      <c t="s" r="A38" s="14">
+        <v>113</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c t="s" r="G38" s="15">
+        <v>114</v>
+      </c>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c t="s" r="K38" s="17">
+        <v>115</v>
+      </c>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="157">
+  <mergeCells count="162">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2112,10 +2154,15 @@
     <mergeCell ref="H35:K35"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="K37:Q37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="K38:Q38"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -350,7 +350,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 2:08 PM</t>
+    <t>Thursday, 11 September, 2025 2:10 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -104,6 +104,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>CARBAPEX 200 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>37.6200</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -128,6 +140,18 @@
     <t>14.8500</t>
   </si>
   <si>
+    <t>COLOVERIN D 135MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>105.00</t>
+  </si>
+  <si>
+    <t>34.6500</t>
+  </si>
+  <si>
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
@@ -194,9 +218,6 @@
     <t>OMEGA-3 PLUS 30 CAPS.</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>135.00</t>
   </si>
   <si>
@@ -245,6 +266,15 @@
     <t>85.0000</t>
   </si>
   <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -347,10 +377,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 11 September, 2025 2:10 PM</t>
+    <t>Thursday, 11 September, 2025 3:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1123,24 +1150,24 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>21</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1149,31 +1176,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1182,14 +1209,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1206,7 +1233,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1232,14 +1259,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1248,14 +1275,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1265,14 +1292,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1281,14 +1308,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1298,11 +1325,11 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>21</v>
@@ -1314,7 +1341,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1331,14 +1358,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1347,7 +1374,7 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -1364,11 +1391,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>21</v>
@@ -1380,7 +1407,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1397,11 +1424,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1413,14 +1440,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1430,14 +1457,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1446,14 +1473,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1463,14 +1490,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1479,31 +1506,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1512,14 +1539,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1529,11 +1556,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1545,28 +1572,28 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1578,31 +1605,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1611,31 +1638,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>81</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1644,28 +1671,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1677,28 +1704,28 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1710,31 +1737,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>90</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>91</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1750,21 +1777,21 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1776,28 +1803,28 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1809,28 +1836,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1842,31 +1869,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1875,31 +1902,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>75</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1908,28 +1935,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>52</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1941,66 +1968,165 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
         <v>112</v>
       </c>
-      <c t="s" r="Q36" s="12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" ht="25.5" customHeight="1">
-      <c r="P37" s="13">
-        <v>1619.5999999999999</v>
-      </c>
-      <c r="Q37" s="13"/>
-    </row>
-    <row r="38" ht="16.5" customHeight="1">
-      <c t="s" r="A38" s="14">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
         <v>113</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c t="s" r="G38" s="15">
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>37</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
         <v>114</v>
       </c>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c t="s" r="K38" s="17">
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
         <v>115</v>
       </c>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
-      <c r="O38" s="17"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="17"/>
+      <c t="s" r="Q37" s="12">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>116</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>117</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>37</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>118</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>120</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>121</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>37</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>41</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>87</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>1736.8699999999999</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>122</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>123</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>124</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="162">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2159,10 +2285,25 @@
     <mergeCell ref="H36:K36"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -252,6 +252,18 @@
   </si>
   <si>
     <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>49:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
   </si>
   <si>
     <t xml:space="preserve">زيت شعر املا 180 مل </t>
@@ -1695,7 +1707,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1721,11 +1733,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1737,14 +1749,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1754,14 +1766,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>91</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1777,7 +1789,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1787,14 +1799,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1810,7 +1822,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1820,11 +1832,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1836,14 +1848,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1853,11 +1865,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1869,14 +1881,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1886,11 +1898,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1902,14 +1914,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1919,11 +1931,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -1935,14 +1947,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1952,11 +1964,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1968,14 +1980,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1992,7 +2004,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2001,14 +2013,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2025,7 +2037,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2058,7 +2070,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2084,49 +2096,82 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>1736.8699999999999</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>122</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>123</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>124</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>125</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>37</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>41</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>91</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>1741.8699999999999</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>126</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>127</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>128</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2300,10 +2345,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -389,7 +389,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 3:31 PM</t>
+    <t>Thursday, 11 September, 2025 4:18 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -389,7 +389,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 4:18 PM</t>
+    <t>Thursday, 11 September, 2025 4:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -179,6 +179,24 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
     <t>HEPTA CARBAMIDE CREAM</t>
   </si>
   <si>
@@ -233,6 +251,21 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:23</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
     <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
   </si>
   <si>
@@ -251,6 +284,12 @@
     <t>41.5800</t>
   </si>
   <si>
+    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -389,7 +428,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 4:19 PM</t>
+    <t>Thursday, 11 September, 2025 5:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1393,13 +1432,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1426,7 +1465,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1443,7 +1482,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1525,7 +1564,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1542,7 +1581,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1558,7 +1597,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1575,7 +1614,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1591,13 +1630,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1608,7 +1647,7 @@
         <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1624,7 +1663,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1657,24 +1696,24 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1683,14 +1722,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1700,14 +1739,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1716,31 +1755,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1749,28 +1788,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1782,14 +1821,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1799,14 +1838,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1815,14 +1854,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1832,14 +1871,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1848,14 +1887,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1865,11 +1904,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1881,14 +1920,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1898,11 +1937,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -1914,14 +1953,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1931,14 +1970,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>107</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>108</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1954,7 +1993,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -1964,11 +2003,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>21</v>
@@ -1980,14 +2019,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -1997,11 +2036,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2013,14 +2052,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2030,14 +2069,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2046,14 +2085,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2063,14 +2102,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2079,14 +2118,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2096,11 +2135,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2112,14 +2151,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2129,49 +2168,181 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>1741.8699999999999</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
         <v>126</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>23</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>37</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>127</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>128</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c t="s" r="Q41" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
+        <v>129</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>130</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>37</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
+        <v>131</v>
+      </c>
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q42" s="12">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>133</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>134</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>37</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>135</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>137</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>138</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>37</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>41</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="P45" s="13">
+        <v>1982.0699999999999</v>
+      </c>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" ht="16.5" customHeight="1">
+      <c t="s" r="A46" s="14">
+        <v>139</v>
+      </c>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c t="s" r="G46" s="15">
+        <v>140</v>
+      </c>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c t="s" r="K46" s="17">
+        <v>141</v>
+      </c>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="202">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2350,10 +2521,30 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="K46:Q46"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -428,7 +428,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 5:08 PM</t>
+    <t>Thursday, 11 September, 2025 5:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -428,7 +428,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 5:15 PM</t>
+    <t>Thursday, 11 September, 2025 5:19 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -179,6 +179,18 @@
     <t>35.6400</t>
   </si>
   <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
     <t>EKIROZ 40 MG 14 TAB</t>
   </si>
   <si>
@@ -215,6 +227,18 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>MOIST-1 CREAM 100 ML</t>
   </si>
   <si>
@@ -335,9 +359,6 @@
     <t>8.0000</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -428,7 +449,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 5:19 PM</t>
+    <t>Thursday, 11 September, 2025 5:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1432,24 +1453,24 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1458,7 +1479,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1471,18 +1492,18 @@
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1491,14 +1512,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1508,14 +1529,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1524,7 +1545,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1541,11 +1562,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1557,7 +1578,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1574,11 +1595,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1590,14 +1611,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1607,14 +1628,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1623,14 +1644,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1640,14 +1661,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1656,14 +1677,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1673,14 +1694,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1689,14 +1710,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1706,14 +1727,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>84</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1729,13 +1750,13 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1746,7 +1767,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1762,7 +1783,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1772,14 +1793,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1788,28 +1809,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1821,31 +1842,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1854,31 +1875,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1887,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1904,11 +1925,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -1937,14 +1958,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1953,14 +1974,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1970,14 +1991,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>108</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1986,14 +2007,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2003,7 +2024,7 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2043,7 +2064,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2059,7 +2080,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2069,11 +2090,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2085,14 +2106,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2102,11 +2123,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2118,14 +2139,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2135,11 +2156,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2151,14 +2172,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2168,11 +2189,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2184,14 +2205,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2201,14 +2222,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2217,14 +2238,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>130</v>
+        <v>52</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2234,14 +2255,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>99</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2257,7 +2278,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2267,14 +2288,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2283,14 +2304,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2300,49 +2321,115 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>41</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
-      <c r="P45" s="13">
-        <v>1982.0699999999999</v>
-      </c>
-      <c r="Q45" s="13"/>
-    </row>
-    <row r="46" ht="16.5" customHeight="1">
-      <c t="s" r="A46" s="14">
-        <v>139</v>
-      </c>
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c t="s" r="G46" s="15">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
         <v>140</v>
       </c>
-      <c r="H46" s="15"/>
-      <c r="I46" s="15"/>
-      <c r="J46" s="16"/>
-      <c t="s" r="K46" s="17">
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
         <v>141</v>
       </c>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
-      <c r="O46" s="17"/>
-      <c r="P46" s="17"/>
-      <c r="Q46" s="17"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>37</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>142</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>144</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>145</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>37</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>41</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2018.7000000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>146</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>147</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>148</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="202">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2541,10 +2628,20 @@
     <mergeCell ref="H44:K44"/>
     <mergeCell ref="L44:M44"/>
     <mergeCell ref="N44:O44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="K46:Q46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -80,33 +80,33 @@
     <t>AVIVAVASC 5/160MG 28 F.C. TAB.</t>
   </si>
   <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>124.0000</t>
+  </si>
+  <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:10</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>CARBAPEX 200 MG 30 TABS.</t>
+  </si>
+  <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>124.00</t>
-  </si>
-  <si>
-    <t>124.0000</t>
-  </si>
-  <si>
-    <t>BECOZYME I.M./I.V. 12 AMP</t>
-  </si>
-  <si>
-    <t>1:10</t>
-  </si>
-  <si>
-    <t>120.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>CARBAPEX 200 MG 30 TABS.</t>
-  </si>
-  <si>
     <t>57.00</t>
   </si>
   <si>
@@ -167,249 +167,282 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>14:0</t>
+  </si>
+  <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>35.6400</t>
+  </si>
+  <si>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>HEPTA CARBAMIDE CREAM</t>
+  </si>
+  <si>
+    <t>69.50</t>
+  </si>
+  <si>
+    <t>69.5000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MOIST-1 CREAM 100 ML</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:23</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>13.2000</t>
+  </si>
+  <si>
+    <t>0:10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8290:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
+    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>49:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زيت شعر املا 180 مل </t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>شامبو فاتيكا 360مل</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>70.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>75.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>ماكينه حلاقه جليت فليكتور</t>
+  </si>
+  <si>
     <t>15:0</t>
   </si>
   <si>
-    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>35.6400</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>EKIROZ 40 MG 14 TAB</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>HEPTA CARBAMIDE CREAM</t>
-  </si>
-  <si>
-    <t>69.50</t>
-  </si>
-  <si>
-    <t>69.5000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MOIST-1 CREAM 100 ML</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>OMEGA P SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:23</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>0:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>بادي سبلاش ايفا</t>
-  </si>
-  <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>49:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زيت شعر املا 180 مل </t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا كبير 180 مل</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>شامبو فاتيكا 360مل</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>70.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>75.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>ماكينه حلاقه جليت فليكتور</t>
-  </si>
-  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -449,7 +482,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 5:27 PM</t>
+    <t>Thursday, 11 September, 2025 5:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1156,7 +1189,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1166,11 +1199,11 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
         <v>21</v>
@@ -1182,14 +1215,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1199,14 +1232,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1215,14 +1248,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1401,10 +1434,10 @@
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1413,14 +1446,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1430,11 +1463,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1446,14 +1479,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1463,14 +1496,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1479,31 +1512,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1512,7 +1545,7 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
@@ -1525,18 +1558,18 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1545,14 +1578,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1562,14 +1595,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1578,14 +1611,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1595,11 +1628,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1611,14 +1644,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1628,14 +1661,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1644,14 +1677,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1661,14 +1694,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1677,14 +1710,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1694,11 +1727,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1710,14 +1743,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1727,14 +1760,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1750,7 +1783,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1767,7 +1800,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1783,7 +1816,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1793,14 +1826,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1809,31 +1842,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1842,14 +1875,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1859,14 +1892,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1875,24 +1908,24 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -1915,24 +1948,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1941,31 +1974,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1974,31 +2007,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2007,24 +2040,24 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
@@ -2047,7 +2080,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2057,14 +2090,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>73</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2073,14 +2106,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2090,14 +2123,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2106,14 +2139,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2123,11 +2156,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2139,14 +2172,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2156,11 +2189,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2172,14 +2205,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2189,14 +2222,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2205,14 +2238,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2222,11 +2255,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2238,14 +2271,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2255,11 +2288,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2278,7 +2311,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2295,7 +2328,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2311,7 +2344,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>18</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2321,14 +2354,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>107</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2337,14 +2370,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>36</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2354,11 +2387,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2370,14 +2403,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2387,49 +2420,181 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2018.7000000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
+        <v>144</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>31</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>37</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>145</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c t="s" r="Q47" s="12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>147</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
         <v>148</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>37</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>149</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q48" s="12">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
+        <v>151</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
+        <v>152</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>37</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>153</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>154</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
+        <v>155</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>156</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>37</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>41</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="P51" s="13">
+        <v>2249.6999999999998</v>
+      </c>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" ht="16.5" customHeight="1">
+      <c t="s" r="A52" s="14">
+        <v>157</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c t="s" r="G52" s="15">
+        <v>158</v>
+      </c>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c t="s" r="K52" s="17">
+        <v>159</v>
+      </c>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="232">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2638,10 +2803,30 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="K52:Q52"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -482,7 +482,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 5:51 PM</t>
+    <t>Thursday, 11 September, 2025 6:01 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -332,6 +332,15 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -482,7 +491,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 6:01 PM</t>
+    <t>Thursday, 11 September, 2025 6:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2014,7 +2023,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2024,14 +2033,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2040,14 +2049,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2057,14 +2066,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2073,28 +2082,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2106,14 +2115,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2123,14 +2132,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2139,14 +2148,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2156,14 +2165,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2172,14 +2181,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2189,7 +2198,7 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2212,7 +2221,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2222,14 +2231,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2238,14 +2247,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2255,14 +2264,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2271,14 +2280,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2292,7 +2301,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2304,14 +2313,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2321,11 +2330,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2344,7 +2353,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2377,7 +2386,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2410,7 +2419,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2420,11 +2429,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2436,14 +2445,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2453,14 +2462,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2476,7 +2485,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2486,14 +2495,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2502,14 +2511,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2519,14 +2528,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2535,14 +2544,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2552,49 +2561,82 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>124</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
-      <c r="P51" s="13">
-        <v>2249.6999999999998</v>
-      </c>
-      <c r="Q51" s="13"/>
-    </row>
-    <row r="52" ht="16.5" customHeight="1">
-      <c t="s" r="A52" s="14">
-        <v>157</v>
-      </c>
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c t="s" r="G52" s="15">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
         <v>158</v>
       </c>
-      <c r="H52" s="15"/>
-      <c r="I52" s="15"/>
-      <c r="J52" s="16"/>
-      <c t="s" r="K52" s="17">
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
         <v>159</v>
       </c>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
-      <c r="O52" s="17"/>
-      <c r="P52" s="17"/>
-      <c r="Q52" s="17"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>37</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>41</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="P52" s="13">
+        <v>2267.6999999999998</v>
+      </c>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" ht="16.5" customHeight="1">
+      <c t="s" r="A53" s="14">
+        <v>160</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c t="s" r="G53" s="15">
+        <v>161</v>
+      </c>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c t="s" r="K53" s="17">
+        <v>162</v>
+      </c>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="232">
+  <mergeCells count="237">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2823,10 +2865,15 @@
     <mergeCell ref="H50:K50"/>
     <mergeCell ref="L50:M50"/>
     <mergeCell ref="N50:O50"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="G52:I52"/>
-    <mergeCell ref="K52:Q52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="K53:Q53"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -362,6 +362,18 @@
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>جل فاتيكا اكياس</t>
   </si>
   <si>
@@ -440,12 +452,6 @@
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -458,7 +464,7 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>24.0000</t>
+    <t>32.0000</t>
   </si>
   <si>
     <t>مسك الرمان</t>
@@ -491,7 +497,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 6:06 PM</t>
+    <t>Thursday, 11 September, 2025 6:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2172,7 +2178,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2205,7 +2211,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2231,11 +2237,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>41</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2247,14 +2253,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2264,14 +2270,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2280,14 +2286,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2297,14 +2303,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2320,7 +2326,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2330,11 +2336,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2346,14 +2352,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2363,11 +2369,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2379,14 +2385,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2396,11 +2402,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2412,14 +2418,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2429,11 +2435,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2445,14 +2451,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2462,11 +2468,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2485,7 +2491,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2495,14 +2501,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>122</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2511,14 +2517,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2528,14 +2534,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>122</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2544,14 +2550,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2561,14 +2567,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2577,14 +2583,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2594,49 +2600,82 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>127</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
-      <c r="P52" s="13">
-        <v>2267.6999999999998</v>
-      </c>
-      <c r="Q52" s="13"/>
-    </row>
-    <row r="53" ht="16.5" customHeight="1">
-      <c t="s" r="A53" s="14">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
         <v>160</v>
       </c>
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c t="s" r="G53" s="15">
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
         <v>161</v>
       </c>
-      <c r="H53" s="15"/>
-      <c r="I53" s="15"/>
-      <c r="J53" s="16"/>
-      <c t="s" r="K53" s="17">
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>37</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>41</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>2290.6999999999998</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
         <v>162</v>
       </c>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
-      <c r="O53" s="17"/>
-      <c r="P53" s="17"/>
-      <c r="Q53" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>163</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>164</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="237">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2870,10 +2909,15 @@
     <mergeCell ref="H51:K51"/>
     <mergeCell ref="L51:M51"/>
     <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="K53:Q53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -242,6 +251,15 @@
     <t>52.0000</t>
   </si>
   <si>
+    <t>IVERZINE 6MG 24 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -263,6 +281,9 @@
     <t>180.0000</t>
   </si>
   <si>
+    <t>MOMENTA CREAM 30 GM</t>
+  </si>
+  <si>
     <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -497,7 +518,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 6:57 PM</t>
+    <t>Thursday, 11 September, 2025 7:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1600,7 +1621,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1633,7 +1654,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1650,7 +1671,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1699,7 +1720,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1709,14 +1730,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1725,14 +1746,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1742,14 +1763,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1758,14 +1779,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1775,14 +1796,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1791,7 +1812,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -1808,11 +1829,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>21</v>
@@ -1824,14 +1845,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1841,14 +1862,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1864,7 +1885,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1874,14 +1895,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1890,14 +1911,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1907,14 +1928,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1923,31 +1944,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1956,14 +1977,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1973,11 +1994,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1989,14 +2010,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2006,14 +2027,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2022,7 +2043,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2035,18 +2056,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2055,14 +2076,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2072,14 +2093,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2088,14 +2109,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2105,11 +2126,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2121,31 +2142,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2167,7 +2188,7 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2178,7 +2199,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2194,24 +2215,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>55</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2220,14 +2241,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2237,11 +2258,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2253,14 +2274,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2270,11 +2291,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2286,14 +2307,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2303,14 +2324,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2319,14 +2340,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2336,11 +2357,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2352,14 +2373,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2369,11 +2390,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2385,14 +2406,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2402,14 +2423,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2418,14 +2439,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2435,11 +2456,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2451,14 +2472,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2468,7 +2489,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>119</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2491,7 +2512,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2501,11 +2522,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>119</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2517,14 +2538,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2534,14 +2555,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>78</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2550,14 +2571,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2567,14 +2588,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2583,14 +2604,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2600,11 +2621,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2616,14 +2637,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2633,49 +2654,148 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>2290.6999999999998</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
+        <v>159</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>160</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>37</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>161</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c t="s" r="Q53" s="12">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
         <v>163</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
         <v>164</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>37</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>165</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>166</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
+        <v>167</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>168</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>37</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>41</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="P56" s="13">
+        <v>2400.4200000000001</v>
+      </c>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="14">
+        <v>169</v>
+      </c>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c t="s" r="G57" s="15">
+        <v>170</v>
+      </c>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c t="s" r="K57" s="17">
+        <v>171</v>
+      </c>
+      <c r="L57" s="17"/>
+      <c r="M57" s="17"/>
+      <c r="N57" s="17"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="17"/>
+      <c r="Q57" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="257">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2914,10 +3034,25 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="K57:Q57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -233,6 +233,15 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>HELIXBROM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>HEPTA CARBAMIDE CREAM</t>
   </si>
   <si>
@@ -506,19 +515,13 @@
     <t>7:0</t>
   </si>
   <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
     <t>23:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 7:01 PM</t>
+    <t>Thursday, 11 September, 2025 7:02 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1753,7 +1756,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1770,7 +1773,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1786,7 +1789,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1796,11 +1799,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1812,14 +1815,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1836,7 +1839,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1862,11 +1865,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1878,14 +1881,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1895,11 +1898,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1911,14 +1914,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1928,11 +1931,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1951,7 +1954,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1968,7 +1971,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1998,7 +2001,7 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2010,14 +2013,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2031,10 +2034,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2043,31 +2046,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>107</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2089,7 +2092,7 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2100,7 +2103,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2116,7 +2119,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2133,7 +2136,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2149,7 +2152,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2166,7 +2169,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2182,7 +2185,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2192,14 +2195,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2208,14 +2211,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2225,14 +2228,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2241,28 +2244,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>21</v>
@@ -2274,14 +2277,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>125</v>
+        <v>48</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2291,11 +2294,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2307,14 +2310,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2324,14 +2327,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2340,14 +2343,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2357,14 +2360,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2373,14 +2376,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2390,7 +2393,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>41</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2413,7 +2416,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2423,14 +2426,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>119</v>
+        <v>41</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2439,14 +2442,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2456,14 +2459,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2472,14 +2475,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2493,7 +2496,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>120</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2505,14 +2508,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2522,11 +2525,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2545,7 +2548,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2578,7 +2581,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2588,11 +2591,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2604,14 +2607,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>36</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2621,11 +2624,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2637,14 +2640,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2654,14 +2657,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2677,7 +2680,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2687,14 +2690,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>133</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2703,14 +2706,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2720,14 +2723,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2736,14 +2739,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2753,49 +2756,82 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
-      <c r="P56" s="13">
-        <v>2400.4200000000001</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" ht="16.5" customHeight="1">
-      <c t="s" r="A57" s="14">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>168</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
         <v>169</v>
       </c>
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c t="s" r="G57" s="15">
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>37</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>41</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="P57" s="13">
+        <v>2435.4200000000001</v>
+      </c>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="14">
         <v>170</v>
       </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-      <c r="J57" s="16"/>
-      <c t="s" r="K57" s="17">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c t="s" r="G58" s="15">
         <v>171</v>
       </c>
-      <c r="L57" s="17"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="17"/>
-      <c r="O57" s="17"/>
-      <c r="P57" s="17"/>
-      <c r="Q57" s="17"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c t="s" r="K58" s="17">
+        <v>172</v>
+      </c>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="262">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3049,10 +3085,15 @@
     <mergeCell ref="H55:K55"/>
     <mergeCell ref="L55:M55"/>
     <mergeCell ref="N55:O55"/>
-    <mergeCell ref="P56:Q56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="G57:I57"/>
-    <mergeCell ref="K57:Q57"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="K58:Q58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -521,7 +521,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 7:02 PM</t>
+    <t>Thursday, 11 September, 2025 7:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -314,6 +314,18 @@
     <t>44.5500</t>
   </si>
   <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
@@ -521,7 +533,7 @@
     <t>23:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 7:22 PM</t>
+    <t>Thursday, 11 September, 2025 7:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2034,10 +2046,10 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2046,14 +2058,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2063,14 +2075,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>107</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2079,20 +2091,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2103,7 +2115,7 @@
         <v>110</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2112,7 +2124,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2125,18 +2137,18 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2145,14 +2157,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2162,14 +2174,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2178,14 +2190,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2195,14 +2207,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2211,14 +2223,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2235,7 +2247,7 @@
         <v>123</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2251,7 +2263,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2261,14 +2273,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2277,28 +2289,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>21</v>
@@ -2310,14 +2322,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>128</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2327,11 +2339,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2367,7 +2379,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2400,7 +2412,7 @@
         <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2426,11 +2438,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2442,14 +2454,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2459,14 +2471,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2475,14 +2487,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2492,14 +2504,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2515,7 +2527,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2525,11 +2537,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2541,14 +2553,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2558,11 +2570,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2574,14 +2586,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2591,11 +2603,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>21</v>
@@ -2607,14 +2619,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2624,11 +2636,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>130</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2640,14 +2652,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2657,11 +2669,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2673,14 +2685,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2690,14 +2702,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2706,14 +2718,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2730,7 +2742,7 @@
         <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>136</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2756,14 +2768,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2772,14 +2784,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2789,49 +2801,82 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
-      <c r="P57" s="13">
-        <v>2435.4200000000001</v>
-      </c>
-      <c r="Q57" s="13"/>
-    </row>
-    <row r="58" ht="16.5" customHeight="1">
-      <c t="s" r="A58" s="14">
-        <v>170</v>
-      </c>
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c t="s" r="G58" s="15">
-        <v>171</v>
-      </c>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
-      <c t="s" r="K58" s="17">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
         <v>172</v>
       </c>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>173</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>37</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>41</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="P58" s="13">
+        <v>2451.4200000000001</v>
+      </c>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" ht="16.5" customHeight="1">
+      <c t="s" r="A59" s="14">
+        <v>174</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c t="s" r="G59" s="15">
+        <v>175</v>
+      </c>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c t="s" r="K59" s="17">
+        <v>176</v>
+      </c>
+      <c r="L59" s="17"/>
+      <c r="M59" s="17"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="262">
+  <mergeCells count="267">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3090,10 +3135,15 @@
     <mergeCell ref="H56:K56"/>
     <mergeCell ref="L56:M56"/>
     <mergeCell ref="N56:O56"/>
-    <mergeCell ref="P57:Q57"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="K58:Q58"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="K59:Q59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -116,12 +116,24 @@
     <t>0:2</t>
   </si>
   <si>
+    <t>CEFOZON 1 GM VIAL</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -272,12 +284,6 @@
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
-    <t>4:0</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -455,6 +461,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -530,10 +545,10 @@
     <t>مناديل سولو سحب</t>
   </si>
   <si>
-    <t>23:0</t>
-  </si>
-  <si>
-    <t>Thursday, 11 September, 2025 7:23 PM</t>
+    <t>22:0</t>
+  </si>
+  <si>
+    <t>Thursday, 11 September, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1345,18 +1360,18 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>39</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1372,24 +1387,24 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1398,14 +1413,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1455,7 +1470,7 @@
         <v>50</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1481,14 +1496,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1497,14 +1512,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1514,14 +1529,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1530,14 +1545,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1554,7 +1569,7 @@
         <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1587,7 +1602,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1603,24 +1618,24 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1629,31 +1644,31 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1662,14 +1677,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1679,11 +1694,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1695,14 +1710,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1712,14 +1727,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1728,7 +1743,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1745,11 +1760,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>21</v>
@@ -1761,7 +1776,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1778,11 +1793,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1794,14 +1809,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1811,14 +1826,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1827,14 +1842,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1867,7 +1882,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1877,14 +1892,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1893,7 +1908,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1910,11 +1925,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1926,14 +1941,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1943,11 +1958,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -1959,14 +1974,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1976,11 +1991,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>96</v>
+        <v>53</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -1992,14 +2007,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2009,14 +2024,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2025,14 +2040,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2042,14 +2057,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>104</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2058,14 +2073,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2075,14 +2090,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>60</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2098,7 +2113,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>108</v>
+        <v>48</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2108,14 +2123,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>111</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2124,31 +2139,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2157,31 +2172,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2190,14 +2205,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2207,14 +2222,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2223,14 +2238,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2240,14 +2255,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2256,14 +2271,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2273,14 +2288,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>36</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2289,14 +2304,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2306,14 +2321,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2329,21 +2344,21 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>21</v>
@@ -2355,28 +2370,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>132</v>
+        <v>52</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>21</v>
@@ -2388,31 +2403,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2421,31 +2436,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2454,28 +2469,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>41</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2487,31 +2502,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2527,24 +2542,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2553,7 +2568,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2566,15 +2581,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2586,20 +2601,20 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>21</v>
+        <v>154</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
@@ -2626,13 +2641,13 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
@@ -2640,7 +2655,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2652,28 +2667,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2685,28 +2700,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2718,31 +2733,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>87</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2764,18 +2779,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>140</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2784,31 +2799,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>75</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2817,66 +2832,132 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
-      <c r="P58" s="13">
-        <v>2451.4200000000001</v>
-      </c>
-      <c r="Q58" s="13"/>
-    </row>
-    <row r="59" ht="16.5" customHeight="1">
-      <c t="s" r="A59" s="14">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>175</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>176</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>41</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>79</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>177</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>178</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>41</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
+        <v>45</v>
+      </c>
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
         <v>174</v>
       </c>
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c t="s" r="G59" s="15">
-        <v>175</v>
-      </c>
-      <c r="H59" s="15"/>
-      <c r="I59" s="15"/>
-      <c r="J59" s="16"/>
-      <c t="s" r="K59" s="17">
-        <v>176</v>
-      </c>
-      <c r="L59" s="17"/>
-      <c r="M59" s="17"/>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
+      <c t="s" r="Q59" s="12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="P60" s="13">
+        <v>2595.4200000000001</v>
+      </c>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" ht="16.5" customHeight="1">
+      <c t="s" r="A61" s="14">
+        <v>179</v>
+      </c>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c t="s" r="G61" s="15">
+        <v>180</v>
+      </c>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c t="s" r="K61" s="17">
+        <v>181</v>
+      </c>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="17"/>
+      <c r="Q61" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="267">
+  <mergeCells count="277">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3140,10 +3221,20 @@
     <mergeCell ref="H57:K57"/>
     <mergeCell ref="L57:M57"/>
     <mergeCell ref="N57:O57"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="A59:F59"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="K59:Q59"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="K61:Q61"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -263,6 +263,18 @@
     <t>69.5000</t>
   </si>
   <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>IVERZINE 1% LOTION 60 ML</t>
   </si>
   <si>
@@ -281,6 +293,12 @@
     <t>27.7200</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -452,9 +470,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>45.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -500,9 +515,6 @@
     <t xml:space="preserve">شيلز حريمي مزيل عرق </t>
   </si>
   <si>
-    <t>75.00</t>
-  </si>
-  <si>
     <t>75.0000</t>
   </si>
   <si>
@@ -548,7 +560,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 7:30 PM</t>
+    <t>Thursday, 11 September, 2025 7:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1816,7 +1828,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1826,14 +1838,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1842,14 +1854,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1859,14 +1871,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1875,14 +1887,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1892,11 +1904,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1908,28 +1920,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>32</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>21</v>
@@ -1941,14 +1953,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1958,14 +1970,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1974,14 +1986,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1991,11 +2003,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>21</v>
@@ -2007,7 +2019,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2024,11 +2036,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2040,14 +2052,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2057,14 +2069,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2080,7 +2092,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2097,7 +2109,7 @@
         <v>105</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>106</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2106,7 +2118,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2123,11 +2135,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2146,7 +2158,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2156,14 +2168,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q36" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q36" s="12">
-        <v>113</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2172,31 +2184,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2205,14 +2217,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2222,14 +2234,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>118</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>119</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2245,13 +2257,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2311,7 +2323,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>127</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2321,14 +2333,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2337,14 +2349,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2354,14 +2366,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2377,24 +2389,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>52</v>
+        <v>133</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2403,28 +2415,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>135</v>
+        <v>59</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2436,14 +2448,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2453,14 +2465,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2469,14 +2481,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2486,11 +2498,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>21</v>
@@ -2502,14 +2514,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2519,14 +2531,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2535,14 +2547,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2552,14 +2564,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2568,14 +2580,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>152</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2585,11 +2597,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2608,7 +2620,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2618,14 +2630,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2634,7 +2646,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2651,11 +2663,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2667,14 +2679,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2707,7 +2719,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2721,7 +2733,7 @@
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>21</v>
@@ -2733,14 +2745,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2750,11 +2762,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>21</v>
@@ -2766,14 +2778,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>167</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2783,11 +2795,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2799,14 +2811,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2816,14 +2828,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2832,14 +2844,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2849,14 +2861,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>142</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2865,14 +2877,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2882,14 +2894,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2898,14 +2910,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2915,49 +2927,115 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
+        <v>179</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>180</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>41</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>79</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>80</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>181</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>182</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>41</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>45</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>178</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="60" ht="24.75" customHeight="1">
-      <c r="P60" s="13">
-        <v>2595.4200000000001</v>
-      </c>
-      <c r="Q60" s="13"/>
-    </row>
-    <row r="61" ht="16.5" customHeight="1">
-      <c t="s" r="A61" s="14">
-        <v>179</v>
-      </c>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c t="s" r="G61" s="15">
-        <v>180</v>
-      </c>
-      <c r="H61" s="15"/>
-      <c r="I61" s="15"/>
-      <c r="J61" s="16"/>
-      <c t="s" r="K61" s="17">
-        <v>181</v>
-      </c>
-      <c r="L61" s="17"/>
-      <c r="M61" s="17"/>
-      <c r="N61" s="17"/>
-      <c r="O61" s="17"/>
-      <c r="P61" s="17"/>
-      <c r="Q61" s="17"/>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="P62" s="13">
+        <v>2697.4200000000001</v>
+      </c>
+      <c r="Q62" s="13"/>
+    </row>
+    <row r="63" ht="16.5" customHeight="1">
+      <c t="s" r="A63" s="14">
+        <v>183</v>
+      </c>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c t="s" r="G63" s="15">
+        <v>184</v>
+      </c>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c t="s" r="K63" s="17">
+        <v>185</v>
+      </c>
+      <c r="L63" s="17"/>
+      <c r="M63" s="17"/>
+      <c r="N63" s="17"/>
+      <c r="O63" s="17"/>
+      <c r="P63" s="17"/>
+      <c r="Q63" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="277">
+  <mergeCells count="287">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3231,10 +3309,20 @@
     <mergeCell ref="H59:K59"/>
     <mergeCell ref="L59:M59"/>
     <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="A61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="K61:Q61"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="G63:I63"/>
+    <mergeCell ref="K63:Q63"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -227,6 +227,15 @@
     <t>82.0000</t>
   </si>
   <si>
+    <t>EPICOPHYLLINE 2.5G/100ML SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>EVASTINE 10MG 20 F.C.TAB.</t>
   </si>
   <si>
@@ -317,6 +326,18 @@
     <t>MOMENTA CREAM 30 GM</t>
   </si>
   <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
     <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -350,6 +371,15 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
@@ -362,9 +392,6 @@
     <t>1:23</t>
   </si>
   <si>
-    <t>132.00</t>
-  </si>
-  <si>
     <t>13.2000</t>
   </si>
   <si>
@@ -560,7 +587,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 7:45 PM</t>
+    <t>Thursday, 11 September, 2025 7:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1696,7 +1723,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1713,7 +1740,7 @@
         <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1729,7 +1756,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1762,7 +1789,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1779,7 +1806,7 @@
         <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1828,7 +1855,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1838,14 +1865,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1854,14 +1881,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1878,7 +1905,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1894,7 +1921,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1911,7 +1938,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1927,24 +1954,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1953,7 +1980,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1966,18 +1993,18 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1986,14 +2013,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2003,14 +2030,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2036,11 +2063,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2052,14 +2079,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2069,11 +2096,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2085,14 +2112,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2102,14 +2129,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2118,14 +2145,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2135,14 +2162,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2151,14 +2178,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2168,14 +2195,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>112</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2205,7 +2232,7 @@
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2217,14 +2244,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>48</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2257,13 +2284,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2274,7 +2301,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2290,7 +2317,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2304,7 +2331,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2316,14 +2343,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2333,14 +2360,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2362,7 +2389,7 @@
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2373,7 +2400,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2389,7 +2416,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2399,14 +2426,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2415,14 +2442,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2432,7 +2459,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>59</v>
+        <v>136</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2455,24 +2482,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2481,31 +2508,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2514,31 +2541,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2554,7 +2581,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2564,11 +2591,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2580,14 +2607,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2597,11 +2624,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>87</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>21</v>
@@ -2613,14 +2640,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2630,14 +2657,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2646,14 +2673,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2663,11 +2690,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2679,14 +2706,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2696,11 +2723,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>45</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2729,14 +2756,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>135</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2752,7 +2779,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2785,7 +2812,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2795,11 +2822,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2811,14 +2838,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2828,11 +2855,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2844,14 +2871,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>21</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2861,11 +2888,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2877,14 +2904,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2894,14 +2921,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2910,14 +2937,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2927,14 +2954,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -2960,11 +2987,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -2983,7 +3010,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -2993,49 +3020,148 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>184</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>185</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>41</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>186</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>188</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>189</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>41</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>82</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>83</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
+        <v>190</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
+        <v>191</v>
+      </c>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>41</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>45</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="62" ht="25.5" customHeight="1">
-      <c r="P62" s="13">
-        <v>2697.4200000000001</v>
-      </c>
-      <c r="Q62" s="13"/>
-    </row>
-    <row r="63" ht="16.5" customHeight="1">
-      <c t="s" r="A63" s="14">
-        <v>183</v>
-      </c>
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c t="s" r="G63" s="15">
-        <v>184</v>
-      </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="15"/>
-      <c r="J63" s="16"/>
-      <c t="s" r="K63" s="17">
-        <v>185</v>
-      </c>
-      <c r="L63" s="17"/>
-      <c r="M63" s="17"/>
-      <c r="N63" s="17"/>
-      <c r="O63" s="17"/>
-      <c r="P63" s="17"/>
-      <c r="Q63" s="17"/>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>2813.98</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
+        <v>192</v>
+      </c>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>193</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>194</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3319,10 +3445,25 @@
     <mergeCell ref="H61:K61"/>
     <mergeCell ref="L61:M61"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -587,7 +587,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 7:46 PM</t>
+    <t>Thursday, 11 September, 2025 7:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -188,6 +188,9 @@
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
+    <t>1:1</t>
+  </si>
+  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -329,9 +332,6 @@
     <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>132.00</t>
   </si>
   <si>
@@ -587,7 +587,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 7:47 PM</t>
+    <t>Thursday, 11 September, 2025 8:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1591,7 +1591,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1601,11 +1601,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>16</v>
@@ -1617,14 +1617,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1634,11 +1634,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>21</v>
@@ -1650,14 +1650,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1667,11 +1667,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1700,11 +1700,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>21</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1733,11 +1733,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>21</v>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
@@ -1766,11 +1766,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1799,11 +1799,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>16</v>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -1832,11 +1832,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>21</v>
@@ -1848,7 +1848,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1865,11 +1865,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1881,14 +1881,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1898,11 +1898,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>29</v>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1931,11 +1931,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>21</v>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -1964,11 +1964,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>21</v>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2034,7 +2034,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2046,7 +2046,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2063,11 +2063,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2079,7 +2079,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2096,11 +2096,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2112,14 +2112,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2591,11 +2591,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>21</v>
@@ -2727,7 +2727,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2921,7 +2921,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3086,11 +3086,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -275,6 +275,15 @@
     <t>69.5000</t>
   </si>
   <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
     <t>INDERAL 10 MG 50 TABS</t>
   </si>
   <si>
@@ -341,6 +350,9 @@
     <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
   </si>
   <si>
+    <t xml:space="preserve">NP PLUS  CREAM</t>
+  </si>
+  <si>
     <t>OMEGA P SYRUP 120 ML</t>
   </si>
   <si>
@@ -398,6 +410,12 @@
     <t>0:10</t>
   </si>
   <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
   </si>
   <si>
@@ -467,6 +485,15 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
     <t>جل فاتيكا اكياس</t>
   </si>
   <si>
@@ -476,9 +503,6 @@
     <t>2.50</t>
   </si>
   <si>
-    <t>5.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">زيت شعر املا 180 مل </t>
   </si>
   <si>
@@ -569,9 +593,6 @@
     <t>17:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>90.0000</t>
   </si>
   <si>
@@ -587,7 +608,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 8:09 PM</t>
+    <t>Thursday, 11 September, 2025 8:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1888,7 +1909,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1898,14 +1919,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1914,14 +1935,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1938,7 +1959,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1954,7 +1975,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1971,7 +1992,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1987,24 +2008,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2013,7 +2034,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2026,18 +2047,18 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2046,14 +2067,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2063,14 +2084,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>37</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2096,11 +2117,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>21</v>
@@ -2112,14 +2133,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2129,14 +2150,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2152,7 +2173,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2162,14 +2183,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2178,14 +2199,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2195,11 +2216,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>21</v>
@@ -2218,24 +2239,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2244,14 +2265,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2261,14 +2282,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>119</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2277,14 +2298,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2294,11 +2315,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2310,7 +2331,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2327,14 +2348,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2343,14 +2364,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>21</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2360,14 +2381,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2376,31 +2397,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2409,14 +2430,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>39</v>
+        <v>130</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2426,14 +2447,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2442,7 +2463,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2459,11 +2480,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>21</v>
@@ -2475,7 +2496,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2488,18 +2509,18 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2508,14 +2529,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2525,14 +2546,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2541,14 +2562,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2558,11 +2579,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>21</v>
@@ -2574,31 +2595,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2607,31 +2628,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2640,31 +2661,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2673,14 +2694,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2690,11 +2711,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>106</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2706,14 +2727,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2723,11 +2744,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2739,14 +2760,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2756,14 +2777,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2772,14 +2793,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>31</v>
+        <v>162</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2789,14 +2810,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2805,14 +2826,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2822,11 +2843,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>21</v>
@@ -2838,14 +2859,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2855,11 +2876,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>45</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2871,14 +2892,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2888,14 +2909,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2904,14 +2925,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2921,11 +2942,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>90</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -2937,14 +2958,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2954,11 +2975,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -2977,7 +2998,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2987,11 +3008,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3010,7 +3031,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3027,7 +3048,7 @@
         <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3043,7 +3064,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3053,14 +3074,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>157</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3069,14 +3090,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>39</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3086,11 +3107,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>84</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3102,14 +3123,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3119,49 +3140,181 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q64" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>189</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>31</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>41</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>190</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>192</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>193</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>41</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>134</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>195</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>196</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>41</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>83</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>84</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>197</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>198</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>41</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>45</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>194</v>
+      </c>
+      <c t="s" r="Q68" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>2813.98</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>192</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>193</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>194</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="P69" s="13">
+        <v>2970.48</v>
+      </c>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" ht="16.5" customHeight="1">
+      <c t="s" r="A70" s="14">
+        <v>199</v>
+      </c>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c t="s" r="G70" s="15">
+        <v>200</v>
+      </c>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c t="s" r="K70" s="17">
+        <v>201</v>
+      </c>
+      <c r="L70" s="17"/>
+      <c r="M70" s="17"/>
+      <c r="N70" s="17"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="322">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3460,10 +3613,30 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="K70:Q70"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -608,7 +608,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 8:12 PM</t>
+    <t>Thursday, 11 September, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -248,6 +248,15 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>GENICA MOIST LOTION</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
     <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
   </si>
   <si>
@@ -608,7 +617,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 8:13 PM</t>
+    <t>Thursday, 11 September, 2025 8:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1810,13 +1819,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1827,7 +1836,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1843,7 +1852,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1860,7 +1869,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1909,7 +1918,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1926,7 +1935,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1942,7 +1951,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1952,14 +1961,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1968,14 +1977,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1992,7 +2001,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2008,7 +2017,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2025,7 +2034,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2041,24 +2050,24 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>32</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2067,7 +2076,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2080,18 +2089,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2100,14 +2109,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2117,14 +2126,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2150,11 +2159,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2166,14 +2175,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2183,14 +2192,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>110</v>
+        <v>64</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2206,7 +2215,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2216,14 +2225,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2232,28 +2241,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2265,7 +2274,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2278,15 +2287,15 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>21</v>
@@ -2305,7 +2314,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2322,7 +2331,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2355,7 +2364,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>123</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2364,14 +2373,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2381,14 +2390,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>125</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>126</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2404,7 +2413,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2418,7 +2427,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>65</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2430,14 +2439,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2447,14 +2456,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>132</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2463,14 +2472,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>21</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2480,14 +2489,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>21</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2496,28 +2505,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>137</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>21</v>
@@ -2542,7 +2551,7 @@
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2553,7 +2562,7 @@
         <v>140</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2569,7 +2578,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2586,7 +2595,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2602,7 +2611,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2619,7 +2628,7 @@
         <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2635,7 +2644,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>148</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2645,14 +2654,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2661,14 +2670,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2678,14 +2687,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>60</v>
+        <v>152</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2694,28 +2703,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>107</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>21</v>
@@ -2727,14 +2736,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>155</v>
+        <v>52</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2744,11 +2753,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>109</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2760,14 +2769,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2800,7 +2809,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2810,14 +2819,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2847,10 +2856,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2859,14 +2868,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2876,11 +2885,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2892,14 +2901,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2909,14 +2918,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>149</v>
+        <v>45</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2925,7 +2934,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -2942,14 +2951,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2965,7 +2974,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2975,11 +2984,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -2991,14 +3000,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>31</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3012,7 +3021,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>21</v>
@@ -3024,14 +3033,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3041,11 +3050,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3064,7 +3073,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3074,11 +3083,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3090,14 +3099,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3107,11 +3116,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>21</v>
@@ -3123,14 +3132,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3140,11 +3149,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3156,14 +3165,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3173,14 +3182,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3196,7 +3205,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>193</v>
+        <v>31</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3206,14 +3215,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>165</v>
+        <v>36</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3239,14 +3248,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>168</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3255,14 +3264,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3272,49 +3281,82 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>194</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q68" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>200</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>201</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>41</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>45</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>197</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="69" ht="25.5" customHeight="1">
-      <c r="P69" s="13">
-        <v>2970.48</v>
-      </c>
-      <c r="Q69" s="13"/>
-    </row>
-    <row r="70" ht="16.5" customHeight="1">
-      <c t="s" r="A70" s="14">
-        <v>199</v>
-      </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c t="s" r="G70" s="15">
-        <v>200</v>
-      </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="15"/>
-      <c r="J70" s="16"/>
-      <c t="s" r="K70" s="17">
-        <v>201</v>
-      </c>
-      <c r="L70" s="17"/>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
-      <c r="O70" s="17"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="17"/>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="P70" s="13">
+        <v>3200.48</v>
+      </c>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" ht="16.5" customHeight="1">
+      <c t="s" r="A71" s="14">
+        <v>202</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c t="s" r="G71" s="15">
+        <v>203</v>
+      </c>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c t="s" r="K71" s="17">
+        <v>204</v>
+      </c>
+      <c r="L71" s="17"/>
+      <c r="M71" s="17"/>
+      <c r="N71" s="17"/>
+      <c r="O71" s="17"/>
+      <c r="P71" s="17"/>
+      <c r="Q71" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="322">
+  <mergeCells count="327">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3633,10 +3675,15 @@
     <mergeCell ref="H68:K68"/>
     <mergeCell ref="L68:M68"/>
     <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="K70:Q70"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="K71:Q71"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -143,6 +143,15 @@
     <t>12.0000</t>
   </si>
   <si>
+    <t>CIALIS 20MG 2 TABS</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>COBAL F 500/200MCG 30 F.C. TAB</t>
   </si>
   <si>
@@ -248,6 +257,18 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:4</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>7.9200</t>
+  </si>
+  <si>
     <t>GENICA MOIST LOTION</t>
   </si>
   <si>
@@ -356,6 +377,15 @@
     <t>43.5600</t>
   </si>
   <si>
+    <t>MUPIRAX 2% OINT 30GM</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
     <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -392,6 +422,18 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -473,6 +515,21 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
   </si>
   <si>
@@ -515,9 +572,6 @@
     <t xml:space="preserve">زيت شعر املا 180 مل </t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -548,9 +602,6 @@
     <t>سرنجات انسولين</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>7.00</t>
   </si>
   <si>
@@ -617,7 +668,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 8:18 PM</t>
+    <t>Thursday, 11 September, 2025 8:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1489,7 +1540,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1506,7 +1557,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1522,7 +1573,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1532,11 +1583,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>16</v>
@@ -1548,14 +1599,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1565,14 +1616,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1581,14 +1632,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1598,14 +1649,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1631,14 +1682,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1647,14 +1698,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1664,14 +1715,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1680,14 +1731,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1697,14 +1748,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1713,20 +1764,20 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
       <c t="s" r="L21" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
@@ -1737,7 +1788,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1759,7 +1810,7 @@
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1786,7 +1837,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1803,7 +1854,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1819,13 +1870,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1836,7 +1887,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1852,7 +1903,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1862,14 +1913,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1878,7 +1929,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1891,15 +1942,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>21</v>
@@ -1911,14 +1962,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1928,14 +1979,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1944,14 +1995,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1961,14 +2012,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1977,14 +2028,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2001,7 +2052,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2017,7 +2068,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2034,7 +2085,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2050,7 +2101,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2060,14 +2111,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2076,28 +2127,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>21</v>
@@ -2109,14 +2160,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2126,11 +2177,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2142,28 +2193,28 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>21</v>
@@ -2175,14 +2226,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2192,14 +2243,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2208,14 +2259,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2225,14 +2276,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2241,14 +2292,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2258,11 +2309,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>21</v>
@@ -2274,31 +2325,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2307,28 +2358,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>21</v>
@@ -2340,14 +2391,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2357,14 +2408,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2373,31 +2424,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>126</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2413,7 +2464,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2430,7 +2481,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2446,7 +2497,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2460,7 +2511,7 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2472,14 +2523,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2489,14 +2540,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2505,14 +2556,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>21</v>
+        <v>138</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2522,14 +2573,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2538,31 +2589,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2571,14 +2622,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2588,11 +2639,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2604,14 +2655,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2621,14 +2672,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>21</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2637,14 +2688,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2654,14 +2705,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2670,31 +2721,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2703,14 +2754,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2720,14 +2771,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>60</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2736,28 +2787,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>109</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>21</v>
@@ -2769,31 +2820,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2802,31 +2853,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2835,31 +2886,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>39</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2868,28 +2919,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>31</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>63</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2901,14 +2952,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>55</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2918,11 +2969,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2934,14 +2985,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2951,14 +3002,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2967,14 +3018,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2984,11 +3035,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>21</v>
@@ -3000,14 +3051,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3017,14 +3068,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3033,14 +3084,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3050,11 +3101,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>153</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3066,14 +3117,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3083,11 +3134,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>48</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>21</v>
@@ -3099,14 +3150,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3116,14 +3167,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3132,14 +3183,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3149,11 +3200,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>21</v>
@@ -3165,14 +3216,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3182,11 +3233,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3198,7 +3249,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3215,14 +3266,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3231,14 +3282,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3248,14 +3299,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>168</v>
+        <v>21</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3264,14 +3315,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3281,11 +3332,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>87</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3297,14 +3348,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3314,49 +3365,214 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q69" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>207</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>208</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>41</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>178</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>179</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>209</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>31</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>41</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>210</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>211</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>212</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>213</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>41</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>151</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>215</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>216</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>41</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>93</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>217</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>218</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>41</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>48</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>39</v>
       </c>
     </row>
-    <row r="70" ht="24.75" customHeight="1">
-      <c r="P70" s="13">
-        <v>3200.48</v>
-      </c>
-      <c r="Q70" s="13"/>
-    </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c t="s" r="A71" s="14">
-        <v>202</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c t="s" r="G71" s="15">
-        <v>203</v>
-      </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="15"/>
-      <c r="J71" s="16"/>
-      <c t="s" r="K71" s="17">
-        <v>204</v>
-      </c>
-      <c r="L71" s="17"/>
-      <c r="M71" s="17"/>
-      <c r="N71" s="17"/>
-      <c r="O71" s="17"/>
-      <c r="P71" s="17"/>
-      <c r="Q71" s="17"/>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="P75" s="13">
+        <v>3661.4000000000001</v>
+      </c>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" ht="16.5" customHeight="1">
+      <c t="s" r="A76" s="14">
+        <v>219</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c t="s" r="G76" s="15">
+        <v>220</v>
+      </c>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c t="s" r="K76" s="17">
+        <v>221</v>
+      </c>
+      <c r="L76" s="17"/>
+      <c r="M76" s="17"/>
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17"/>
+      <c r="Q76" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="327">
+  <mergeCells count="352">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3680,10 +3896,35 @@
     <mergeCell ref="H69:K69"/>
     <mergeCell ref="L69:M69"/>
     <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="K71:Q71"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="A76:F76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="K76:Q76"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -515,93 +515,84 @@
     <t>4.0000</t>
   </si>
   <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
+    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>49:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زيت شعر املا 180 مل </t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
   </si>
   <si>
     <t>9:0</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>بادي سبلاش ايفا</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>33:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>49:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زيت شعر املا 180 مل </t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا كبير 180 مل</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>3.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
     <t>7.00</t>
   </si>
   <si>
@@ -668,7 +659,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 8:31 PM</t>
+    <t>Thursday, 11 September, 2025 8:32 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2893,7 +2884,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2903,14 +2894,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>172</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2919,28 +2910,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>174</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>21</v>
@@ -2952,14 +2943,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>55</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2969,11 +2960,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>116</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>21</v>
@@ -2985,14 +2976,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3002,11 +2993,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>21</v>
@@ -3018,14 +3009,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3035,14 +3026,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3051,14 +3042,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3068,14 +3059,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3084,14 +3075,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3101,11 +3092,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>187</v>
+        <v>48</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>21</v>
@@ -3117,14 +3108,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>31</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3134,14 +3125,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>104</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3150,7 +3141,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3167,14 +3158,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3183,14 +3174,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3223,7 +3214,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3237,7 +3228,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>21</v>
@@ -3249,14 +3240,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3266,11 +3257,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>21</v>
@@ -3289,7 +3280,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3299,11 +3290,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>103</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>21</v>
@@ -3315,14 +3306,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3332,11 +3323,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>21</v>
@@ -3348,14 +3339,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3365,11 +3356,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>21</v>
@@ -3381,14 +3372,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3398,14 +3389,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3421,7 +3412,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3431,14 +3422,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>151</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>36</v>
+        <v>182</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3464,14 +3455,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>151</v>
+        <v>93</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>172</v>
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3480,14 +3471,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3497,82 +3488,49 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="A74" s="7">
-        <v>68</v>
-      </c>
-      <c r="B74" s="7"/>
-      <c t="s" r="C74" s="8">
+      <c r="P74" s="13">
+        <v>3493.4000000000001</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>216</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
         <v>217</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c t="s" r="H74" s="9">
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
         <v>218</v>
       </c>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c t="s" r="L74" s="10">
-        <v>41</v>
-      </c>
-      <c r="M74" s="10"/>
-      <c t="s" r="N74" s="8">
-        <v>48</v>
-      </c>
-      <c r="O74" s="8"/>
-      <c t="s" r="P74" s="11">
-        <v>214</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75" ht="24.75" customHeight="1">
-      <c r="P75" s="13">
-        <v>3661.4000000000001</v>
-      </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" ht="16.5" customHeight="1">
-      <c t="s" r="A76" s="14">
-        <v>219</v>
-      </c>
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c t="s" r="G76" s="15">
-        <v>220</v>
-      </c>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="16"/>
-      <c t="s" r="K76" s="17">
-        <v>221</v>
-      </c>
-      <c r="L76" s="17"/>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17"/>
-      <c r="Q76" s="17"/>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="352">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3916,15 +3874,10 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="H74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="A76:F76"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ADOLOR 30 MG 3 AMPS.</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>ANTI-COX II 15MG/3ML 6 AMP</t>
   </si>
   <si>
     <t>2:4</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>78.00</t>
   </si>
   <si>
     <t>12.4800</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>ASPOCID 75MG 30 TAB.</t>
   </si>
   <si>
@@ -131,6 +143,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CETAFEN PLUS 30 TAB.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
@@ -176,9 +200,6 @@
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
-    <t>5:0</t>
-  </si>
-  <si>
     <t>44.00</t>
   </si>
   <si>
@@ -197,9 +218,6 @@
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
-    <t>1:1</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -269,6 +287,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
     <t>GENICA MOIST LOTION</t>
   </si>
   <si>
@@ -497,9 +524,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>36.00</t>
-  </si>
-  <si>
     <t>18.0000</t>
   </si>
   <si>
@@ -515,6 +539,21 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
   </si>
   <si>
@@ -554,12 +593,21 @@
     <t>2.50</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>51:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">زيت شعر املا 180 مل </t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
@@ -572,10 +620,19 @@
     <t>8:0</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>8.0000</t>
+    <t>10.0000</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -584,15 +641,12 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>3.0000</t>
+    <t>6.0000</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
-    <t>9:0</t>
-  </si>
-  <si>
     <t>7.00</t>
   </si>
   <si>
@@ -602,9 +656,6 @@
     <t>سرنجه دواء</t>
   </si>
   <si>
-    <t>4.00</t>
-  </si>
-  <si>
     <t>شامبو فاتيكا 360مل</t>
   </si>
   <si>
@@ -623,6 +674,9 @@
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
     <t>ماكينه حلاقه جليت فليكتور</t>
   </si>
   <si>
@@ -638,6 +692,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>20:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
@@ -659,7 +722,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 8:32 PM</t>
+    <t>Thursday, 11 September, 2025 8:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1350,7 +1413,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1359,14 +1422,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1383,7 +1446,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1392,14 +1455,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1416,7 +1479,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1425,14 +1488,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1442,14 +1505,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>32</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>33</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1458,14 +1521,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1475,14 +1538,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>37</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>38</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>39</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1491,31 +1554,31 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>43</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>21</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1531,7 +1594,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1541,14 +1604,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1557,31 +1620,31 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1590,14 +1653,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1607,14 +1670,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1623,14 +1686,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1647,7 +1710,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1673,14 +1736,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1689,14 +1752,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1713,7 +1776,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1739,14 +1802,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1755,14 +1818,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1772,11 +1835,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1788,31 +1851,31 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1821,14 +1884,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1845,7 +1908,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1861,13 +1924,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1878,7 +1941,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1894,7 +1957,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1904,14 +1967,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1920,31 +1983,31 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1953,14 +2016,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1977,7 +2040,7 @@
         <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1993,7 +2056,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2003,14 +2066,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2026,13 +2089,13 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -2043,7 +2106,7 @@
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2059,7 +2122,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2092,7 +2155,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2102,14 +2165,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2118,14 +2181,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2135,14 +2198,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2151,14 +2214,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2168,11 +2231,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -2184,31 +2247,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2217,14 +2280,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2234,14 +2297,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2250,14 +2313,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2267,14 +2330,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2283,31 +2346,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>68</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2316,14 +2379,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2333,11 +2396,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2349,31 +2412,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2382,14 +2445,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2399,14 +2462,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2415,31 +2478,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2448,31 +2511,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2481,14 +2544,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2498,14 +2561,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>132</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2514,31 +2577,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>136</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2547,14 +2610,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2564,14 +2627,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2580,14 +2643,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2597,11 +2660,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2613,14 +2676,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2630,14 +2693,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2663,14 +2726,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>149</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2686,7 +2749,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2700,10 +2763,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>28</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2712,31 +2775,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2752,7 +2815,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2762,14 +2825,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2778,14 +2841,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2795,14 +2858,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2818,13 +2881,13 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
@@ -2835,7 +2898,7 @@
         <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2851,7 +2914,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2861,14 +2924,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2877,14 +2940,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2894,14 +2957,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>63</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2917,24 +2980,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2943,31 +3006,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2976,31 +3039,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>21</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3009,31 +3072,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3042,31 +3105,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3075,31 +3138,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>48</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3108,31 +3171,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3141,31 +3204,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3174,31 +3237,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3207,31 +3270,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3240,31 +3303,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>56</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3273,31 +3336,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3306,31 +3369,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3339,31 +3402,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>205</v>
+        <v>35</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3372,31 +3435,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>177</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3405,31 +3468,31 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>182</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3438,31 +3501,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3471,66 +3534,330 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>3493.4000000000001</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>216</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>217</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
-        <v>218</v>
-      </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>220</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>43</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>49</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
+        <v>186</v>
+      </c>
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
+        <v>221</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>35</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>49</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>186</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>222</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>223</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>49</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>186</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>224</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>35</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>49</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>225</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>226</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>227</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>228</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>49</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>90</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>230</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>231</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>49</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>160</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>233</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>234</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>49</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>102</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>235</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>236</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>49</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>56</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="P82" s="13">
+        <v>3789.8299999999999</v>
+      </c>
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" ht="16.5" customHeight="1">
+      <c t="s" r="A83" s="14">
+        <v>237</v>
+      </c>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c t="s" r="G83" s="15">
+        <v>238</v>
+      </c>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c t="s" r="K83" s="17">
+        <v>239</v>
+      </c>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="387">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3874,10 +4201,50 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="K83:Q83"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -236,6 +236,15 @@
     <t>55.0000</t>
   </si>
   <si>
+    <t>DIPROSALIC LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
     <t>DOGMATIL 50MG 30 CAPS.</t>
   </si>
   <si>
@@ -722,7 +731,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 8:35 PM</t>
+    <t>Thursday, 11 September, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1891,7 +1900,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1901,14 +1910,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1917,20 +1926,20 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1941,7 +1950,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1963,7 +1972,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
@@ -1990,7 +1999,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2007,7 +2016,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2023,7 +2032,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>89</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2033,14 +2042,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2049,14 +2058,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2066,14 +2075,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2089,24 +2098,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2122,13 +2131,13 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -2139,7 +2148,7 @@
         <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2155,7 +2164,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2172,7 +2181,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2221,7 +2230,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2238,7 +2247,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2254,7 +2263,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2264,14 +2273,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2280,14 +2289,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2304,7 +2313,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2320,7 +2329,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2337,7 +2346,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2353,24 +2362,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2379,7 +2388,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2392,18 +2401,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2412,14 +2421,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2429,14 +2438,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>41</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2462,11 +2471,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2478,14 +2487,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2495,14 +2504,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2518,13 +2527,13 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
@@ -2535,7 +2544,7 @@
         <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2551,21 +2560,21 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2577,28 +2586,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2610,7 +2619,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2623,15 +2632,15 @@
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2650,7 +2659,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2667,7 +2676,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2700,7 +2709,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2709,14 +2718,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2726,14 +2735,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2742,14 +2751,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2782,7 +2791,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2796,7 +2805,7 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>74</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2808,14 +2817,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2825,14 +2834,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>158</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2841,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2858,14 +2867,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>32</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2874,28 +2883,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -2920,7 +2929,7 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2931,7 +2940,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2947,7 +2956,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2964,7 +2973,7 @@
         <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2980,7 +2989,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2990,14 +2999,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>14</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3006,14 +3015,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>43</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3023,14 +3032,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>174</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3039,14 +3048,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3056,14 +3065,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>180</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3072,14 +3081,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3089,14 +3098,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>69</v>
+        <v>181</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
         <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3105,28 +3114,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>125</v>
+        <v>69</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>126</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3138,14 +3147,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3155,11 +3164,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3171,14 +3180,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3211,7 +3220,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3221,14 +3230,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3258,10 +3267,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3270,14 +3279,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3310,7 +3319,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3320,11 +3329,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>56</v>
+        <v>202</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>205</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>56</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3386,14 +3395,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>174</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3402,7 +3411,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3419,14 +3428,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3442,7 +3451,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3459,7 +3468,7 @@
         <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3475,7 +3484,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3485,11 +3494,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3501,14 +3510,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3518,11 +3527,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3541,7 +3550,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3551,11 +3560,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3567,14 +3576,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3584,11 +3593,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>186</v>
+        <v>115</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3617,11 +3626,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3650,11 +3659,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3706,7 +3715,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3749,14 +3758,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>180</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3782,14 +3791,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>102</v>
+        <v>163</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>183</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3798,14 +3807,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3815,49 +3824,82 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>232</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q81" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>238</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>239</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>49</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>56</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="82" ht="25.5" customHeight="1">
-      <c r="P82" s="13">
-        <v>3789.8299999999999</v>
-      </c>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" ht="16.5" customHeight="1">
-      <c t="s" r="A83" s="14">
-        <v>237</v>
-      </c>
-      <c r="B83" s="14"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c t="s" r="G83" s="15">
-        <v>238</v>
-      </c>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="16"/>
-      <c t="s" r="K83" s="17">
-        <v>239</v>
-      </c>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>3832.8299999999999</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>240</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>241</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>242</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="387">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4241,10 +4283,15 @@
     <mergeCell ref="H81:K81"/>
     <mergeCell ref="L81:M81"/>
     <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="A83:F83"/>
-    <mergeCell ref="G83:I83"/>
-    <mergeCell ref="K83:Q83"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -257,6 +257,12 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>EKIROZ 40 MG 14 TAB</t>
   </si>
   <si>
@@ -296,6 +302,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
     <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
   </si>
   <si>
@@ -530,6 +545,18 @@
     <t>95.0000</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
@@ -539,132 +566,132 @@
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
-    <t>8290:0</t>
+    <t>8288:0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>108.0000</t>
+  </si>
+  <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2 سم</t>
+  </si>
+  <si>
+    <t>33:0</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>بودره نلج اكياس</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>5.0000</t>
+  </si>
+  <si>
+    <t>جل فاتيكا اكياس</t>
+  </si>
+  <si>
+    <t>49:0</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>51:0</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">زيت شعر املا 180 مل </t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
+    <t>زيت فاتيكا كبير 180 مل</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>6.0000</t>
+  </si>
+  <si>
+    <t>سرنجات انسولين</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>7.0000</t>
+  </si>
+  <si>
+    <t>سرنجه دواء</t>
+  </si>
+  <si>
     <t>4.0000</t>
   </si>
   <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>108.0000</t>
-  </si>
-  <si>
-    <t>بادي سبلاش ايفا</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2 سم</t>
-  </si>
-  <si>
-    <t>33:0</t>
-  </si>
-  <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
-    <t>بودره نلج اكياس</t>
-  </si>
-  <si>
-    <t>5.00</t>
-  </si>
-  <si>
-    <t>5.0000</t>
-  </si>
-  <si>
-    <t>جل فاتيكا اكياس</t>
-  </si>
-  <si>
-    <t>49:0</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>51:0</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">زيت شعر املا 180 مل </t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>85.0000</t>
-  </si>
-  <si>
-    <t>زيت فاتيكا كبير 180 مل</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>4.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>6.0000</t>
-  </si>
-  <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
-    <t>سرنجه دواء</t>
-  </si>
-  <si>
     <t>شامبو فاتيكا 360مل</t>
   </si>
   <si>
@@ -731,7 +758,7 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 8:42 PM</t>
+    <t>Thursday, 11 September, 2025 8:44 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1972,15 +1999,15 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -1992,7 +2019,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2005,15 +2032,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2025,14 +2052,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2042,14 +2069,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2058,14 +2085,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2075,14 +2102,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2091,14 +2118,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2108,14 +2135,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2124,28 +2151,28 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2157,14 +2184,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2174,11 +2201,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -2190,7 +2217,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2203,15 +2230,15 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>25</v>
@@ -2223,14 +2250,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2240,14 +2267,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2256,14 +2283,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2273,14 +2300,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2289,14 +2316,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2306,14 +2333,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2322,14 +2349,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2339,14 +2366,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2355,14 +2382,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2372,14 +2399,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2388,24 +2415,24 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>36</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2428,7 +2455,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2438,11 +2465,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2454,24 +2481,24 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
@@ -2494,7 +2521,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2504,14 +2531,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2520,14 +2547,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2537,14 +2564,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2553,28 +2580,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2586,14 +2613,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2603,14 +2630,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>64</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2619,14 +2646,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2636,11 +2663,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>25</v>
@@ -2652,14 +2679,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2669,11 +2696,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>140</v>
+        <v>63</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>141</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2685,31 +2712,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2718,14 +2745,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2735,14 +2762,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>148</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2751,14 +2778,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2768,11 +2795,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2784,14 +2811,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2801,14 +2828,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2817,14 +2844,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>59</v>
+        <v>155</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2834,11 +2861,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2857,7 +2884,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>25</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2867,14 +2894,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>161</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2883,14 +2910,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2900,14 +2927,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2916,31 +2943,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>43</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
+        <v>165</v>
+      </c>
+      <c t="s" r="Q54" s="12">
         <v>166</v>
-      </c>
-      <c t="s" r="Q54" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2956,7 +2983,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2970,10 +2997,10 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2982,28 +3009,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3015,7 +3042,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3032,7 +3059,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3055,7 +3082,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3065,14 +3092,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3081,14 +3108,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3098,14 +3125,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>183</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3114,14 +3141,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3131,14 +3158,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3147,31 +3174,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3180,31 +3207,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3213,28 +3240,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>69</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3246,14 +3273,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3263,14 +3290,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3279,14 +3306,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3296,11 +3323,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3312,14 +3339,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3329,11 +3356,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3345,14 +3372,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3362,14 +3389,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3385,7 +3412,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>35</v>
+        <v>207</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3395,14 +3422,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3411,14 +3438,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,14 +3455,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3444,14 +3471,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3461,14 +3488,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>56</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3477,14 +3504,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3494,14 +3521,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3527,14 +3554,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3543,14 +3570,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3560,14 +3587,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3576,14 +3603,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3593,11 +3620,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>115</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3609,14 +3636,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3626,11 +3653,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3642,14 +3669,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3659,11 +3686,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>189</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>190</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3675,14 +3702,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3692,11 +3719,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3708,14 +3735,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3725,14 +3752,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3741,14 +3768,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3758,11 +3785,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>93</v>
+        <v>198</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3774,14 +3801,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3791,14 +3818,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>183</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3814,7 +3841,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3824,14 +3851,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>106</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3840,14 +3867,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3857,49 +3884,148 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
+        <v>242</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
+        <v>243</v>
+      </c>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>49</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>168</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
+        <v>245</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>246</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>49</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>110</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
+        <v>247</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
+        <v>248</v>
+      </c>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>49</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>56</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q85" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>3832.8299999999999</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
-        <v>240</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
-        <v>241</v>
-      </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
-        <v>242</v>
-      </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="P86" s="13">
+        <v>4043.8299999999999</v>
+      </c>
+      <c r="Q86" s="13"/>
+    </row>
+    <row r="87" ht="16.5" customHeight="1">
+      <c t="s" r="A87" s="14">
+        <v>249</v>
+      </c>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c t="s" r="G87" s="15">
+        <v>250</v>
+      </c>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c t="s" r="K87" s="17">
+        <v>251</v>
+      </c>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="407">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4288,10 +4414,25 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="G87:I87"/>
+    <mergeCell ref="K87:Q87"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -257,6 +257,9 @@
     <t>20.7900</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -512,21 +515,30 @@
     <t>0:10</t>
   </si>
   <si>
+    <t>RAMETAX 1GM I.V./I.M VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL CREAM 20GM</t>
   </si>
   <si>
     <t>30.00</t>
   </si>
   <si>
+    <t>60.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
   </si>
   <si>
     <t>60.00</t>
   </si>
   <si>
-    <t>60.0000</t>
-  </si>
-  <si>
     <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
   </si>
   <si>
@@ -653,9 +665,6 @@
     <t>زيت فاتيكا كبير 180 مل</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -758,7 +767,10 @@
     <t>22:0</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 8:44 PM</t>
+    <t>نيفياسوفت 20</t>
+  </si>
+  <si>
+    <t>Thursday, 11 September, 2025 9:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1993,7 +2005,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2003,14 +2015,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2019,7 +2031,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2032,15 +2044,15 @@
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2052,7 +2064,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2065,15 +2077,15 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2085,14 +2097,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2102,14 +2114,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2118,14 +2130,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2135,14 +2147,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2151,14 +2163,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2168,14 +2180,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2184,14 +2196,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2201,14 +2213,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2217,31 +2229,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2250,31 +2262,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2283,14 +2295,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2300,14 +2312,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2316,7 +2328,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2333,11 +2345,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2349,14 +2361,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2366,14 +2378,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2382,14 +2394,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2399,14 +2411,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2415,14 +2427,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2432,14 +2444,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2448,14 +2460,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2465,14 +2477,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2481,31 +2493,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>36</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2514,7 +2526,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2527,18 +2539,18 @@
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2547,14 +2559,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2564,14 +2576,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2580,7 +2592,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2597,11 +2609,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>74</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2620,7 +2632,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2630,14 +2642,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>137</v>
+        <v>73</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2646,31 +2658,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2679,28 +2691,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>64</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2719,21 +2731,21 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2758,15 +2770,15 @@
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2778,14 +2790,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2795,14 +2807,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2811,7 +2823,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2828,14 +2840,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>153</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2844,14 +2856,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>155</v>
+        <v>59</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2861,14 +2873,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2877,14 +2889,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2894,11 +2906,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2910,14 +2922,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2927,11 +2939,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2943,14 +2955,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2960,14 +2972,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>166</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2976,14 +2988,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2993,14 +3005,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3009,31 +3021,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>43</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3042,7 +3054,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3059,14 +3071,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3075,28 +3087,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3108,14 +3120,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>43</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3125,14 +3137,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3141,14 +3153,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3158,14 +3170,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3174,14 +3186,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3191,14 +3203,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3207,14 +3219,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3224,14 +3236,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>190</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3240,14 +3252,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3257,14 +3269,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3273,31 +3285,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>134</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3306,28 +3318,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>35</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>25</v>
@@ -3339,14 +3351,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3356,11 +3368,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>134</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3372,14 +3384,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3389,14 +3401,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3405,14 +3417,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>207</v>
+        <v>22</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3422,11 +3434,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3438,14 +3450,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3455,14 +3467,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3471,14 +3483,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3488,11 +3500,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>121</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3504,14 +3516,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3521,14 +3533,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3544,7 +3556,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3554,14 +3566,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3570,7 +3582,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3587,11 +3599,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>43</v>
@@ -3603,14 +3615,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>189</v>
+        <v>35</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3620,14 +3632,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3636,7 +3648,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3653,14 +3665,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3669,14 +3681,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3686,11 +3698,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3702,14 +3714,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3719,11 +3731,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3735,14 +3747,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3752,11 +3764,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>198</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3775,7 +3787,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3785,11 +3797,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3801,14 +3813,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3818,11 +3830,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3851,14 +3863,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3867,14 +3879,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3884,11 +3896,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>95</v>
+        <v>202</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -3900,14 +3912,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>243</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3917,14 +3929,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>192</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3933,14 +3945,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3950,11 +3962,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -3966,14 +3978,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3983,49 +3995,148 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>248</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>249</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>49</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>111</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>250</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>251</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>49</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>56</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q87" s="12">
         <v>43</v>
       </c>
     </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="P86" s="13">
-        <v>4043.8299999999999</v>
-      </c>
-      <c r="Q86" s="13"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="14">
-        <v>249</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c t="s" r="G87" s="15">
-        <v>250</v>
-      </c>
-      <c r="H87" s="15"/>
-      <c r="I87" s="15"/>
-      <c r="J87" s="16"/>
-      <c t="s" r="K87" s="17">
-        <v>251</v>
-      </c>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>252</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>35</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>49</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>212</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q88" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="P89" s="13">
+        <v>4277.8299999999999</v>
+      </c>
+      <c r="Q89" s="13"/>
+    </row>
+    <row r="90" ht="16.5" customHeight="1">
+      <c t="s" r="A90" s="14">
+        <v>253</v>
+      </c>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c t="s" r="G90" s="15">
+        <v>254</v>
+      </c>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c t="s" r="K90" s="17">
+        <v>255</v>
+      </c>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="407">
+  <mergeCells count="422">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4429,10 +4540,25 @@
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
     <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="G87:I87"/>
-    <mergeCell ref="K87:Q87"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="A90:F90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="K90:Q90"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -440,6 +440,9 @@
     <t>118.0000</t>
   </si>
   <si>
+    <t>NAVOPROXIN PLUS 20 F.C. TAB.</t>
+  </si>
+  <si>
     <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -488,6 +491,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
     <t>PANTOLOC 40MG 14 TAB</t>
   </si>
   <si>
@@ -599,9 +608,6 @@
     <t>168.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
   </si>
   <si>
@@ -770,7 +776,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 9:03 PM</t>
+    <t>Thursday, 11 September, 2025 9:04 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2731,7 +2737,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2745,10 +2751,10 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2764,21 +2770,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2803,15 +2809,15 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>146</v>
+        <v>111</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2823,14 +2829,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2840,14 +2846,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2856,7 +2862,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2873,14 +2879,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>154</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2889,14 +2895,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2906,14 +2912,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2922,14 +2928,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>157</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2939,11 +2945,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2955,28 +2961,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>161</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>163</v>
+        <v>69</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2988,14 +2994,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>165</v>
+        <v>25</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3005,14 +3011,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3021,14 +3027,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>59</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3038,14 +3044,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>63</v>
+        <v>166</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3054,14 +3060,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3071,14 +3077,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>43</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3087,31 +3093,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3120,7 +3126,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3137,14 +3143,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3153,28 +3159,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3186,14 +3192,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3203,14 +3209,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3219,14 +3225,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3236,14 +3242,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>183</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3252,14 +3258,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3269,14 +3275,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3285,14 +3291,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3302,14 +3308,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>14</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>196</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3318,14 +3324,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3335,14 +3341,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3351,31 +3357,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>12</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>134</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>135</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3384,28 +3390,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>35</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>69</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3417,14 +3423,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3434,11 +3440,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>134</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3450,14 +3456,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3467,14 +3473,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3483,14 +3489,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>22</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3500,11 +3506,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3516,14 +3522,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3533,14 +3539,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3549,14 +3555,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>169</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3566,11 +3572,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>56</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3582,14 +3588,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3599,14 +3605,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3615,14 +3621,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3632,14 +3638,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>190</v>
+        <v>56</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3648,7 +3654,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3665,11 +3671,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>43</v>
@@ -3681,14 +3687,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>193</v>
+        <v>35</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3698,14 +3704,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3714,7 +3720,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3731,14 +3737,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3747,14 +3753,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>196</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3764,11 +3770,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3780,14 +3786,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3797,11 +3803,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>121</v>
+        <v>221</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3813,14 +3819,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3830,11 +3836,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3846,14 +3852,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3863,11 +3869,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>202</v>
+        <v>121</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3886,7 +3892,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>238</v>
+        <v>43</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3896,11 +3902,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -3912,7 +3918,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3929,14 +3935,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3945,14 +3951,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3962,11 +3968,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>96</v>
+        <v>204</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -3978,14 +3984,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>35</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3995,14 +4001,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>172</v>
+        <v>242</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>196</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4011,14 +4017,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4028,11 +4034,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4044,14 +4050,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4061,14 +4067,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>43</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4077,14 +4083,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>35</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4094,49 +4100,115 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>212</v>
+        <v>111</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>213</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
-      <c r="P89" s="13">
-        <v>4277.8299999999999</v>
-      </c>
-      <c r="Q89" s="13"/>
-    </row>
-    <row r="90" ht="16.5" customHeight="1">
-      <c t="s" r="A90" s="14">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
+        <v>252</v>
+      </c>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
         <v>253</v>
       </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c t="s" r="G90" s="15">
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>49</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>56</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>249</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>254</v>
       </c>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="16"/>
-      <c t="s" r="K90" s="17">
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>35</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>49</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>214</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="P91" s="13">
+        <v>4326.8299999999999</v>
+      </c>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" ht="16.5" customHeight="1">
+      <c t="s" r="A92" s="14">
         <v>255</v>
       </c>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c t="s" r="G92" s="15">
+        <v>256</v>
+      </c>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c t="s" r="K92" s="17">
+        <v>257</v>
+      </c>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="422">
+  <mergeCells count="432">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4555,10 +4627,20 @@
     <mergeCell ref="H88:K88"/>
     <mergeCell ref="L88:M88"/>
     <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="A90:F90"/>
-    <mergeCell ref="G90:I90"/>
-    <mergeCell ref="K90:Q90"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="G92:I92"/>
+    <mergeCell ref="K92:Q92"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -260,6 +260,15 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>127.6800</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
     <t>DURICEF 500MG/5ML SUSP. 60ML</t>
   </si>
   <si>
@@ -776,7 +785,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 9:04 PM</t>
+    <t>Thursday, 11 September, 2025 9:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2011,7 +2020,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2025,10 +2034,10 @@
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>43</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2037,7 +2046,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -2058,7 +2067,7 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>25</v>
@@ -2070,7 +2079,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2087,11 +2096,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>25</v>
@@ -2103,7 +2112,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2120,11 +2129,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2136,7 +2145,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2153,11 +2162,11 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>16</v>
@@ -2169,14 +2178,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2186,11 +2195,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>38</v>
@@ -2202,7 +2211,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2219,11 +2228,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2235,14 +2244,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2252,11 +2261,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2268,7 +2277,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -2285,11 +2294,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2301,7 +2310,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2318,11 +2327,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2334,7 +2343,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2351,11 +2360,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2367,7 +2376,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2384,11 +2393,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2400,7 +2409,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2417,11 +2426,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2433,14 +2442,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2450,11 +2459,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>33</v>
@@ -2466,7 +2475,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2483,11 +2492,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2499,7 +2508,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2516,11 +2525,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2532,7 +2541,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2553,7 +2562,7 @@
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>25</v>
@@ -2565,7 +2574,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2586,7 +2595,7 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2598,7 +2607,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2615,11 +2624,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2631,7 +2640,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2664,7 +2673,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2681,11 +2690,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2697,7 +2706,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2714,11 +2723,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2730,7 +2739,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2751,7 +2760,7 @@
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2763,7 +2772,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2796,7 +2805,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2813,11 +2822,11 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2829,7 +2838,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2846,11 +2855,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2862,7 +2871,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2879,11 +2888,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2895,7 +2904,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2912,14 +2921,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2928,14 +2937,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2945,11 +2954,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2982,7 +2991,7 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2994,7 +3003,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3011,11 +3020,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3027,7 +3036,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3044,7 +3053,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -3060,14 +3069,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3077,14 +3086,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3093,14 +3102,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3114,7 +3123,7 @@
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>43</v>
@@ -3126,7 +3135,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3143,11 +3152,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>43</v>
@@ -3159,7 +3168,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3176,11 +3185,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3192,7 +3201,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3209,11 +3218,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3225,7 +3234,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3242,11 +3251,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3258,14 +3267,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3275,11 +3284,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3291,7 +3300,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3312,7 +3321,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3341,11 +3350,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>40</v>
@@ -3357,14 +3366,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3374,14 +3383,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3390,7 +3399,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3411,7 +3420,7 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3423,7 +3432,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3440,11 +3449,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>25</v>
@@ -3456,14 +3465,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3473,11 +3482,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>25</v>
@@ -3489,7 +3498,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3506,11 +3515,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3522,14 +3531,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3539,11 +3548,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>43</v>
@@ -3555,14 +3564,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3572,11 +3581,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3588,14 +3597,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3605,11 +3614,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3621,14 +3630,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3642,7 +3651,7 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3654,7 +3663,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3671,11 +3680,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>43</v>
@@ -3687,7 +3696,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3704,11 +3713,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>12</v>
@@ -3720,7 +3729,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3737,11 +3746,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>43</v>
@@ -3753,14 +3762,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3770,11 +3779,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3786,7 +3795,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3803,11 +3812,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3819,7 +3828,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3836,11 +3845,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3852,7 +3861,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3869,11 +3878,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3885,7 +3894,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3902,11 +3911,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -3918,7 +3927,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3935,11 +3944,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -3951,14 +3960,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3968,11 +3977,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -3984,7 +3993,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4001,11 +4010,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>40</v>
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4034,11 +4043,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4050,14 +4059,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4067,14 +4076,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4083,14 +4092,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4100,11 +4109,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4116,14 +4125,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4137,7 +4146,7 @@
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>43</v>
@@ -4149,7 +4158,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4166,11 +4175,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4178,13 +4187,13 @@
     </row>
     <row r="91" ht="25.5" customHeight="1">
       <c r="P91" s="13">
-        <v>4326.8299999999999</v>
+        <v>4358.5100000000002</v>
       </c>
       <c r="Q91" s="13"/>
     </row>
     <row r="92" ht="16.5" customHeight="1">
       <c t="s" r="A92" s="14">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
@@ -4192,13 +4201,13 @@
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
       <c t="s" r="G92" s="15">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="16"/>
       <c t="s" r="K92" s="17">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="L92" s="17"/>
       <c r="M92" s="17"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -785,7 +785,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 9:14 PM</t>
+    <t>Thursday, 11 September, 2025 9:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -215,6 +215,15 @@
     <t>66.0000</t>
   </si>
   <si>
+    <t>CORASORE 150MG 20 TAB</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -302,6 +311,12 @@
     <t>27.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -485,9 +500,6 @@
     <t>16.0000</t>
   </si>
   <si>
-    <t>0:4</t>
-  </si>
-  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -551,6 +563,15 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>364.00</t>
+  </si>
+  <si>
+    <t>182.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
   </si>
   <si>
@@ -768,6 +789,9 @@
   </si>
   <si>
     <t>90.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">مشط خشب </t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -1888,7 +1912,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1905,7 +1929,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1921,7 +1945,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1931,14 +1955,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1947,14 +1971,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1987,7 +2011,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1997,14 +2021,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2013,14 +2037,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2030,14 +2054,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2046,14 +2070,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2063,14 +2087,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
         <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2079,7 +2103,7 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
@@ -2092,11 +2116,11 @@
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
@@ -2125,7 +2149,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
@@ -2152,7 +2176,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2169,7 +2193,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2185,7 +2209,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2195,14 +2219,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2211,14 +2235,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2228,14 +2252,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2244,14 +2268,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2261,14 +2285,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2277,28 +2301,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>25</v>
@@ -2310,14 +2334,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2327,11 +2351,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
@@ -2343,7 +2367,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2356,15 +2380,15 @@
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>25</v>
@@ -2376,14 +2400,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2393,14 +2417,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2409,14 +2433,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2426,14 +2450,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2442,14 +2466,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2459,14 +2483,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2475,14 +2499,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2492,14 +2516,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2508,14 +2532,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2525,14 +2549,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2541,24 +2565,24 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
@@ -2581,7 +2605,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2591,11 +2615,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2607,24 +2631,24 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
@@ -2647,7 +2671,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2657,14 +2681,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2673,14 +2697,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2690,14 +2714,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2706,28 +2730,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2739,14 +2763,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2756,11 +2780,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>63</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2772,28 +2796,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>63</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2805,31 +2829,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2838,14 +2862,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2855,11 +2879,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>150</v>
+        <v>63</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>151</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>25</v>
@@ -2871,31 +2895,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>154</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2904,14 +2928,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2921,14 +2945,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>158</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2937,14 +2961,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2954,11 +2978,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2970,31 +2994,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3003,14 +3027,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3020,11 +3044,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3036,28 +3060,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>59</v>
+        <v>168</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>72</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3069,14 +3093,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>25</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3086,14 +3110,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>173</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3102,14 +3126,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>59</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3119,14 +3143,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>63</v>
+        <v>173</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3135,14 +3159,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3152,14 +3176,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>43</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3168,31 +3192,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3201,7 +3225,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3218,14 +3242,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3251,14 +3275,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3267,28 +3291,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3300,7 +3324,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3317,11 +3341,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>14</v>
+        <v>190</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3333,14 +3357,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3350,14 +3374,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3366,14 +3390,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3383,14 +3407,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>164</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3399,14 +3423,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3416,14 +3440,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3432,31 +3456,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>12</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>137</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>138</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3478,7 +3502,7 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
@@ -3489,7 +3513,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>168</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3505,21 +3529,21 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3531,14 +3555,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3548,14 +3572,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3564,14 +3588,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3581,11 +3605,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3597,14 +3621,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3614,11 +3638,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3630,14 +3654,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>175</v>
+        <v>220</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3647,14 +3671,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>56</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>125</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3663,14 +3687,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3684,10 +3708,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3696,14 +3720,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3713,14 +3737,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3729,14 +3753,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3746,14 +3770,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>228</v>
+        <v>56</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3769,7 +3793,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3783,10 +3807,10 @@
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3795,7 +3819,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3812,14 +3836,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3828,14 +3852,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3845,14 +3869,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3861,14 +3885,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3878,7 +3902,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>124</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -3901,7 +3925,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3911,11 +3935,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>208</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -3927,14 +3951,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3944,11 +3968,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -3960,14 +3984,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3977,11 +4001,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -3993,14 +4017,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4010,14 +4034,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4026,14 +4050,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>248</v>
+        <v>35</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4043,11 +4067,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>99</v>
+        <v>214</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4059,14 +4083,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4076,14 +4100,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>164</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4092,14 +4116,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>35</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4109,14 +4133,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>114</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>115</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4125,14 +4149,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4142,14 +4166,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4165,7 +4189,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>35</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4175,49 +4199,181 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>168</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
-      <c r="P91" s="13">
-        <v>4358.5100000000002</v>
-      </c>
-      <c r="Q91" s="13"/>
-    </row>
-    <row r="92" ht="16.5" customHeight="1">
-      <c t="s" r="A92" s="14">
-        <v>258</v>
-      </c>
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c t="s" r="G92" s="15">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>260</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>25</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>49</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>214</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>215</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>261</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>262</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>49</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>119</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>263</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>264</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>49</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>56</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>259</v>
       </c>
-      <c r="H92" s="15"/>
-      <c r="I92" s="15"/>
-      <c r="J92" s="16"/>
-      <c t="s" r="K92" s="17">
-        <v>260</v>
-      </c>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
+      <c t="s" r="Q93" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>265</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>35</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>49</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>224</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>4637.1499999999996</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>266</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>267</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>268</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="432">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4646,10 +4802,30 @@
     <mergeCell ref="H90:K90"/>
     <mergeCell ref="L90:M90"/>
     <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="A92:F92"/>
-    <mergeCell ref="G92:I92"/>
-    <mergeCell ref="K92:Q92"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -809,7 +809,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 9:17 PM</t>
+    <t>Thursday, 11 September, 2025 9:20 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -143,6 +143,18 @@
     <t>2:0</t>
   </si>
   <si>
+    <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>740.00</t>
+  </si>
+  <si>
+    <t>148.0000</t>
+  </si>
+  <si>
     <t>CETAFEN PLUS 30 TAB.</t>
   </si>
   <si>
@@ -719,7 +731,7 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>6.0000</t>
+    <t>9.0000</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -809,7 +821,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 9:20 PM</t>
+    <t>Thursday, 11 September, 2025 9:21 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1714,13 +1726,13 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
       <c t="s" r="L15" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
@@ -1731,7 +1743,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1747,21 +1759,21 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>25</v>
@@ -1773,14 +1785,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1790,14 +1802,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1806,14 +1818,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1846,7 +1858,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1856,14 +1868,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1872,14 +1884,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1889,14 +1901,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1905,14 +1917,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1922,14 +1934,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1938,14 +1950,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1955,14 +1967,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1971,14 +1983,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1995,7 +2007,7 @@
         <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2011,7 +2023,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2021,11 +2033,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>25</v>
@@ -2037,14 +2049,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>82</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2061,7 +2073,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2087,14 +2099,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2110,7 +2122,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2120,14 +2132,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2136,7 +2148,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2149,15 +2161,15 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>25</v>
@@ -2169,7 +2181,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2182,15 +2194,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2202,14 +2214,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2219,14 +2231,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2235,14 +2247,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2252,14 +2264,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2268,14 +2280,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2285,14 +2297,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>77</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>38</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2308,7 +2320,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2318,14 +2330,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2334,14 +2346,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2351,14 +2363,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2367,31 +2379,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2400,31 +2412,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2433,14 +2445,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2450,14 +2462,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2466,7 +2478,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2483,11 +2495,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2499,14 +2511,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2516,14 +2528,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2532,14 +2544,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2556,7 +2568,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2572,7 +2584,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2582,14 +2594,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2598,14 +2610,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2615,14 +2627,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2631,31 +2643,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2664,7 +2676,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2677,18 +2689,18 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2697,14 +2709,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2714,14 +2726,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2730,7 +2742,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2747,11 +2759,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2763,14 +2775,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2780,14 +2792,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2796,31 +2808,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2829,31 +2841,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2862,14 +2874,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2879,14 +2891,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2895,28 +2907,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>119</v>
+        <v>67</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2928,7 +2940,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2941,15 +2953,15 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -2961,14 +2973,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2978,14 +2990,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2994,14 +3006,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3011,14 +3023,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3027,14 +3039,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>164</v>
+        <v>63</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3051,7 +3063,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3073,15 +3085,15 @@
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>72</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>99</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -3093,28 +3105,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>170</v>
+        <v>76</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>171</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3126,14 +3138,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3143,11 +3155,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3159,14 +3171,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3176,14 +3188,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>146</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>176</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>177</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3209,14 +3221,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>63</v>
+        <v>150</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>43</v>
+        <v>181</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3225,14 +3237,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>43</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3242,11 +3254,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>43</v>
@@ -3258,14 +3270,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3275,14 +3287,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3291,31 +3303,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3324,7 +3336,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3337,18 +3349,18 @@
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3357,14 +3369,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3374,14 +3386,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3390,14 +3402,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3430,7 +3442,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3440,14 +3452,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3456,14 +3468,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>43</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3473,14 +3485,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3513,7 +3525,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>168</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3529,7 +3541,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3539,14 +3551,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>72</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3555,28 +3567,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>143</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3588,28 +3600,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>213</v>
+        <v>12</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>146</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3628,21 +3640,21 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>22</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3654,20 +3666,20 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
@@ -3675,10 +3687,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3687,31 +3699,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3727,21 +3739,21 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>168</v>
+        <v>227</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3753,28 +3765,28 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3786,31 +3798,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>60</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3819,7 +3831,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3832,18 +3844,18 @@
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3852,7 +3864,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3865,18 +3877,18 @@
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>43</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3885,31 +3897,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>206</v>
+        <v>35</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>172</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3918,28 +3930,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>210</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -3951,28 +3963,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -3984,28 +3996,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>129</v>
+        <v>247</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4017,28 +4029,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>214</v>
+        <v>133</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4050,28 +4062,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4083,28 +4095,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4116,31 +4128,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>35</v>
+        <v>254</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4149,31 +4161,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>35</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>104</v>
+        <v>256</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4182,31 +4194,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>168</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4215,31 +4227,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>214</v>
+        <v>186</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>172</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4248,28 +4260,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>119</v>
+        <v>218</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4281,31 +4293,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>259</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4314,66 +4326,99 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>35</v>
+        <v>268</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>4637.1499999999996</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>266</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
-        <v>267</v>
-      </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
-        <v>268</v>
-      </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>269</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>35</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>53</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>228</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q95" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>4788.1499999999996</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
+        <v>270</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
+        <v>271</v>
+      </c>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>272</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4822,10 +4867,15 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -566,6 +566,18 @@
     <t>88.0000</t>
   </si>
   <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>10:3</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
     <t>RICHI PANTHENOL CREAM 20GM</t>
   </si>
   <si>
@@ -731,9 +743,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>9.0000</t>
-  </si>
-  <si>
     <t>سرنجات انسولين</t>
   </si>
   <si>
@@ -764,6 +773,9 @@
     <t>75.0000</t>
   </si>
   <si>
+    <t>فازلين بيور وسط</t>
+  </si>
+  <si>
     <t xml:space="preserve">فرشه اسنان شاين اب بلاس اطفال </t>
   </si>
   <si>
@@ -821,7 +833,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 9:21 PM</t>
+    <t>Thursday, 11 September, 2025 9:42 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3277,7 +3289,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3287,14 +3299,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3303,14 +3315,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3320,14 +3332,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3336,31 +3348,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3369,7 +3381,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3382,18 +3394,18 @@
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3402,14 +3414,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3419,14 +3431,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3435,14 +3447,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3475,7 +3487,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3485,14 +3497,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3501,14 +3513,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3518,14 +3530,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3558,7 +3570,7 @@
         <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>172</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3574,7 +3586,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3584,14 +3596,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3600,28 +3612,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3633,14 +3645,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>12</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3650,11 +3662,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>146</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3673,7 +3685,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3683,11 +3695,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3699,14 +3711,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3720,10 +3732,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3732,14 +3744,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3749,14 +3761,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3772,7 +3784,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>172</v>
+        <v>231</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3782,11 +3794,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3798,14 +3810,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3815,11 +3827,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>60</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>134</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3831,14 +3843,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3848,14 +3860,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>60</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>208</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3864,7 +3876,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -3881,14 +3893,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>12</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3897,7 +3909,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3914,14 +3926,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>172</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3930,14 +3942,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>210</v>
+        <v>35</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3947,14 +3959,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>243</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3970,7 +3982,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3980,11 +3992,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -3996,14 +4008,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4013,7 +4025,7 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4036,7 +4048,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4046,11 +4058,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>133</v>
+        <v>250</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4062,14 +4074,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4079,11 +4091,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4095,14 +4107,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4112,11 +4124,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4128,14 +4140,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>254</v>
+        <v>43</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4145,11 +4157,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4161,7 +4173,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4178,14 +4190,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4194,14 +4206,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4211,11 +4223,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4227,14 +4239,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>262</v>
+        <v>35</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4244,14 +4256,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>172</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4260,14 +4272,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4277,11 +4289,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>218</v>
+        <v>108</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>219</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4310,14 +4322,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>124</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4326,14 +4338,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>268</v>
+        <v>25</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4343,14 +4355,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4366,7 +4378,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>35</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4376,49 +4388,115 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>4788.1499999999996</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
-        <v>270</v>
-      </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
         <v>271</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
         <v>272</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>53</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>60</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>267</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
+        <v>273</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
+        <v>35</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>53</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>232</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>233</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="P98" s="13">
+        <v>4857.8699999999999</v>
+      </c>
+      <c r="Q98" s="13"/>
+    </row>
+    <row r="99" ht="16.5" customHeight="1">
+      <c t="s" r="A99" s="14">
+        <v>274</v>
+      </c>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c t="s" r="G99" s="15">
+        <v>275</v>
+      </c>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c t="s" r="K99" s="17">
+        <v>276</v>
+      </c>
+      <c r="L99" s="17"/>
+      <c r="M99" s="17"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="467">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4872,10 +4950,20 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="G99:I99"/>
+    <mergeCell ref="K99:Q99"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -833,7 +833,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 9:42 PM</t>
+    <t>Thursday, 11 September, 2025 9:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -113,6 +113,18 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>255.00</t>
+  </si>
+  <si>
+    <t>40.8000</t>
+  </si>
+  <si>
     <t>CARBAPEX 200 MG 30 TABS.</t>
   </si>
   <si>
@@ -341,6 +353,15 @@
     <t>7.9200</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>FUSI 2% CREAM 30 GM</t>
   </si>
   <si>
@@ -548,13 +569,13 @@
     <t>QUIBRON T/SR 300MG 100 TAB</t>
   </si>
   <si>
-    <t>1:23</t>
-  </si>
-  <si>
-    <t>13.2000</t>
-  </si>
-  <si>
-    <t>0:10</t>
+    <t>1:17</t>
+  </si>
+  <si>
+    <t>21.1200</t>
+  </si>
+  <si>
+    <t>0:16</t>
   </si>
   <si>
     <t>RAMETAX 1GM I.V./I.M VIAL</t>
@@ -833,7 +854,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 9:43 PM</t>
+    <t>Thursday, 11 September, 2025 9:45 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1656,7 +1677,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1665,14 +1686,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1682,14 +1703,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1698,14 +1719,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1715,14 +1736,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>46</v>
+      </c>
+      <c t="s" r="Q14" s="12">
         <v>47</v>
-      </c>
-      <c t="s" r="Q14" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1771,13 +1792,13 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
@@ -1788,7 +1809,7 @@
         <v>55</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1804,21 +1825,21 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>25</v>
@@ -1830,14 +1851,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1847,14 +1868,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1863,14 +1884,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1903,7 +1924,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1913,14 +1934,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1929,14 +1950,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1946,14 +1967,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1962,14 +1983,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1979,14 +2000,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1995,14 +2016,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2012,14 +2033,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2028,14 +2049,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2052,7 +2073,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2068,7 +2089,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2078,11 +2099,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>25</v>
@@ -2094,14 +2115,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2118,7 +2139,7 @@
         <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2144,14 +2165,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>92</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2167,7 +2188,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2177,14 +2198,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>25</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2193,7 +2214,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2206,15 +2227,15 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2226,7 +2247,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2239,15 +2260,15 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2259,14 +2280,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2276,14 +2297,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2292,14 +2313,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2309,14 +2330,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>76</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2325,14 +2346,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2342,14 +2363,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>81</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>109</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>38</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2365,7 +2386,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2375,14 +2396,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2391,14 +2412,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>53</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2408,11 +2429,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2424,28 +2445,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>25</v>
@@ -2457,14 +2478,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2474,11 +2495,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2490,28 +2511,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>25</v>
@@ -2523,14 +2544,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2540,14 +2561,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2556,14 +2577,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2573,14 +2594,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2589,14 +2610,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2613,7 +2634,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2629,7 +2650,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2646,7 +2667,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2662,7 +2683,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2672,14 +2693,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2688,28 +2709,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2721,14 +2742,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2738,11 +2759,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2754,28 +2775,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2787,14 +2808,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2804,14 +2825,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2820,14 +2841,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2837,14 +2858,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2853,28 +2874,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>84</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2886,14 +2907,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2903,11 +2924,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>67</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2919,28 +2940,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>67</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>68</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2952,31 +2973,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>123</v>
+        <v>71</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2985,14 +3006,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3002,11 +3023,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3018,31 +3039,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>163</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3051,14 +3072,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3068,14 +3089,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>105</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3084,14 +3105,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3124,24 +3145,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>172</v>
+        <v>67</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>76</v>
+        <v>172</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3150,14 +3171,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3167,11 +3188,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3183,28 +3204,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>63</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3216,14 +3237,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3233,14 +3254,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>181</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3249,14 +3270,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>67</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3266,14 +3287,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>67</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3299,14 +3320,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
+        <v>187</v>
+      </c>
+      <c t="s" r="Q62" s="12">
         <v>188</v>
-      </c>
-      <c t="s" r="Q62" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3322,7 +3343,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3332,14 +3353,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>71</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3355,7 +3376,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3365,11 +3386,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3381,31 +3402,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3414,14 +3435,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3431,11 +3452,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3447,28 +3468,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3480,14 +3501,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3504,7 +3525,7 @@
         <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3520,7 +3541,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3530,14 +3551,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3546,14 +3567,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3563,14 +3584,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3579,14 +3600,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3596,14 +3617,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>14</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>172</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3612,14 +3633,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>35</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3629,14 +3650,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3645,31 +3666,31 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>146</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3678,28 +3699,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>25</v>
@@ -3711,28 +3732,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3757,7 +3778,7 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
@@ -3765,10 +3786,10 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3777,20 +3798,20 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
@@ -3817,24 +3838,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3850,21 +3871,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3876,31 +3897,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>212</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3909,31 +3930,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>211</v>
+        <v>64</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>241</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3942,31 +3963,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>103</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>214</v>
+        <v>47</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3975,31 +3996,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4008,31 +4029,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>248</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>25</v>
+        <v>221</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4041,28 +4062,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4074,28 +4095,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4107,28 +4128,28 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>190</v>
+        <v>257</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>32</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4140,28 +4161,28 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>222</v>
+        <v>140</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4173,31 +4194,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4206,28 +4227,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>47</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4239,31 +4260,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4272,28 +4293,28 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>108</v>
+        <v>229</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4305,31 +4326,31 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>172</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4338,28 +4359,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>25</v>
+        <v>270</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>222</v>
+        <v>112</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4371,31 +4392,31 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>123</v>
+        <v>197</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>124</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4404,31 +4425,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>60</v>
+        <v>229</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>43</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4437,66 +4458,132 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>35</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>232</v>
+        <v>130</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
-      <c r="P98" s="13">
-        <v>4857.8699999999999</v>
-      </c>
-      <c r="Q98" s="13"/>
-    </row>
-    <row r="99" ht="16.5" customHeight="1">
-      <c t="s" r="A99" s="14">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
+        <v>278</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>279</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>57</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>64</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
         <v>274</v>
       </c>
-      <c r="B99" s="14"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c t="s" r="G99" s="15">
-        <v>275</v>
-      </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="15"/>
-      <c r="J99" s="16"/>
-      <c t="s" r="K99" s="17">
-        <v>276</v>
-      </c>
-      <c r="L99" s="17"/>
-      <c r="M99" s="17"/>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
+      <c t="s" r="Q98" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>280</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>39</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>57</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>239</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>240</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>4960.0299999999997</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>281</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>282</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>283</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="467">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4960,10 +5047,20 @@
     <mergeCell ref="H97:K97"/>
     <mergeCell ref="L97:M97"/>
     <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P98:Q98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="G99:I99"/>
-    <mergeCell ref="K99:Q99"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -498,6 +498,15 @@
   </si>
   <si>
     <t>NAVOPROXIN PLUS 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
   </si>
   <si>
     <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
@@ -3013,7 +3022,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3023,11 +3032,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3039,28 +3048,28 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3072,7 +3081,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3085,15 +3094,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3112,7 +3121,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3129,7 +3138,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3162,7 +3171,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3178,7 +3187,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3188,14 +3197,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3204,28 +3213,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>107</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3237,28 +3246,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>182</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>80</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3277,7 +3286,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3291,7 +3300,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>85</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3303,14 +3312,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>67</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3320,14 +3329,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3336,14 +3345,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3353,14 +3362,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>191</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>47</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3386,14 +3395,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>71</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3402,14 +3411,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>47</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3426,7 +3435,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3442,7 +3451,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3459,7 +3468,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3475,13 +3484,13 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
@@ -3489,10 +3498,10 @@
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3501,7 +3510,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3514,18 +3523,18 @@
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3541,7 +3550,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3558,7 +3567,7 @@
         <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3574,7 +3583,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3584,11 +3593,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3600,14 +3609,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3617,14 +3626,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>14</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3633,14 +3642,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3650,14 +3659,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>218</v>
+        <v>14</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3666,14 +3675,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3683,14 +3692,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>179</v>
+        <v>44</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3699,14 +3708,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3716,14 +3725,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>182</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3732,28 +3741,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3765,14 +3774,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>228</v>
+        <v>12</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3782,11 +3791,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3798,14 +3807,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>231</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3838,7 +3847,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>235</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3848,14 +3857,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3885,10 +3894,10 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3897,14 +3906,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>179</v>
+        <v>241</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3937,7 +3946,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3947,11 +3956,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>64</v>
+        <v>245</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3963,14 +3972,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3980,14 +3989,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>246</v>
+        <v>64</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3996,7 +4005,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4013,14 +4022,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>218</v>
+        <v>249</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4029,7 +4038,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4046,14 +4055,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>221</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4062,14 +4071,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>221</v>
+        <v>39</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4079,14 +4088,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4102,7 +4111,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>39</v>
+        <v>224</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4112,11 +4121,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4128,14 +4137,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4145,7 +4154,7 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
@@ -4168,7 +4177,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4178,11 +4187,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4194,14 +4203,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4211,11 +4220,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>32</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4227,7 +4236,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4244,11 +4253,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4260,14 +4269,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4277,14 +4286,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>32</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4293,14 +4302,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>265</v>
+        <v>39</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4310,14 +4319,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4326,14 +4335,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>39</v>
+        <v>268</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4343,14 +4352,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4366,7 +4375,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>270</v>
+        <v>39</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4376,14 +4385,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>112</v>
+        <v>270</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>271</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4409,14 +4418,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>197</v>
+        <v>112</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
         <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>179</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4432,7 +4441,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4442,14 +4451,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>182</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4458,14 +4467,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4475,11 +4484,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>130</v>
+        <v>232</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>131</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4491,14 +4500,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4508,14 +4517,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>274</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4524,14 +4533,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4541,49 +4550,82 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>239</v>
+        <v>64</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>4960.0299999999997</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>281</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>282</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
         <v>283</v>
       </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>39</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>57</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>242</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>243</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="P101" s="13">
+        <v>5234.0299999999997</v>
+      </c>
+      <c r="Q101" s="13"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="14">
+        <v>284</v>
+      </c>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c t="s" r="G102" s="15">
+        <v>285</v>
+      </c>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c t="s" r="K102" s="17">
+        <v>286</v>
+      </c>
+      <c r="L102" s="17"/>
+      <c r="M102" s="17"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="17"/>
+      <c r="P102" s="17"/>
+      <c r="Q102" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="482">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5057,10 +5099,15 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="G102:I102"/>
+    <mergeCell ref="K102:Q102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -863,7 +863,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 9:45 PM</t>
+    <t>Thursday, 11 September, 2025 9:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -344,13 +344,13 @@
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
-    <t>5:4</t>
+    <t>5:3</t>
   </si>
   <si>
     <t>24.00</t>
   </si>
   <si>
-    <t>7.9200</t>
+    <t>11.7600</t>
   </si>
   <si>
     <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
@@ -863,7 +863,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 9:47 PM</t>
+    <t>Thursday, 11 September, 2025 9:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2412,7 +2412,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -4595,7 +4595,7 @@
     </row>
     <row r="101" ht="25.5" customHeight="1">
       <c r="P101" s="13">
-        <v>5234.0299999999997</v>
+        <v>5237.8699999999999</v>
       </c>
       <c r="Q101" s="13"/>
     </row>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -863,7 +863,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 9:57 PM</t>
+    <t>Thursday, 11 September, 2025 10:03 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -293,51 +293,51 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>127.6800</t>
+    <t>143.5200</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>EPICOPHYLLINE 2.5G/100ML SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>EKIROZ 40 MG 14 TAB</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>EPICOPHYLLINE 2.5G/100ML SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>EVASTINE 10MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
     <t>0:4</t>
   </si>
   <si>
@@ -617,6 +617,9 @@
     <t>60.0000</t>
   </si>
   <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
     <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
   </si>
   <si>
@@ -863,7 +866,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 10:03 PM</t>
+    <t>Thursday, 11 September, 2025 10:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2197,7 +2200,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2211,10 +2214,10 @@
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>96</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2223,7 +2226,7 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
@@ -2244,7 +2247,7 @@
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>25</v>
@@ -2256,7 +2259,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2273,11 +2276,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>25</v>
@@ -2289,7 +2292,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2306,11 +2309,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>25</v>
@@ -2322,7 +2325,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2339,11 +2342,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2355,14 +2358,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2504,7 +2507,7 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
@@ -3003,7 +3006,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3267,7 +3270,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3484,7 +3487,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3494,14 +3497,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3510,31 +3513,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3543,7 +3546,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3556,18 +3559,18 @@
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3576,14 +3579,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3593,14 +3596,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3609,14 +3612,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3626,11 +3629,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3642,14 +3645,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3659,14 +3662,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3675,14 +3678,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3692,14 +3695,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3708,14 +3711,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3725,14 +3728,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>182</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3741,14 +3744,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3758,14 +3761,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>80</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>182</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3774,28 +3777,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>154</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>25</v>
@@ -3814,7 +3817,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>231</v>
+        <v>12</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3824,11 +3827,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>153</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3840,14 +3843,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3857,11 +3860,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3873,14 +3876,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>238</v>
+        <v>22</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3890,14 +3893,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3906,14 +3909,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3923,14 +3926,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3939,14 +3942,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3956,11 +3959,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -3972,14 +3975,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3989,11 +3992,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>64</v>
+        <v>246</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4012,7 +4015,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4022,14 +4025,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>249</v>
+        <v>64</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4038,7 +4041,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4055,14 +4058,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4071,7 +4074,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4088,14 +4091,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>107</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>224</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4104,14 +4107,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4121,14 +4124,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>256</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>225</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4137,14 +4140,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4154,11 +4157,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4170,14 +4173,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4187,11 +4190,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4203,14 +4206,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4220,11 +4223,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4236,14 +4239,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4253,11 +4256,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4286,11 +4289,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4309,7 +4312,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4319,14 +4322,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>32</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4342,7 +4345,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>268</v>
+        <v>39</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4352,14 +4355,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>233</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4368,14 +4371,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>39</v>
+        <v>269</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4385,14 +4388,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4401,14 +4404,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>273</v>
+        <v>39</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4418,14 +4421,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4434,14 +4437,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4451,14 +4454,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>182</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4467,14 +4470,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4484,14 +4487,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4507,7 +4510,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>280</v>
+        <v>25</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4517,11 +4520,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4533,14 +4536,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4550,14 +4553,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>277</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4566,14 +4569,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4583,49 +4586,82 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>242</v>
+        <v>64</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
+        <v>278</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>284</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>39</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>57</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
         <v>243</v>
       </c>
-      <c t="s" r="Q100" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="101" ht="25.5" customHeight="1">
-      <c r="P101" s="13">
-        <v>5237.8699999999999</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" ht="16.5" customHeight="1">
-      <c t="s" r="A102" s="14">
-        <v>284</v>
-      </c>
-      <c r="B102" s="14"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c t="s" r="G102" s="15">
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
+        <v>244</v>
+      </c>
+      <c t="s" r="Q101" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5286.71</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
         <v>285</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="15"/>
-      <c r="J102" s="16"/>
-      <c t="s" r="K102" s="17">
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
         <v>286</v>
       </c>
-      <c r="L102" s="17"/>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
-      <c r="O102" s="17"/>
-      <c r="P102" s="17"/>
-      <c r="Q102" s="17"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>287</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="482">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5104,10 +5140,15 @@
     <mergeCell ref="H100:K100"/>
     <mergeCell ref="L100:M100"/>
     <mergeCell ref="N100:O100"/>
-    <mergeCell ref="P101:Q101"/>
-    <mergeCell ref="A102:F102"/>
-    <mergeCell ref="G102:I102"/>
-    <mergeCell ref="K102:Q102"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -866,7 +866,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 10:06 PM</t>
+    <t>Thursday, 11 September, 2025 10:17 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -569,6 +569,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
   </si>
   <si>
@@ -602,9 +611,6 @@
     <t>10:3</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
     <t>6.7200</t>
   </si>
   <si>
@@ -866,7 +872,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 10:17 PM</t>
+    <t>Thursday, 11 September, 2025 10:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3322,7 +3328,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3336,10 +3342,10 @@
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>85</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3348,14 +3354,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>67</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3365,14 +3371,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3381,14 +3387,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3398,14 +3404,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>194</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>47</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3431,14 +3437,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>71</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3447,14 +3453,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3464,14 +3470,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3480,14 +3486,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3497,14 +3503,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>24</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3513,14 +3519,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3530,14 +3536,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>23</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3546,31 +3552,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3592,7 +3598,7 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
@@ -3600,10 +3606,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3612,14 +3618,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3629,14 +3635,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3645,14 +3651,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3662,11 +3668,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3678,14 +3684,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3695,14 +3701,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>14</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3718,7 +3724,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3728,14 +3734,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3744,14 +3750,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3761,14 +3767,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>182</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3777,14 +3783,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3794,14 +3800,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3817,21 +3823,21 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>154</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3843,14 +3849,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>12</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3860,11 +3866,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>25</v>
@@ -3876,14 +3882,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>22</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3893,11 +3899,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3909,14 +3915,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>239</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3926,14 +3932,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3942,14 +3948,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3959,14 +3965,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3975,14 +3981,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>182</v>
+        <v>244</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3992,11 +3998,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4008,14 +4014,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4025,11 +4031,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>141</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4041,14 +4047,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4058,14 +4064,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>223</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4091,14 +4097,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>12</v>
+        <v>47</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4124,14 +4130,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>106</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>225</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4147,7 +4153,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4161,10 +4167,10 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>257</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>227</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4173,14 +4179,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4190,7 +4196,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4213,7 +4219,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4223,11 +4229,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4239,14 +4245,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4256,7 +4262,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>140</v>
+        <v>263</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4279,7 +4285,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4289,11 +4295,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>200</v>
+        <v>140</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>32</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4305,7 +4311,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4322,11 +4328,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4338,14 +4344,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4355,14 +4361,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>32</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4371,14 +4377,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>269</v>
+        <v>39</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4388,14 +4394,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>234</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4411,7 +4417,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>39</v>
+        <v>271</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4421,14 +4427,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4437,14 +4443,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>274</v>
+        <v>39</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4454,14 +4460,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>112</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4470,14 +4476,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4487,14 +4493,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>182</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4503,14 +4509,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>25</v>
+        <v>279</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4520,14 +4526,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>234</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4536,14 +4542,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>281</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4553,11 +4559,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>130</v>
+        <v>235</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4586,14 +4592,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>278</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4609,7 +4615,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4619,49 +4625,82 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5286.71</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>285</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>286</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>39</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>57</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>245</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
+        <v>246</v>
+      </c>
+      <c t="s" r="Q102" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="P103" s="13">
+        <v>5328.71</v>
+      </c>
+      <c r="Q103" s="13"/>
+    </row>
+    <row r="104" ht="16.5" customHeight="1">
+      <c t="s" r="A104" s="14">
         <v>287</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c t="s" r="G104" s="15">
+        <v>288</v>
+      </c>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c t="s" r="K104" s="17">
+        <v>289</v>
+      </c>
+      <c r="L104" s="17"/>
+      <c r="M104" s="17"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="17"/>
+      <c r="P104" s="17"/>
+      <c r="Q104" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="492">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5145,10 +5184,15 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="P103:Q103"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="K104:Q104"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -872,7 +872,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 10:18 PM</t>
+    <t>Thursday, 11 September, 2025 10:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -398,6 +398,24 @@
     <t>37.0000</t>
   </si>
   <si>
+    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
+  </si>
+  <si>
+    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
+  </si>
+  <si>
+    <t>35:1</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>-9.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
     <t>HELIXBROM SYRUP 120 ML</t>
   </si>
   <si>
@@ -872,7 +890,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 10:22 PM</t>
+    <t>Thursday, 11 September, 2025 10:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2612,11 +2630,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>58</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>25</v>
@@ -2628,14 +2646,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>39</v>
+        <v>131</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2645,14 +2663,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>134</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2668,7 +2686,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2685,7 +2703,7 @@
         <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2701,7 +2719,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>139</v>
+        <v>39</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2711,14 +2729,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2727,14 +2745,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2744,14 +2762,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2760,14 +2778,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>42</v>
+        <v>145</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2784,7 +2802,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2800,21 +2818,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>40</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>25</v>
@@ -2826,14 +2844,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2843,11 +2861,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2859,28 +2877,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>25</v>
@@ -2892,14 +2910,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2909,14 +2927,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>85</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2925,14 +2943,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2942,14 +2960,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2958,28 +2976,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>84</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>25</v>
@@ -2998,7 +3016,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3008,11 +3026,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>71</v>
+        <v>163</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3024,28 +3042,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3057,14 +3075,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3078,10 +3096,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3090,7 +3108,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3103,15 +3121,15 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3123,14 +3141,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3140,11 +3158,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>71</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>25</v>
@@ -3156,31 +3174,31 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>136</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3196,7 +3214,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3213,7 +3231,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3229,7 +3247,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3239,11 +3257,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3255,31 +3273,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>182</v>
+        <v>67</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>80</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>106</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3295,7 +3313,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3305,11 +3323,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3321,31 +3339,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>80</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3361,7 +3379,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3375,7 +3393,7 @@
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>85</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3387,14 +3405,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3404,14 +3422,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>194</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3427,7 +3445,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3437,14 +3455,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3453,14 +3471,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3470,14 +3488,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>200</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3493,7 +3511,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>47</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3503,7 +3521,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3526,7 +3544,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3536,14 +3554,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>23</v>
+        <v>193</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3552,14 +3570,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3569,14 +3587,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3585,28 +3603,28 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3618,14 +3636,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3635,11 +3653,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3651,28 +3669,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3691,7 +3709,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>47</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3701,14 +3719,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3717,14 +3735,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3734,14 +3752,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>220</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
         <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3774,7 +3792,7 @@
         <v>225</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3790,7 +3808,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>227</v>
+        <v>47</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3800,14 +3818,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>14</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>182</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3816,14 +3834,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3833,14 +3851,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>80</v>
+        <v>230</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3856,24 +3874,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>153</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>154</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3882,28 +3900,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>39</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3915,14 +3933,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3932,11 +3950,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>238</v>
+        <v>159</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -3948,14 +3966,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3965,14 +3983,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3988,7 +4006,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3998,11 +4016,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4014,14 +4032,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>182</v>
+        <v>247</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4035,10 +4053,10 @@
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4047,14 +4065,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4064,11 +4082,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>141</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4080,14 +4098,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4097,14 +4115,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4113,14 +4131,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4130,14 +4148,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>224</v>
+        <v>64</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4146,7 +4164,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4163,14 +4181,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>106</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>227</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4179,14 +4197,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>227</v>
+        <v>39</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4196,14 +4214,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4212,7 +4230,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4229,14 +4247,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>261</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4245,14 +4263,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>25</v>
+        <v>233</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4262,11 +4280,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4278,14 +4296,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4295,11 +4313,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4311,14 +4329,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4328,11 +4346,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>202</v>
+        <v>269</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>32</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4344,14 +4362,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4361,11 +4379,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>235</v>
+        <v>146</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4377,14 +4395,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4394,14 +4412,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4410,14 +4428,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>271</v>
+        <v>47</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4427,11 +4445,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4443,7 +4461,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4460,14 +4478,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4476,14 +4494,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4493,11 +4511,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4516,7 +4534,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>279</v>
+        <v>39</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4526,14 +4544,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>182</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4549,7 +4567,7 @@
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>282</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4559,11 +4577,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4575,14 +4593,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4592,14 +4610,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>130</v>
+        <v>208</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>131</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>188</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4608,14 +4626,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4625,14 +4643,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>64</v>
+        <v>241</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4641,14 +4659,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>39</v>
+        <v>289</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4658,49 +4676,115 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>245</v>
+        <v>136</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>246</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
-      <c r="P103" s="13">
-        <v>5328.71</v>
-      </c>
-      <c r="Q103" s="13"/>
-    </row>
-    <row r="104" ht="16.5" customHeight="1">
-      <c t="s" r="A104" s="14">
-        <v>287</v>
-      </c>
-      <c r="B104" s="14"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c t="s" r="G104" s="15">
-        <v>288</v>
-      </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="15"/>
-      <c r="J104" s="16"/>
-      <c t="s" r="K104" s="17">
-        <v>289</v>
-      </c>
-      <c r="L104" s="17"/>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
-      <c r="O104" s="17"/>
-      <c r="P104" s="17"/>
-      <c r="Q104" s="17"/>
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>290</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>291</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>57</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>64</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>286</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>292</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>39</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>57</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>251</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="P105" s="13">
+        <v>5331.21</v>
+      </c>
+      <c r="Q105" s="13"/>
+    </row>
+    <row r="106" ht="16.5" customHeight="1">
+      <c t="s" r="A106" s="14">
+        <v>293</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c t="s" r="G106" s="15">
+        <v>294</v>
+      </c>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c t="s" r="K106" s="17">
+        <v>295</v>
+      </c>
+      <c r="L106" s="17"/>
+      <c r="M106" s="17"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="17"/>
+      <c r="P106" s="17"/>
+      <c r="Q106" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="492">
+  <mergeCells count="502">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5189,10 +5273,20 @@
     <mergeCell ref="H102:K102"/>
     <mergeCell ref="L102:M102"/>
     <mergeCell ref="N102:O102"/>
-    <mergeCell ref="P103:Q103"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="G104:I104"/>
-    <mergeCell ref="K104:Q104"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="P105:Q105"/>
+    <mergeCell ref="A106:F106"/>
+    <mergeCell ref="G106:I106"/>
+    <mergeCell ref="K106:Q106"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -113,6 +113,21 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>BIOLEGAM60/100 TAB</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>23.0400</t>
+  </si>
+  <si>
     <t>BUDELIZER 400MCG 60 INH. CAPS. +INHALER DEVICE</t>
   </si>
   <si>
@@ -158,9 +173,6 @@
     <t>CEREBROLYSIN 215.2MG/ML I.M./I.V. 5 AMPS (5ML)</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>740.00</t>
   </si>
   <si>
@@ -182,9 +194,6 @@
     <t>CEVA-FRESH TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>12.00</t>
   </si>
   <si>
@@ -479,6 +488,15 @@
     <t>57.0000</t>
   </si>
   <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>16.9600</t>
+  </si>
+  <si>
     <t>LIBRAX 30 SUGAR COATED TAB</t>
   </si>
   <si>
@@ -587,6 +605,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>PRIVACOND EYE DROPS 15 ML</t>
   </si>
   <si>
@@ -851,9 +878,6 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>32.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -890,7 +914,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 10:23 PM</t>
+    <t>Thursday, 11 September, 2025 10:31 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1702,15 +1726,15 @@
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1722,14 +1746,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1739,14 +1763,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1812,7 +1836,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1821,14 +1845,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1861,13 +1885,13 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
@@ -1878,7 +1902,7 @@
         <v>59</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1894,13 +1918,13 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1927,7 +1951,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1944,7 +1968,7 @@
         <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1960,7 +1984,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1970,11 +1994,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>16</v>
@@ -1986,14 +2010,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2010,7 +2034,7 @@
         <v>72</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2026,7 +2050,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2036,14 +2060,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2059,7 +2083,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2069,14 +2093,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2092,7 +2116,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2109,7 +2133,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2125,7 +2149,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2135,14 +2159,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2151,14 +2175,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2191,7 +2215,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2201,14 +2225,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2217,14 +2241,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2234,14 +2258,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2257,7 +2281,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2267,14 +2291,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2283,7 +2307,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -2296,11 +2320,11 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
@@ -2329,7 +2353,7 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -2356,7 +2380,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2373,7 +2397,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2389,7 +2413,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2399,14 +2423,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>109</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2432,14 +2456,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>33</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2448,14 +2472,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>53</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2472,7 +2496,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2488,7 +2512,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2505,7 +2529,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2521,7 +2545,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2531,14 +2555,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2554,24 +2578,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2587,13 +2611,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2604,7 +2628,7 @@
         <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2620,7 +2644,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2630,14 +2654,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2646,14 +2670,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>131</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2663,14 +2687,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>134</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2679,14 +2703,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>39</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2696,14 +2720,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q42" s="12">
         <v>137</v>
-      </c>
-      <c t="s" r="Q42" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2719,7 +2743,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2752,7 +2776,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2769,7 +2793,7 @@
         <v>143</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2785,7 +2809,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2795,14 +2819,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2811,14 +2835,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2835,7 +2859,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2851,7 +2875,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2868,7 +2892,7 @@
         <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2884,24 +2908,24 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2910,20 +2934,20 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
@@ -2931,10 +2955,10 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2943,14 +2967,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2960,14 +2984,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2976,14 +3000,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2993,14 +3017,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>85</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3009,14 +3033,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3026,14 +3050,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3042,28 +3066,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3082,7 +3106,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3092,11 +3116,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>71</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3108,28 +3132,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3141,14 +3165,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3158,14 +3182,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3174,28 +3198,28 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3207,14 +3231,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3224,11 +3248,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>74</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3240,31 +3264,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3280,7 +3304,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3297,7 +3321,7 @@
         <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>109</v>
+        <v>25</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3313,7 +3337,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>184</v>
+        <v>70</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3323,11 +3347,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3339,31 +3363,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>188</v>
+        <v>70</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3379,7 +3403,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>25</v>
+        <v>190</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3389,11 +3413,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3405,31 +3429,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3445,7 +3469,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3459,7 +3483,7 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>85</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3471,14 +3495,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>25</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3488,14 +3512,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3511,7 +3535,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3521,14 +3545,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>71</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3544,7 +3568,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>205</v>
+        <v>70</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3554,11 +3578,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3570,14 +3594,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3587,14 +3611,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
+        <v>208</v>
+      </c>
+      <c t="s" r="Q69" s="12">
         <v>209</v>
-      </c>
-      <c t="s" r="Q69" s="12">
-        <v>47</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3610,7 +3634,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3620,14 +3644,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>24</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3636,14 +3660,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3653,11 +3677,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3669,31 +3693,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3702,14 +3726,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3719,14 +3743,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3735,7 +3759,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3752,14 +3776,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3768,20 +3792,20 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>223</v>
+        <v>52</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3789,7 +3813,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3801,14 +3825,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3818,7 +3842,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>14</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3841,7 +3865,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3851,14 +3875,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3867,14 +3891,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3884,14 +3908,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>188</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3900,14 +3924,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3917,14 +3941,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3933,31 +3957,31 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>159</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3966,31 +3990,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3999,28 +4023,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>244</v>
+        <v>83</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4032,31 +4056,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>247</v>
+        <v>12</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4065,28 +4089,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4098,28 +4122,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>188</v>
+        <v>22</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4131,31 +4155,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>64</v>
+        <v>257</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>147</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4164,31 +4188,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>39</v>
+        <v>259</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4197,31 +4221,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4230,31 +4254,31 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>262</v>
+        <v>67</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>233</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4263,31 +4287,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>233</v>
+        <v>44</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4296,31 +4320,31 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4329,31 +4353,31 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>242</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4362,28 +4386,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>22</v>
+        <v>242</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>146</v>
+        <v>273</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4395,28 +4419,28 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>208</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>32</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4428,28 +4452,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4461,31 +4485,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>241</v>
+        <v>149</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>32</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4494,28 +4518,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>277</v>
+        <v>52</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>242</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>25</v>
@@ -4527,31 +4551,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>44</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4560,31 +4584,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>282</v>
+        <v>44</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>283</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4593,31 +4617,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>188</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4633,24 +4657,24 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4659,28 +4683,28 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4692,31 +4716,31 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>64</v>
+        <v>217</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>47</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4725,66 +4749,165 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
-      <c r="P105" s="13">
-        <v>5331.21</v>
-      </c>
-      <c r="Q105" s="13"/>
-    </row>
-    <row r="106" ht="16.5" customHeight="1">
-      <c t="s" r="A106" s="14">
-        <v>293</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c t="s" r="G106" s="15">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>296</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>297</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>36</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>139</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>298</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>299</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>36</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>67</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>294</v>
       </c>
-      <c r="H106" s="15"/>
-      <c r="I106" s="15"/>
-      <c r="J106" s="16"/>
-      <c t="s" r="K106" s="17">
-        <v>295</v>
-      </c>
-      <c r="L106" s="17"/>
-      <c r="M106" s="17"/>
-      <c r="N106" s="17"/>
-      <c r="O106" s="17"/>
-      <c r="P106" s="17"/>
-      <c r="Q106" s="17"/>
+      <c t="s" r="Q106" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>300</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>44</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>36</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>260</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
+        <v>261</v>
+      </c>
+      <c t="s" r="Q107" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="P108" s="13">
+        <v>5403.21</v>
+      </c>
+      <c r="Q108" s="13"/>
+    </row>
+    <row r="109" ht="16.5" customHeight="1">
+      <c t="s" r="A109" s="14">
+        <v>301</v>
+      </c>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c t="s" r="G109" s="15">
+        <v>302</v>
+      </c>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c t="s" r="K109" s="17">
+        <v>303</v>
+      </c>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="17"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="502">
+  <mergeCells count="517">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5283,10 +5406,25 @@
     <mergeCell ref="H104:K104"/>
     <mergeCell ref="L104:M104"/>
     <mergeCell ref="N104:O104"/>
-    <mergeCell ref="P105:Q105"/>
-    <mergeCell ref="A106:F106"/>
-    <mergeCell ref="G106:I106"/>
-    <mergeCell ref="K106:Q106"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="P108:Q108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="K109:Q109"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -914,7 +914,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 10:31 PM</t>
+    <t>Thursday, 11 September, 2025 10:50 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -593,159 +593,162 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
+    <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t>PRIVACOND EYE DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>QUIBRON T/SR 300MG 100 TAB</t>
+  </si>
+  <si>
+    <t>1:17</t>
+  </si>
+  <si>
+    <t>21.1200</t>
+  </si>
+  <si>
+    <t>0:16</t>
+  </si>
+  <si>
+    <t>RAMETAX 1GM I.V./I.M VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>88.0000</t>
+  </si>
+  <si>
+    <t>RANI-F 20MG 6 SACHETS</t>
+  </si>
+  <si>
+    <t>10:3</t>
+  </si>
+  <si>
+    <t>6.7200</t>
+  </si>
+  <si>
+    <t>RICHI PANTHENOL CREAM 20GM</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>364.00</t>
+  </si>
+  <si>
+    <t>182.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>41.5800</t>
+  </si>
+  <si>
+    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>95.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8288:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>9:0</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
     <t>3:0</t>
   </si>
   <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>102.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>PRIDOCAINE CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t>PRIVACOND EYE DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>42.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
-  </si>
-  <si>
-    <t>110.00</t>
-  </si>
-  <si>
-    <t>QUIBRON T/SR 300MG 100 TAB</t>
-  </si>
-  <si>
-    <t>1:17</t>
-  </si>
-  <si>
-    <t>21.1200</t>
-  </si>
-  <si>
-    <t>0:16</t>
-  </si>
-  <si>
-    <t>RAMETAX 1GM I.V./I.M VIAL</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>88.0000</t>
-  </si>
-  <si>
-    <t>RANI-F 20MG 6 SACHETS</t>
-  </si>
-  <si>
-    <t>10:3</t>
-  </si>
-  <si>
-    <t>6.7200</t>
-  </si>
-  <si>
-    <t>RICHI PANTHENOL CREAM 20GM</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>60.0000</t>
-  </si>
-  <si>
-    <t>RISPADEX 1MG/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>RIVAROSPIRE 20 MG 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>364.00</t>
-  </si>
-  <si>
-    <t>182.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
-    <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
-  </si>
-  <si>
-    <t>95.00</t>
-  </si>
-  <si>
-    <t>95.0000</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8288:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>8.0000</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
-    <t>9:0</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
     <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
   </si>
   <si>
@@ -914,7 +917,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 10:50 PM</t>
+    <t>Thursday, 11 September, 2025 10:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3436,7 +3439,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>194</v>
+        <v>98</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3450,10 +3453,10 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -4014,7 +4017,7 @@
         <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>194</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4023,7 +4026,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4044,7 +4047,7 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4056,7 +4059,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -4089,14 +4092,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4106,11 +4109,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4122,7 +4125,7 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
@@ -4139,11 +4142,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4155,14 +4158,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4172,11 +4175,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>52</v>
@@ -4188,14 +4191,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4205,11 +4208,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4221,14 +4224,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4238,11 +4241,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4254,7 +4257,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4287,7 +4290,7 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
@@ -4304,7 +4307,7 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
@@ -4320,7 +4323,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4341,7 +4344,7 @@
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>12</v>
@@ -4353,7 +4356,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4370,7 +4373,7 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
@@ -4386,7 +4389,7 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
@@ -4403,11 +4406,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4419,7 +4422,7 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
@@ -4436,11 +4439,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4452,7 +4455,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4469,11 +4472,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4485,7 +4488,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4506,7 +4509,7 @@
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4518,7 +4521,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4551,7 +4554,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4568,11 +4571,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4584,7 +4587,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4601,7 +4604,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4617,14 +4620,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4634,11 +4637,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4650,7 +4653,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4667,7 +4670,7 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4683,14 +4686,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4704,7 +4707,7 @@
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4716,14 +4719,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4737,10 +4740,10 @@
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>194</v>
+        <v>245</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4749,7 +4752,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4766,11 +4769,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4782,14 +4785,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4815,14 +4818,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4836,7 +4839,7 @@
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>52</v>
@@ -4848,7 +4851,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4865,11 +4868,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -4877,13 +4880,13 @@
     </row>
     <row r="108" ht="24.75" customHeight="1">
       <c r="P108" s="13">
-        <v>5403.21</v>
+        <v>5430.21</v>
       </c>
       <c r="Q108" s="13"/>
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c t="s" r="A109" s="14">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B109" s="14"/>
       <c r="C109" s="14"/>
@@ -4891,13 +4894,13 @@
       <c r="E109" s="14"/>
       <c r="F109" s="14"/>
       <c t="s" r="G109" s="15">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="16"/>
       <c t="s" r="K109" s="17">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -257,7 +257,94 @@
     <t>46.0000</t>
   </si>
   <si>
-    <t>DICLOSP S.R. 75MG 30 F.C. TABS</t>
+    <t>DIGENORM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>55.0000</t>
+  </si>
+  <si>
+    <t>DIPROSALIC LOTION 30 ML</t>
+  </si>
+  <si>
+    <t>43.00</t>
+  </si>
+  <si>
+    <t>43.0000</t>
+  </si>
+  <si>
+    <t>DOGMATIL 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>9:2</t>
+  </si>
+  <si>
+    <t>63.00</t>
+  </si>
+  <si>
+    <t>20.7900</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>159.3600</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
+    <t>EKIROZ 40 MG 14 TAB</t>
+  </si>
+  <si>
+    <t>82.00</t>
+  </si>
+  <si>
+    <t>82.0000</t>
+  </si>
+  <si>
+    <t>EPICOPHYLLINE 2.5G/100ML SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>22.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>EVASTINE 10MG 20 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
   </si>
   <si>
     <t>108.00</t>
@@ -266,333 +353,252 @@
     <t>35.6400</t>
   </si>
   <si>
-    <t>DIGENORM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>55.0000</t>
-  </si>
-  <si>
-    <t>DIPROSALIC LOTION 30 ML</t>
-  </si>
-  <si>
-    <t>43.00</t>
-  </si>
-  <si>
-    <t>43.0000</t>
-  </si>
-  <si>
-    <t>DOGMATIL 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>9:2</t>
-  </si>
-  <si>
-    <t>63.00</t>
-  </si>
-  <si>
-    <t>20.7900</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>143.5200</t>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>11.7600</t>
+  </si>
+  <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
+    <t>FUSI 2% CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>79.00</t>
+  </si>
+  <si>
+    <t>79.0000</t>
+  </si>
+  <si>
+    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
+  </si>
+  <si>
+    <t>17.8200</t>
+  </si>
+  <si>
+    <t>GENICA MOIST LOTION</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>230.0000</t>
+  </si>
+  <si>
+    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>74.00</t>
+  </si>
+  <si>
+    <t>37.0000</t>
+  </si>
+  <si>
+    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
+  </si>
+  <si>
+    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
+  </si>
+  <si>
+    <t>35:1</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>-9.5000</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>HELIXBROM SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
+    <t>HEPTA CARBAMIDE CREAM</t>
+  </si>
+  <si>
+    <t>69.50</t>
+  </si>
+  <si>
+    <t>69.5000</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 1GM 16 TAB</t>
+  </si>
+  <si>
+    <t>173.00</t>
+  </si>
+  <si>
+    <t>86.5000</t>
+  </si>
+  <si>
+    <t>INDERAL 10 MG 50 TABS</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 1% LOTION 60 ML</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>52.0000</t>
+  </si>
+  <si>
+    <t>IVERZINE 6MG 24 TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>27.7200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
+    <t>JOYPOX 60MG 3 TAB</t>
+  </si>
+  <si>
+    <t>106.00</t>
+  </si>
+  <si>
+    <t>16.9600</t>
+  </si>
+  <si>
+    <t>LIBRAX 30 SUGAR COATED TAB</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
+    <t>MOIST-1 CREAM 100 ML</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>180.0000</t>
+  </si>
+  <si>
+    <t>MOMENTA CREAM 30 GM</t>
+  </si>
+  <si>
+    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>43.5600</t>
+  </si>
+  <si>
+    <t>MUPIRAX 2% OINT 30GM</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>118.0000</t>
+  </si>
+  <si>
+    <t>NAVOPROXIN PLUS 20 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
+  </si>
+  <si>
+    <t>274.00</t>
+  </si>
+  <si>
+    <t>274.0000</t>
+  </si>
+  <si>
+    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NP PLUS  CREAM</t>
+  </si>
+  <si>
+    <t>OMEGA P SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>125.0000</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>44.5500</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
     <t>2:3</t>
   </si>
   <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>78.0000</t>
-  </si>
-  <si>
-    <t>EKIROZ 40 MG 14 TAB</t>
-  </si>
-  <si>
-    <t>82.00</t>
-  </si>
-  <si>
-    <t>82.0000</t>
-  </si>
-  <si>
-    <t>EPICOPHYLLINE 2.5G/100ML SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>22.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>EVASTINE 10MG 20 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>54.00</t>
-  </si>
-  <si>
-    <t>27.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>11.7600</t>
-  </si>
-  <si>
-    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
-  </si>
-  <si>
-    <t>334.00</t>
-  </si>
-  <si>
-    <t>53.4400</t>
-  </si>
-  <si>
-    <t>FUSI 2% CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>79.00</t>
-  </si>
-  <si>
-    <t>79.0000</t>
-  </si>
-  <si>
-    <t>GASTROTIDINE 20 MG/2ML 3 I.M./I.V. AMPS</t>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>17.8200</t>
-  </si>
-  <si>
-    <t>GENICA MOIST LOTION</t>
-  </si>
-  <si>
-    <t>230.00</t>
-  </si>
-  <si>
-    <t>230.0000</t>
-  </si>
-  <si>
-    <t>GLUCOVANCE 500/5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>74.00</t>
-  </si>
-  <si>
-    <t>37.0000</t>
-  </si>
-  <si>
-    <t>GLYCERIN (EL-NILE) INFANTILE 6 SUPP.</t>
-  </si>
-  <si>
-    <t>GLYCERIN INFANTILE 10 SUPP. (GLAXO)</t>
-  </si>
-  <si>
-    <t>35:1</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>-9.5000</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>HELIXBROM SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>35.0000</t>
-  </si>
-  <si>
-    <t>HEPTA CARBAMIDE CREAM</t>
-  </si>
-  <si>
-    <t>69.50</t>
-  </si>
-  <si>
-    <t>69.5000</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 1GM 16 TAB</t>
-  </si>
-  <si>
-    <t>173.00</t>
-  </si>
-  <si>
-    <t>86.5000</t>
-  </si>
-  <si>
-    <t>INDERAL 10 MG 50 TABS</t>
-  </si>
-  <si>
-    <t>1:4</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 1% LOTION 60 ML</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>52.0000</t>
-  </si>
-  <si>
-    <t>IVERZINE 6MG 24 TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>27.7200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>57.0000</t>
-  </si>
-  <si>
-    <t>JOYPOX 60MG 3 TAB</t>
-  </si>
-  <si>
-    <t>106.00</t>
-  </si>
-  <si>
-    <t>16.9600</t>
-  </si>
-  <si>
-    <t>LIBRAX 30 SUGAR COATED TAB</t>
-  </si>
-  <si>
-    <t>15.8400</t>
-  </si>
-  <si>
-    <t>MOIST-1 CREAM 100 ML</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>180.0000</t>
-  </si>
-  <si>
-    <t>MOMENTA CREAM 30 GM</t>
-  </si>
-  <si>
-    <t>MOSAPRIDE 5MG 30 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>132.00</t>
-  </si>
-  <si>
-    <t>43.5600</t>
-  </si>
-  <si>
-    <t>MUPIRAX 2% OINT 30GM</t>
-  </si>
-  <si>
-    <t>118.00</t>
-  </si>
-  <si>
-    <t>118.0000</t>
-  </si>
-  <si>
-    <t>NAVOPROXIN PLUS 20 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>NETLOOK 20MG 20 SOFT GELATIN CAPS.</t>
-  </si>
-  <si>
-    <t>274.00</t>
-  </si>
-  <si>
-    <t>274.0000</t>
-  </si>
-  <si>
-    <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NP PLUS  CREAM</t>
-  </si>
-  <si>
-    <t>OMEGA P SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>125.0000</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>44.5500</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -686,15 +692,6 @@
     <t>60.00</t>
   </si>
   <si>
-    <t>STRINGAZOLE 40MG 21 ENTERIC COATED TABLETS</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>41.5800</t>
-  </si>
-  <si>
     <t>SUPRAX 100MG/5 ML SUSP. 30ML</t>
   </si>
   <si>
@@ -719,9 +716,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>WATER FOR INJECTION AMP. 5 ML</t>
   </si>
   <si>
@@ -830,15 +824,6 @@
     <t>3.00</t>
   </si>
   <si>
-    <t>سرنجات انسولين</t>
-  </si>
-  <si>
-    <t>7.00</t>
-  </si>
-  <si>
-    <t>7.0000</t>
-  </si>
-  <si>
     <t>سرنجه دواء</t>
   </si>
   <si>
@@ -917,7 +902,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 10:51 PM</t>
+    <t>Thursday, 11 September, 2025 11:06 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2152,7 +2137,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2162,14 +2147,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2178,14 +2163,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2218,7 +2203,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2228,14 +2213,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2244,14 +2229,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2261,14 +2246,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>50</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>95</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2284,7 +2269,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2294,14 +2279,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2459,14 +2444,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2475,14 +2460,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2492,11 +2477,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>33</v>
@@ -2508,7 +2493,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2525,11 +2510,11 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2541,7 +2526,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2558,11 +2543,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>25</v>
@@ -2574,14 +2559,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2595,7 +2580,7 @@
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2607,7 +2592,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2624,11 +2609,11 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>25</v>
@@ -2640,7 +2625,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2657,11 +2642,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2673,7 +2658,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2706,14 +2691,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2723,14 +2708,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2739,7 +2724,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2756,11 +2741,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>25</v>
@@ -2772,7 +2757,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2789,11 +2774,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>25</v>
@@ -2805,7 +2790,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2822,11 +2807,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2838,14 +2823,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2855,11 +2840,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>33</v>
@@ -2871,7 +2856,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2888,11 +2873,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>25</v>
@@ -2904,7 +2889,7 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2921,11 +2906,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2937,7 +2922,7 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2958,7 +2943,7 @@
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>25</v>
@@ -2970,7 +2955,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2987,11 +2972,11 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -3003,7 +2988,7 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -3024,7 +3009,7 @@
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3036,7 +3021,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -3053,11 +3038,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>25</v>
@@ -3069,7 +3054,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3086,11 +3071,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3102,7 +3087,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -3119,11 +3104,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -3135,7 +3120,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3152,11 +3137,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3168,7 +3153,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3201,7 +3186,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3218,11 +3203,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>25</v>
@@ -3234,7 +3219,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3267,7 +3252,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3284,11 +3269,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3300,7 +3285,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3317,11 +3302,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3333,7 +3318,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3350,11 +3335,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3366,7 +3351,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3383,14 +3368,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3399,14 +3384,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3416,11 +3401,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3432,14 +3417,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3449,11 +3434,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>47</v>
@@ -3465,7 +3450,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3482,11 +3467,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3498,7 +3483,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3515,11 +3500,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3531,7 +3516,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3548,11 +3533,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>25</v>
@@ -3564,7 +3549,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3581,11 +3566,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3597,14 +3582,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3614,14 +3599,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3630,14 +3615,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3651,7 +3636,7 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>52</v>
@@ -3663,14 +3648,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3680,11 +3665,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3696,7 +3681,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3713,11 +3698,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>52</v>
@@ -3729,7 +3714,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3762,7 +3747,7 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
@@ -3779,11 +3764,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3795,7 +3780,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3812,11 +3797,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3828,14 +3813,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3845,14 +3830,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3861,14 +3846,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>231</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3878,11 +3863,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>25</v>
@@ -3894,14 +3879,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3911,14 +3896,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3934,7 +3919,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>236</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3944,14 +3929,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3960,14 +3945,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3977,14 +3962,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>49</v>
+        <v>243</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3993,14 +3978,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4010,14 +3995,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>112</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>245</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4033,21 +4018,21 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>247</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4059,14 +4044,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>12</v>
+        <v>248</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4076,11 +4061,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>165</v>
+        <v>249</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>166</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4092,14 +4077,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>250</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4109,11 +4094,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4125,14 +4110,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4142,14 +4127,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4158,14 +4143,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4175,14 +4160,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4191,14 +4176,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4208,11 +4193,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4224,14 +4209,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4241,11 +4226,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>264</v>
+        <v>67</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>265</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4257,14 +4242,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4274,14 +4259,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4307,14 +4292,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>52</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4340,14 +4325,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>270</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>12</v>
+        <v>240</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4373,14 +4358,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>109</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>242</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4396,7 +4381,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4429,7 +4414,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4439,7 +4424,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>268</v>
+        <v>150</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4462,7 +4447,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4472,11 +4457,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>279</v>
+        <v>219</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4488,14 +4473,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4505,11 +4490,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>149</v>
+        <v>249</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4521,14 +4506,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4538,14 +4523,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>217</v>
+        <v>249</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4554,14 +4539,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>52</v>
+        <v>282</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4571,11 +4556,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4587,7 +4572,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4604,14 +4589,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4620,14 +4605,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4637,11 +4622,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>251</v>
+        <v>117</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4660,7 +4645,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>44</v>
+        <v>289</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4670,14 +4655,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>49</v>
+        <v>243</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4686,14 +4671,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>291</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4703,11 +4688,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4719,14 +4704,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4736,14 +4721,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>217</v>
+        <v>140</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>245</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4752,14 +4737,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4769,14 +4754,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4785,14 +4770,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4802,115 +4787,49 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>139</v>
+        <v>259</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="A106" s="7">
-        <v>100</v>
-      </c>
-      <c r="B106" s="7"/>
-      <c t="s" r="C106" s="8">
+      <c r="P106" s="13">
+        <v>5379.8299999999999</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>297</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>298</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
         <v>299</v>
       </c>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c t="s" r="H106" s="9">
-        <v>300</v>
-      </c>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
-      <c t="s" r="L106" s="10">
-        <v>36</v>
-      </c>
-      <c r="M106" s="10"/>
-      <c t="s" r="N106" s="8">
-        <v>67</v>
-      </c>
-      <c r="O106" s="8"/>
-      <c t="s" r="P106" s="11">
-        <v>295</v>
-      </c>
-      <c t="s" r="Q106" s="12">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="107" ht="25.5" customHeight="1">
-      <c r="A107" s="7">
-        <v>101</v>
-      </c>
-      <c r="B107" s="7"/>
-      <c t="s" r="C107" s="8">
-        <v>301</v>
-      </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c t="s" r="H107" s="9">
-        <v>44</v>
-      </c>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
-      <c t="s" r="L107" s="10">
-        <v>36</v>
-      </c>
-      <c r="M107" s="10"/>
-      <c t="s" r="N107" s="8">
-        <v>261</v>
-      </c>
-      <c r="O107" s="8"/>
-      <c t="s" r="P107" s="11">
-        <v>262</v>
-      </c>
-      <c t="s" r="Q107" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" ht="24.75" customHeight="1">
-      <c r="P108" s="13">
-        <v>5430.21</v>
-      </c>
-      <c r="Q108" s="13"/>
-    </row>
-    <row r="109" ht="16.5" customHeight="1">
-      <c t="s" r="A109" s="14">
-        <v>302</v>
-      </c>
-      <c r="B109" s="14"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c t="s" r="G109" s="15">
-        <v>303</v>
-      </c>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="16"/>
-      <c t="s" r="K109" s="17">
-        <v>304</v>
-      </c>
-      <c r="L109" s="17"/>
-      <c r="M109" s="17"/>
-      <c r="N109" s="17"/>
-      <c r="O109" s="17"/>
-      <c r="P109" s="17"/>
-      <c r="Q109" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="517">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5414,20 +5333,10 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="H106:K106"/>
-    <mergeCell ref="L106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="C107:G107"/>
-    <mergeCell ref="H107:K107"/>
-    <mergeCell ref="L107:M107"/>
-    <mergeCell ref="N107:O107"/>
-    <mergeCell ref="P108:Q108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="G109:I109"/>
-    <mergeCell ref="K109:Q109"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -902,7 +902,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:06 PM</t>
+    <t>Thursday, 11 September, 2025 11:07 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -506,6 +506,15 @@
     <t>15.8400</t>
   </si>
   <si>
+    <t>LIMITLESS ALLZYME MAX 20 E.C. TAB</t>
+  </si>
+  <si>
+    <t>145.00</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
     <t>MOIST-1 CREAM 100 ML</t>
   </si>
   <si>
@@ -581,6 +590,15 @@
     <t>16.0000</t>
   </si>
   <si>
+    <t>OSTEOCARE 30 TABS</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -686,6 +704,15 @@
     <t>182.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">STERONATE  5MG 20 TAB</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>112.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">STOPADOL  FORTE  SACHET</t>
   </si>
   <si>
@@ -734,9 +761,6 @@
     <t>9:0</t>
   </si>
   <si>
-    <t>56.00</t>
-  </si>
-  <si>
     <t>168.0000</t>
   </si>
   <si>
@@ -902,7 +926,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:07 PM</t>
+    <t>Thursday, 11 September, 2025 11:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3028,7 +3052,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3045,7 +3069,7 @@
         <v>167</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3071,11 +3095,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>25</v>
@@ -3087,14 +3111,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3104,14 +3128,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3127,13 +3151,13 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
@@ -3144,7 +3168,7 @@
         <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3160,24 +3184,24 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>106</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3186,14 +3210,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3203,14 +3227,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>177</v>
+        <v>74</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3226,7 +3250,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3236,11 +3260,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>74</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>75</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>25</v>
@@ -3252,28 +3276,28 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3285,7 +3309,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3298,15 +3322,15 @@
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3325,7 +3349,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3342,7 +3366,7 @@
         <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3375,7 +3399,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3391,7 +3415,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3401,14 +3425,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>114</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3417,31 +3441,31 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>112</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>47</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3450,14 +3474,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>25</v>
+        <v>197</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3490,24 +3514,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>112</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3540,7 +3564,7 @@
         <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3556,7 +3580,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3570,10 +3594,10 @@
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>85</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3582,14 +3606,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>209</v>
+        <v>25</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3599,14 +3623,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>211</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3622,7 +3646,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3632,14 +3656,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3648,14 +3672,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3665,14 +3689,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>216</v>
+      </c>
+      <c t="s" r="Q71" s="12">
         <v>217</v>
-      </c>
-      <c t="s" r="Q71" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3688,7 +3712,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>52</v>
+        <v>219</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3698,7 +3722,7 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
@@ -3721,7 +3745,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>44</v>
+        <v>222</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3731,14 +3755,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>24</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3747,14 +3771,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3764,14 +3788,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3780,28 +3804,28 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>25</v>
@@ -3813,7 +3837,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3830,14 +3854,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3846,14 +3870,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>231</v>
+        <v>25</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3870,7 +3894,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3892,18 +3916,18 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>14</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3912,14 +3936,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3936,7 +3960,7 @@
         <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3969,7 +3993,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>243</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3978,14 +4002,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3995,14 +4019,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>245</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4011,31 +4035,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>12</v>
+        <v>245</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>166</v>
+        <v>246</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>167</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4044,31 +4068,31 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
         <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>25</v>
+        <v>251</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4077,24 +4101,24 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>252</v>
+        <v>112</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
@@ -4117,7 +4141,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4127,14 +4151,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>253</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4143,14 +4167,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4160,11 +4184,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4176,14 +4200,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>243</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4193,11 +4217,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4209,14 +4233,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4226,14 +4250,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>67</v>
+        <v>264</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>151</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4249,7 +4273,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>44</v>
+        <v>266</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4259,14 +4283,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4275,14 +4299,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4292,14 +4316,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4308,14 +4332,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4325,14 +4349,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>270</v>
+        <v>67</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>240</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4341,7 +4365,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4358,14 +4382,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4374,14 +4398,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4391,14 +4415,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4407,14 +4431,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4424,14 +4448,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>150</v>
+        <v>278</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>277</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>249</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4440,14 +4464,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4457,11 +4481,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>219</v>
+        <v>274</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4473,14 +4497,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4490,11 +4514,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>250</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4506,14 +4530,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4523,14 +4547,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>249</v>
+        <v>150</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4539,14 +4563,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>282</v>
+        <v>52</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4556,11 +4580,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>250</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4572,14 +4596,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4589,14 +4613,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4605,14 +4629,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>286</v>
+        <v>44</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4622,14 +4646,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>117</v>
+        <v>257</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>287</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4638,14 +4662,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4655,14 +4679,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>219</v>
+        <v>257</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>243</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4678,7 +4702,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4688,14 +4712,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4704,14 +4728,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4721,11 +4745,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>141</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4737,14 +4761,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4754,14 +4778,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>67</v>
+        <v>225</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>52</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4770,14 +4794,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4787,49 +4811,148 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>5379.8299999999999</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>297</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>300</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>301</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>36</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>140</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
+        <v>141</v>
+      </c>
+      <c t="s" r="Q106" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
+        <v>302</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>303</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>36</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
+        <v>67</v>
+      </c>
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>298</v>
       </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>299</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c t="s" r="Q107" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>304</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>44</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>36</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>267</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>268</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="P109" s="13">
+        <v>5714.3299999999999</v>
+      </c>
+      <c r="Q109" s="13"/>
+    </row>
+    <row r="110" ht="16.5" customHeight="1">
+      <c t="s" r="A110" s="14">
+        <v>305</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c t="s" r="G110" s="15">
+        <v>306</v>
+      </c>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c t="s" r="K110" s="17">
+        <v>307</v>
+      </c>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="17"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="522">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5333,10 +5456,25 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="P109:Q109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="K110:Q110"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -899,6 +899,12 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>مرطب شفاه لونا جوز هند ابيض</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
     <t>مسك الرمان</t>
   </si>
   <si>
@@ -914,9 +920,6 @@
     <t>معجون سيجنال 50 مل</t>
   </si>
   <si>
-    <t>7:0</t>
-  </si>
-  <si>
     <t>مناديل سولو سحب</t>
   </si>
   <si>
@@ -926,7 +929,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:13 PM</t>
+    <t>Thursday, 11 September, 2025 11:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4778,14 +4781,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>298</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>251</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4794,14 +4797,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>25</v>
+        <v>299</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4811,14 +4814,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4827,14 +4830,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>301</v>
+        <v>25</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4844,11 +4847,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>140</v>
+        <v>257</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>141</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>25</v>
@@ -4867,7 +4870,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4877,14 +4880,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>298</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4893,14 +4896,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>44</v>
+        <v>304</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4910,49 +4913,82 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
+        <v>300</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>305</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>44</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>36</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>267</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
         <v>268</v>
       </c>
-      <c t="s" r="Q108" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="109" ht="25.5" customHeight="1">
-      <c r="P109" s="13">
-        <v>5714.3299999999999</v>
-      </c>
-      <c r="Q109" s="13"/>
-    </row>
-    <row r="110" ht="16.5" customHeight="1">
-      <c t="s" r="A110" s="14">
-        <v>305</v>
-      </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c t="s" r="G110" s="15">
+      <c t="s" r="Q109" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="P110" s="13">
+        <v>5734.3299999999999</v>
+      </c>
+      <c r="Q110" s="13"/>
+    </row>
+    <row r="111" ht="16.5" customHeight="1">
+      <c t="s" r="A111" s="14">
         <v>306</v>
       </c>
-      <c r="H110" s="15"/>
-      <c r="I110" s="15"/>
-      <c r="J110" s="16"/>
-      <c t="s" r="K110" s="17">
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c t="s" r="G111" s="15">
         <v>307</v>
       </c>
-      <c r="L110" s="17"/>
-      <c r="M110" s="17"/>
-      <c r="N110" s="17"/>
-      <c r="O110" s="17"/>
-      <c r="P110" s="17"/>
-      <c r="Q110" s="17"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c t="s" r="K111" s="17">
+        <v>308</v>
+      </c>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="17"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="522">
+  <mergeCells count="527">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5471,10 +5507,15 @@
     <mergeCell ref="H108:K108"/>
     <mergeCell ref="L108:M108"/>
     <mergeCell ref="N108:O108"/>
-    <mergeCell ref="P109:Q109"/>
-    <mergeCell ref="A110:F110"/>
-    <mergeCell ref="G110:I110"/>
-    <mergeCell ref="K110:Q110"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="P110:Q110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="K111:Q111"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -929,7 +929,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:14 PM</t>
+    <t>Thursday, 11 September, 2025 11:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -257,6 +257,15 @@
     <t>46.0000</t>
   </si>
   <si>
+    <t>COUGHSED PARACETAMOL INFANTS 12 SUPP.</t>
+  </si>
+  <si>
+    <t>42.00</t>
+  </si>
+  <si>
+    <t>21.0000</t>
+  </si>
+  <si>
     <t>DIGENORM SYRUP 120 ML</t>
   </si>
   <si>
@@ -641,9 +650,6 @@
     <t>PRIVACOND EYE DROPS 15 ML</t>
   </si>
   <si>
-    <t>42.00</t>
-  </si>
-  <si>
     <t>42.0000</t>
   </si>
   <si>
@@ -929,7 +935,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:16 PM</t>
+    <t>Thursday, 11 September, 2025 11:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2164,7 +2170,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2174,14 +2180,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2190,14 +2196,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2230,7 +2236,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2240,14 +2246,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2256,14 +2262,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2273,14 +2279,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>95</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2296,7 +2302,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2306,14 +2312,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>97</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>98</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2329,7 +2335,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2339,14 +2345,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2355,7 +2361,7 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
@@ -2368,11 +2374,11 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
@@ -2401,7 +2407,7 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
@@ -2428,7 +2434,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2445,7 +2451,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2461,7 +2467,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2471,14 +2477,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2487,14 +2493,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2504,14 +2510,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>33</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2520,14 +2526,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2544,7 +2550,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2560,7 +2566,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2577,7 +2583,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2593,7 +2599,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2603,14 +2609,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2619,31 +2625,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2659,13 +2665,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2676,7 +2682,7 @@
         <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2692,7 +2698,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2702,14 +2708,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2718,14 +2724,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2735,14 +2741,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>61</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>138</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2751,14 +2757,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2768,14 +2774,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>141</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2824,7 +2830,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2841,7 +2847,7 @@
         <v>147</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2857,7 +2863,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>149</v>
+        <v>25</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2867,14 +2873,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2883,14 +2889,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2907,7 +2913,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2923,7 +2929,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2940,7 +2946,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2956,24 +2962,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>45</v>
+        <v>159</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2982,31 +2988,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>162</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3022,7 +3028,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3032,11 +3038,11 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -3048,14 +3054,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3065,7 +3071,7 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
@@ -3088,7 +3094,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3105,7 +3111,7 @@
         <v>170</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3131,11 +3137,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>84</v>
+        <v>172</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>85</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>25</v>
@@ -3147,14 +3153,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3164,14 +3170,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3187,13 +3193,13 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
@@ -3204,7 +3210,7 @@
         <v>177</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3220,24 +3226,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3246,14 +3252,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3263,14 +3269,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3286,7 +3292,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3296,11 +3302,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>74</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>25</v>
@@ -3312,28 +3318,28 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>141</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3345,7 +3351,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3358,15 +3364,15 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3385,7 +3391,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3402,7 +3408,7 @@
         <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3435,7 +3441,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>114</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3451,7 +3457,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3468,7 +3474,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3484,7 +3490,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3494,14 +3500,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3510,31 +3516,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>112</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
         <v>202</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3550,24 +3556,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>115</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3600,7 +3606,7 @@
         <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3649,7 +3655,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3659,14 +3665,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>85</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3682,7 +3688,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>215</v>
+        <v>70</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3692,14 +3698,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>216</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3708,14 +3714,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3725,14 +3731,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>52</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3741,14 +3747,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3758,14 +3764,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3774,14 +3780,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>52</v>
+        <v>224</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3791,14 +3797,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>225</v>
+        <v>83</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3807,14 +3813,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3824,14 +3830,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>23</v>
+        <v>227</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>24</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3840,14 +3846,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3857,14 +3863,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>229</v>
+        <v>23</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3873,7 +3879,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3890,14 +3896,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3906,31 +3912,31 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3946,13 +3952,13 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
@@ -3960,7 +3966,7 @@
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>25</v>
@@ -3972,14 +3978,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3989,11 +3995,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -4005,14 +4011,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>52</v>
+        <v>242</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4022,14 +4028,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>14</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>98</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4038,14 +4044,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>245</v>
+        <v>52</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4055,14 +4061,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>246</v>
+        <v>14</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4071,14 +4077,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4088,14 +4094,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>251</v>
+        <v>49</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4104,14 +4110,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>44</v>
+        <v>251</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4121,14 +4127,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
+        <v>252</v>
+      </c>
+      <c t="s" r="Q84" s="12">
         <v>253</v>
-      </c>
-      <c t="s" r="Q84" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4144,21 +4150,21 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>170</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>25</v>
@@ -4170,14 +4176,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>256</v>
+        <v>12</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4187,11 +4193,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>257</v>
+        <v>172</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4203,14 +4209,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>22</v>
+        <v>258</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4220,11 +4226,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4236,14 +4242,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>263</v>
+        <v>22</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4253,14 +4259,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4269,14 +4275,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4286,14 +4292,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4302,14 +4308,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4319,11 +4325,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4335,14 +4341,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4352,11 +4358,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>67</v>
+        <v>272</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>151</v>
+        <v>273</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4368,14 +4374,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4385,14 +4391,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>274</v>
+        <v>67</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4418,14 +4424,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4451,14 +4457,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>109</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>249</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4484,14 +4490,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>280</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>25</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4507,7 +4513,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4517,11 +4523,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4533,14 +4539,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4550,7 +4556,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>150</v>
+        <v>284</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4573,7 +4579,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4583,11 +4589,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>225</v>
+        <v>153</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4599,7 +4605,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4616,11 +4622,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4632,14 +4638,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4649,14 +4655,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>32</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4665,14 +4671,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4682,14 +4688,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>258</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4705,7 +4711,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>44</v>
+        <v>292</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4715,14 +4721,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>208</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4738,7 +4744,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>294</v>
+        <v>44</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4748,14 +4754,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>117</v>
+        <v>294</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>295</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4764,14 +4770,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4781,11 +4787,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>267</v>
+        <v>120</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4814,14 +4820,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>225</v>
+        <v>269</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>251</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4830,14 +4836,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4847,14 +4853,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>253</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4863,14 +4869,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>297</v>
+        <v>25</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4880,11 +4886,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>141</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -4896,14 +4902,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4913,14 +4919,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>300</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4936,7 +4942,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4946,49 +4952,82 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>267</v>
+        <v>67</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
-      <c r="P110" s="13">
-        <v>5734.3299999999999</v>
-      </c>
-      <c r="Q110" s="13"/>
-    </row>
-    <row r="111" ht="16.5" customHeight="1">
-      <c t="s" r="A111" s="14">
-        <v>306</v>
-      </c>
-      <c r="B111" s="14"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c t="s" r="G111" s="15">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
         <v>307</v>
       </c>
-      <c r="H111" s="15"/>
-      <c r="I111" s="15"/>
-      <c r="J111" s="16"/>
-      <c t="s" r="K111" s="17">
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>44</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>36</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>269</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>270</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="P111" s="13">
+        <v>5755.3299999999999</v>
+      </c>
+      <c r="Q111" s="13"/>
+    </row>
+    <row r="112" ht="16.5" customHeight="1">
+      <c t="s" r="A112" s="14">
         <v>308</v>
       </c>
-      <c r="L111" s="17"/>
-      <c r="M111" s="17"/>
-      <c r="N111" s="17"/>
-      <c r="O111" s="17"/>
-      <c r="P111" s="17"/>
-      <c r="Q111" s="17"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c t="s" r="G112" s="15">
+        <v>309</v>
+      </c>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c t="s" r="K112" s="17">
+        <v>310</v>
+      </c>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="17"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="527">
+  <mergeCells count="532">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5512,10 +5551,15 @@
     <mergeCell ref="H109:K109"/>
     <mergeCell ref="L109:M109"/>
     <mergeCell ref="N109:O109"/>
-    <mergeCell ref="P110:Q110"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="G111:I111"/>
-    <mergeCell ref="K111:Q111"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="P111:Q111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="K112:Q112"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -608,6 +608,18 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
   </si>
   <si>
@@ -770,15 +782,15 @@
     <t>168.0000</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
     <t>X-TENSION PLUS 150/12.5MG 28 SCORED TAB.</t>
   </si>
   <si>
     <t>108.0000</t>
   </si>
   <si>
+    <t>ZITHOTRAC 500 MG 3 TAB</t>
+  </si>
+  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -935,7 +947,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:24 PM</t>
+    <t>Thursday, 11 September, 2025 11:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3529,7 +3541,7 @@
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
@@ -3562,18 +3574,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3582,31 +3594,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3615,7 +3627,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3632,14 +3644,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3648,7 +3660,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3665,11 +3677,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>25</v>
@@ -3681,14 +3693,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3698,14 +3710,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>88</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3714,14 +3726,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3731,14 +3743,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>176</v>
+        <v>219</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>218</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>219</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3764,14 +3776,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>222</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>52</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3780,14 +3792,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3797,14 +3809,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3813,14 +3825,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>52</v>
+        <v>228</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3830,14 +3842,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3846,14 +3858,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3863,14 +3875,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>24</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3879,14 +3891,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3896,14 +3908,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>232</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3912,7 +3924,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3929,14 +3941,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3945,31 +3957,31 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3978,28 +3990,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>25</v>
@@ -4011,14 +4023,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>242</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4051,7 +4063,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4061,14 +4073,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>14</v>
+        <v>247</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>101</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4077,14 +4089,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>247</v>
+        <v>52</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4094,14 +4106,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4127,14 +4139,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>253</v>
+        <v>49</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4150,7 +4162,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>44</v>
+        <v>255</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4160,14 +4172,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>115</v>
+        <v>238</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>25</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4176,28 +4188,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>25</v>
@@ -4209,14 +4221,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>258</v>
+        <v>44</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4226,11 +4238,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4242,14 +4254,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4259,11 +4271,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>262</v>
+        <v>172</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>263</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4275,14 +4287,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4292,14 +4304,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4308,14 +4320,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>268</v>
+        <v>22</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4325,11 +4337,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4341,14 +4353,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>253</v>
+        <v>269</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4358,14 +4370,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4374,14 +4386,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4391,11 +4403,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>154</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>25</v>
@@ -4414,7 +4426,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4428,10 +4440,10 @@
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4440,14 +4452,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>44</v>
+        <v>225</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4457,14 +4469,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>248</v>
+        <v>67</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>278</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4494,10 +4506,10 @@
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>251</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4523,14 +4535,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
         <v>282</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4546,7 +4558,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4560,10 +4572,10 @@
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>285</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>25</v>
+        <v>255</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4572,14 +4584,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4589,11 +4601,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>153</v>
+        <v>280</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>25</v>
@@ -4605,14 +4617,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4622,11 +4634,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>227</v>
+        <v>288</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4638,14 +4650,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4655,11 +4667,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4671,14 +4683,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4688,14 +4700,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
         <v>32</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4704,14 +4716,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>292</v>
+        <v>52</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4721,11 +4733,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4737,7 +4749,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4754,14 +4766,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4787,11 +4799,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4803,14 +4815,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>299</v>
+        <v>44</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4820,14 +4832,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>270</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4836,14 +4848,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4853,14 +4865,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>253</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4869,14 +4881,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>25</v>
+        <v>303</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4886,11 +4898,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -4909,7 +4921,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4919,14 +4931,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>144</v>
+        <v>306</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4935,14 +4947,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4952,14 +4964,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>302</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4968,14 +4980,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4985,49 +4997,115 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>270</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
-      <c r="P111" s="13">
-        <v>5755.3299999999999</v>
-      </c>
-      <c r="Q111" s="13"/>
-    </row>
-    <row r="112" ht="16.5" customHeight="1">
-      <c t="s" r="A112" s="14">
-        <v>308</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c t="s" r="G112" s="15">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
         <v>309</v>
       </c>
-      <c r="H112" s="15"/>
-      <c r="I112" s="15"/>
-      <c r="J112" s="16"/>
-      <c t="s" r="K112" s="17">
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
         <v>310</v>
       </c>
-      <c r="L112" s="17"/>
-      <c r="M112" s="17"/>
-      <c r="N112" s="17"/>
-      <c r="O112" s="17"/>
-      <c r="P112" s="17"/>
-      <c r="Q112" s="17"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>36</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>67</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>306</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>311</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>44</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>36</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>273</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>274</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>5836.3299999999999</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>312</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>313</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>314</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="532">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5556,10 +5634,20 @@
     <mergeCell ref="H110:K110"/>
     <mergeCell ref="L110:M110"/>
     <mergeCell ref="N110:O110"/>
-    <mergeCell ref="P111:Q111"/>
-    <mergeCell ref="A112:F112"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="K112:Q112"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -566,6 +566,15 @@
     <t>274.0000</t>
   </si>
   <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>4:3</t>
+  </si>
+  <si>
+    <t>66.00</t>
+  </si>
+  <si>
     <t>NITAZODE 100MG/5ML 60ML SUSP.</t>
   </si>
   <si>
@@ -857,7 +866,7 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>10.0000</t>
+    <t>11:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -947,7 +956,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:26 PM</t>
+    <t>Thursday, 11 September, 2025 11:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3337,7 +3346,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>25</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3347,11 +3356,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>74</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3363,28 +3372,28 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3396,7 +3405,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3409,15 +3418,15 @@
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3436,7 +3445,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3453,7 +3462,7 @@
         <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3486,7 +3495,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3502,7 +3511,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3519,7 +3528,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>25</v>
+        <v>117</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3535,24 +3544,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3561,28 +3570,28 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3594,31 +3603,31 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>115</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3634,24 +3643,24 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3684,7 +3693,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3710,11 +3719,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3726,14 +3735,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3743,14 +3752,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>219</v>
+        <v>83</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>88</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3759,14 +3768,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>221</v>
+        <v>70</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3776,14 +3785,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>176</v>
+        <v>222</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>222</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3792,14 +3801,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3809,14 +3818,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>225</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>226</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>52</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3842,14 +3851,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3865,7 +3874,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3875,14 +3884,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
         <v>232</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3898,7 +3907,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3908,14 +3917,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3924,14 +3933,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3941,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>235</v>
+        <v>23</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>236</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3981,7 +3990,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3997,13 +4006,13 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
@@ -4011,10 +4020,10 @@
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4023,28 +4032,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -4063,7 +4072,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4073,11 +4082,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4089,14 +4098,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4106,14 +4115,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>250</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4122,14 +4131,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>251</v>
+        <v>52</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4139,14 +4148,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>253</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4155,14 +4164,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4172,14 +4181,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
         <v>256</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>200</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4195,7 +4204,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>44</v>
+        <v>258</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4205,14 +4214,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>25</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4221,7 +4230,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4234,15 +4243,15 @@
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>247</v>
+        <v>115</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4254,14 +4263,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4271,11 +4280,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4287,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>262</v>
+        <v>12</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4304,11 +4313,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>264</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4320,14 +4329,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>22</v>
+        <v>265</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4360,7 +4369,7 @@
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>269</v>
+        <v>22</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4370,14 +4379,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4407,10 +4416,10 @@
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4419,14 +4428,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4459,7 +4468,7 @@
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4469,11 +4478,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>67</v>
+        <v>279</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>154</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4485,14 +4494,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4502,14 +4511,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>280</v>
+        <v>67</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>253</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4518,7 +4527,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4535,14 +4544,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>12</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4551,7 +4560,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4568,14 +4577,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>255</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4584,7 +4593,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4601,14 +4610,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>286</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>25</v>
+        <v>258</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4617,14 +4626,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4634,7 +4643,7 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
@@ -4657,7 +4666,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4667,11 +4676,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>153</v>
+        <v>291</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4683,14 +4692,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4700,11 +4709,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>32</v>
+        <v>294</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4716,7 +4725,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4733,11 +4742,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4749,14 +4758,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4766,14 +4775,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>32</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4782,14 +4791,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>296</v>
+        <v>44</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4799,14 +4808,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>264</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4815,14 +4824,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>44</v>
+        <v>299</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4832,14 +4841,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>298</v>
+        <v>266</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4848,14 +4857,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>300</v>
+        <v>44</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4865,14 +4874,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>120</v>
+        <v>301</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>301</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4898,11 +4907,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>273</v>
+        <v>120</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -4914,14 +4923,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4931,14 +4940,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>231</v>
+        <v>276</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>200</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4954,7 +4963,7 @@
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>25</v>
+        <v>308</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4964,14 +4973,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>264</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>25</v>
+        <v>203</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4980,14 +4989,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>303</v>
+        <v>25</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4997,11 +5006,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>143</v>
+        <v>266</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>144</v>
+        <v>267</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>25</v>
@@ -5013,14 +5022,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5030,14 +5039,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>306</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5046,14 +5055,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>44</v>
+        <v>313</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5063,49 +5072,82 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>273</v>
+        <v>67</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>5836.3299999999999</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>312</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>313</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
         <v>314</v>
       </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>44</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>36</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>276</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="P114" s="13">
+        <v>5914.3299999999999</v>
+      </c>
+      <c r="Q114" s="13"/>
+    </row>
+    <row r="115" ht="16.5" customHeight="1">
+      <c t="s" r="A115" s="14">
+        <v>315</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c t="s" r="G115" s="15">
+        <v>316</v>
+      </c>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c t="s" r="K115" s="17">
+        <v>317</v>
+      </c>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="17"/>
+      <c r="O115" s="17"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="547">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5644,10 +5686,15 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="P114:Q114"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="G115:I115"/>
+    <mergeCell ref="K115:Q115"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -569,9 +569,6 @@
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
-    <t>4:3</t>
-  </si>
-  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -956,7 +953,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:27 PM</t>
+    <t>Thursday, 11 September, 2025 11:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3346,7 +3343,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>119</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3356,7 +3353,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3372,7 +3369,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3405,7 +3402,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3438,7 +3435,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3455,11 +3452,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3471,7 +3468,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3488,11 +3485,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3504,7 +3501,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3521,11 +3518,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>117</v>
@@ -3537,7 +3534,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3554,11 +3551,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3570,14 +3567,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3587,11 +3584,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3603,14 +3600,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3620,11 +3617,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3636,14 +3633,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3657,7 +3654,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>47</v>
@@ -3669,7 +3666,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3686,11 +3683,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3702,7 +3699,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3719,11 +3716,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>25</v>
@@ -3735,7 +3732,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3756,7 +3753,7 @@
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3768,7 +3765,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3785,7 +3782,7 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
@@ -3801,14 +3798,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3822,10 +3819,10 @@
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>225</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>226</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3834,14 +3831,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3855,7 +3852,7 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>52</v>
@@ -3867,14 +3864,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3888,7 +3885,7 @@
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3900,7 +3897,7 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
@@ -3917,11 +3914,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>52</v>
@@ -3933,7 +3930,7 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
@@ -3966,7 +3963,7 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
@@ -3983,11 +3980,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3999,7 +3996,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4016,11 +4013,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>52</v>
@@ -4032,7 +4029,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -4049,11 +4046,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>25</v>
@@ -4065,7 +4062,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4082,11 +4079,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4098,14 +4095,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,11 +4112,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4131,7 +4128,7 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
@@ -4164,14 +4161,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4181,11 +4178,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>49</v>
@@ -4197,14 +4194,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4214,14 +4211,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4230,7 +4227,7 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
@@ -4251,7 +4248,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>25</v>
@@ -4263,7 +4260,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4280,11 +4277,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4296,7 +4293,7 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
@@ -4329,14 +4326,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,11 +4343,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4362,7 +4359,7 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
@@ -4379,11 +4376,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4395,14 +4392,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,11 +4409,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>52</v>
@@ -4428,14 +4425,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,11 +4442,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>25</v>
@@ -4461,14 +4458,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,11 +4475,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4494,14 +4491,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4527,7 +4524,7 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
@@ -4544,11 +4541,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>52</v>
@@ -4560,7 +4557,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4577,14 +4574,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
         <v>109</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4593,7 +4590,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4610,14 +4607,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4626,7 +4623,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4643,11 +4640,11 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>25</v>
@@ -4659,7 +4656,7 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
@@ -4676,11 +4673,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4692,7 +4689,7 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
@@ -4713,7 +4710,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4725,7 +4722,7 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
@@ -4742,7 +4739,7 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
@@ -4758,7 +4755,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4775,11 +4772,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4791,7 +4788,7 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
@@ -4808,7 +4805,7 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
@@ -4824,14 +4821,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4841,11 +4838,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>25</v>
@@ -4857,7 +4854,7 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
@@ -4874,11 +4871,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>49</v>
@@ -4890,14 +4887,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4911,7 +4908,7 @@
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>25</v>
@@ -4923,14 +4920,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4940,11 +4937,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>25</v>
@@ -4956,14 +4953,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4973,14 +4970,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4989,7 +4986,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5006,11 +5003,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>25</v>
@@ -5022,14 +5019,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5055,14 +5052,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5076,7 +5073,7 @@
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>52</v>
@@ -5088,7 +5085,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5105,11 +5102,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>25</v>
@@ -5123,7 +5120,7 @@
     </row>
     <row r="115" ht="16.5" customHeight="1">
       <c t="s" r="A115" s="14">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B115" s="14"/>
       <c r="C115" s="14"/>
@@ -5131,13 +5128,13 @@
       <c r="E115" s="14"/>
       <c r="F115" s="14"/>
       <c t="s" r="G115" s="15">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
       <c r="J115" s="16"/>
       <c t="s" r="K115" s="17">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L115" s="17"/>
       <c r="M115" s="17"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -939,6 +939,12 @@
   </si>
   <si>
     <t xml:space="preserve">مشط خشب </t>
+  </si>
+  <si>
+    <t>معجون سنسوداين مفعول سريع 75 مل</t>
+  </si>
+  <si>
+    <t>120.0000</t>
   </si>
   <si>
     <t>معجون سيجنال 50 مل</t>
@@ -5026,7 +5032,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>305</v>
+        <v>52</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5036,11 +5042,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>144</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>25</v>
@@ -5052,14 +5058,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5069,14 +5075,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5092,7 +5098,7 @@
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>44</v>
+        <v>314</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5102,49 +5108,82 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>275</v>
+        <v>67</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
+        <v>308</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>315</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>44</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>36</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>275</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
         <v>276</v>
       </c>
-      <c t="s" r="Q113" s="12">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" ht="25.5" customHeight="1">
-      <c r="P114" s="13">
-        <v>5914.3299999999999</v>
-      </c>
-      <c r="Q114" s="13"/>
-    </row>
-    <row r="115" ht="16.5" customHeight="1">
-      <c t="s" r="A115" s="14">
-        <v>314</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c t="s" r="G115" s="15">
-        <v>315</v>
-      </c>
-      <c r="H115" s="15"/>
-      <c r="I115" s="15"/>
-      <c r="J115" s="16"/>
-      <c t="s" r="K115" s="17">
+      <c t="s" r="Q114" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="P115" s="13">
+        <v>6034.3299999999999</v>
+      </c>
+      <c r="Q115" s="13"/>
+    </row>
+    <row r="116" ht="16.5" customHeight="1">
+      <c t="s" r="A116" s="14">
         <v>316</v>
       </c>
-      <c r="L115" s="17"/>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="17"/>
-      <c r="P115" s="17"/>
-      <c r="Q115" s="17"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c t="s" r="G116" s="15">
+        <v>317</v>
+      </c>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c t="s" r="K116" s="17">
+        <v>318</v>
+      </c>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="17"/>
+      <c r="O116" s="17"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="547">
+  <mergeCells count="552">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5688,10 +5727,15 @@
     <mergeCell ref="H113:K113"/>
     <mergeCell ref="L113:M113"/>
     <mergeCell ref="N113:O113"/>
-    <mergeCell ref="P114:Q114"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="G115:I115"/>
-    <mergeCell ref="K115:Q115"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="P115:Q115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="G116:I116"/>
+    <mergeCell ref="K116:Q116"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -569,6 +569,9 @@
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
+    <t>4:3</t>
+  </si>
+  <si>
     <t>66.00</t>
   </si>
   <si>
@@ -645,6 +648,18 @@
   </si>
   <si>
     <t>54.0000</t>
+  </si>
+  <si>
+    <t>PANADOL MIGRAINE 30 TABS</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>16.8300</t>
   </si>
   <si>
     <t>PANTOLOC 40MG 14 TAB</t>
@@ -3349,7 +3364,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3359,7 +3374,7 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3375,7 +3390,7 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
@@ -3408,7 +3423,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3441,7 +3456,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3458,11 +3473,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3474,7 +3489,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3491,11 +3506,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3507,7 +3522,7 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
@@ -3524,11 +3539,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>117</v>
@@ -3540,7 +3555,7 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
@@ -3557,11 +3572,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>25</v>
@@ -3573,14 +3588,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3590,11 +3605,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3606,14 +3621,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3623,11 +3638,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3639,14 +3654,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3660,7 +3675,7 @@
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>47</v>
@@ -3672,14 +3687,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3689,11 +3704,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3705,7 +3720,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3722,14 +3737,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3738,7 +3753,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3755,11 +3770,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>25</v>
@@ -3771,14 +3786,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3788,14 +3803,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>221</v>
+        <v>83</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3804,14 +3819,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>223</v>
+        <v>70</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3821,14 +3836,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>176</v>
+        <v>226</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3837,14 +3852,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3854,14 +3869,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>74</v>
+        <v>176</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>52</v>
+        <v>230</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3870,14 +3885,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3887,14 +3902,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3903,14 +3918,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3920,14 +3935,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>233</v>
+        <v>83</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3936,14 +3951,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3953,14 +3968,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>23</v>
+        <v>238</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>24</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3969,14 +3984,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3986,14 +4001,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4002,7 +4017,7 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
@@ -4019,14 +4034,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4035,31 +4050,31 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4068,28 +4083,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>25</v>
@@ -4101,14 +4116,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>248</v>
+        <v>25</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4118,11 +4133,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4134,14 +4149,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>52</v>
+        <v>253</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4151,14 +4166,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>101</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4167,14 +4182,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>253</v>
+        <v>52</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4184,14 +4199,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>255</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4200,14 +4215,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4217,14 +4232,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>202</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4233,14 +4248,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>44</v>
+        <v>262</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4250,14 +4265,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>25</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4266,7 +4281,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4279,15 +4294,15 @@
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>115</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>250</v>
+        <v>265</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>25</v>
@@ -4299,14 +4314,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4316,11 +4331,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>173</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4332,14 +4347,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>264</v>
+        <v>12</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4349,11 +4364,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4365,14 +4380,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>22</v>
+        <v>269</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4382,11 +4397,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4398,14 +4413,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>271</v>
+        <v>22</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4415,14 +4430,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4431,14 +4446,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4448,14 +4463,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4464,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>202</v>
+        <v>279</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4481,11 +4496,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>25</v>
@@ -4497,14 +4512,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4514,11 +4529,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>67</v>
+        <v>283</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>154</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>25</v>
@@ -4530,14 +4545,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4547,14 +4562,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>282</v>
+        <v>67</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>255</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4563,7 +4578,7 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
@@ -4580,14 +4595,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>254</v>
+        <v>287</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>284</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4596,7 +4611,7 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
@@ -4613,14 +4628,14 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>257</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4629,7 +4644,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4646,14 +4661,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>288</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>25</v>
+        <v>262</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4662,14 +4677,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4679,11 +4694,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>25</v>
@@ -4695,14 +4710,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4712,11 +4727,11 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>25</v>
@@ -4728,14 +4743,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4745,11 +4760,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>32</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4761,7 +4776,7 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
@@ -4778,11 +4793,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4794,14 +4809,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4811,14 +4826,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4827,14 +4842,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>298</v>
+        <v>44</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4844,14 +4859,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>266</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4860,14 +4875,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4877,14 +4892,14 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4893,14 +4908,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>302</v>
+        <v>44</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4910,14 +4925,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>120</v>
+        <v>305</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>303</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4926,14 +4941,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4943,11 +4958,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>275</v>
+        <v>120</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>25</v>
@@ -4959,14 +4974,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4976,14 +4991,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>202</v>
+        <v>25</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -4992,14 +5007,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>25</v>
+        <v>312</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5009,14 +5024,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>25</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5025,14 +5040,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5042,11 +5057,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>25</v>
@@ -5058,14 +5073,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>305</v>
+        <v>52</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5075,11 +5090,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>144</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5091,14 +5106,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5108,14 +5123,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5124,14 +5139,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>44</v>
+        <v>319</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5141,49 +5156,82 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>275</v>
+        <v>67</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
-      <c r="P115" s="13">
-        <v>6034.3299999999999</v>
-      </c>
-      <c r="Q115" s="13"/>
-    </row>
-    <row r="116" ht="16.5" customHeight="1">
-      <c t="s" r="A116" s="14">
-        <v>316</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c t="s" r="G116" s="15">
-        <v>317</v>
-      </c>
-      <c r="H116" s="15"/>
-      <c r="I116" s="15"/>
-      <c r="J116" s="16"/>
-      <c t="s" r="K116" s="17">
-        <v>318</v>
-      </c>
-      <c r="L116" s="17"/>
-      <c r="M116" s="17"/>
-      <c r="N116" s="17"/>
-      <c r="O116" s="17"/>
-      <c r="P116" s="17"/>
-      <c r="Q116" s="17"/>
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>320</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>44</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>36</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>280</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
+        <v>281</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6051.1599999999999</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>321</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>322</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>323</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="552">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5732,10 +5780,15 @@
     <mergeCell ref="H114:K114"/>
     <mergeCell ref="L114:M114"/>
     <mergeCell ref="N114:O114"/>
-    <mergeCell ref="P115:Q115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="G116:I116"/>
-    <mergeCell ref="K116:Q116"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>نيفياسوفت 20</t>
   </si>
   <si>
-    <t>Thursday, 11 September, 2025 11:28 PM</t>
+    <t>Thursday, 11 September, 2025 11:47 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-11_00-00.xlsx
+++ b/DaySale_2025-09-11_00-00.xlsx
@@ -98,6 +98,18 @@
     <t>124.0000</t>
   </si>
   <si>
+    <t>BEBELAC 3 (BEBEJUNIOR 1+) MILK 400 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>310.00</t>
+  </si>
+  <si>
+    <t>310.0000</t>
+  </si>
+  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
@@ -141,9 +153,6 @@
   </si>
   <si>
     <t>CARBAPEX 200 MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>57.00</t>
@@ -1764,7 +1773,7 @@
         <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1773,31 +1782,31 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
       <c t="s" r="L12" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1806,20 +1815,20 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
       <c t="s" r="L13" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
@@ -1863,7 +1872,7 @@
         <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1872,14 +1881,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1889,14 +1898,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1905,14 +1914,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1922,14 +1931,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>54</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>55</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1945,7 +1954,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1955,11 +1964,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1971,20 +1980,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1995,7 +2004,7 @@
         <v>62</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -2011,13 +2020,13 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -2044,7 +2053,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2061,7 +2070,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2077,7 +2086,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2087,11 +2096,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -2103,14 +2112,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2127,7 +2136,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2143,7 +2152,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2153,14 +2162,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2176,7 +2185,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2186,14 +2195,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2209,7 +2218,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2226,7 +2235,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2242,7 +2251,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2252,14 +2261,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2268,14 +2277,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2308,7 +2317,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2318,14 +2327,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2334,14 +2343,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2351,14 +2360,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>98</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2374,7 +2383,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2384,14 +2393,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>101</v>
-      </c>
-      <c t="s" r="Q30" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2407,7 +2416,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2417,14 +2426,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2433,7 +2442,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -2446,11 +2455,11 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
@@ -2479,7 +2488,7 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -2506,7 +2515,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2523,7 +2532,7 @@
         <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2539,7 +2548,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2549,14 +2558,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2565,14 +2574,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2582,14 +2591,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>33</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2598,14 +2607,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2622,7 +2631,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2638,7 +2647,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2655,7 +2664,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2671,7 +2680,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2681,14 +2690,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2697,31 +2706,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2737,13 +2746,13 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
@@ -2754,7 +2763,7 @@
         <v>135</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2770,7 +2779,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2780,14 +2789,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2796,14 +2805,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2813,14 +2822,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>64</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>141</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2829,14 +2838,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2846,14 +2855,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q44" s="12">
         <v>144</v>
-      </c>
-      <c t="s" r="Q44" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2869,7 +2878,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2902,7 +2911,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2919,7 +2928,7 @@
         <v>150</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2935,7 +2944,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2945,14 +2954,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2961,14 +2970,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>44</v>
+        <v>155</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2985,7 +2994,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>25</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3001,7 +3010,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3018,7 +3027,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3034,24 +3043,24 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>45</v>
+        <v>162</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3060,31 +3069,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3100,7 +3109,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3110,11 +3119,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>50</v>
+        <v>167</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -3126,14 +3135,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3143,7 +3152,7 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
@@ -3166,7 +3175,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3183,7 +3192,7 @@
         <v>173</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3199,7 +3208,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3209,11 +3218,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>88</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>25</v>
@@ -3225,14 +3234,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3242,14 +3251,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>177</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3265,13 +3274,13 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
@@ -3282,7 +3291,7 @@
         <v>180</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3298,24 +3307,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>109</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3324,14 +3333,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3341,14 +3350,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3364,7 +3373,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3374,11 +3383,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>25</v>
@@ -3397,7 +3406,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>25</v>
+        <v>189</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3407,11 +3416,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>74</v>
+        <v>190</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>25</v>
@@ -3423,28 +3432,28 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>143</v>
+        <v>77</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>25</v>
@@ -3456,28 +3465,28 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>25</v>
@@ -3496,7 +3505,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3513,7 +3522,7 @@
         <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3529,7 +3538,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3546,7 +3555,7 @@
         <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>117</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3562,7 +3571,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3579,7 +3588,7 @@
         <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3595,24 +3604,24 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>203</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3621,28 +3630,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3654,31 +3663,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>115</v>
+        <v>211</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>212</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>47</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3700,18 +3709,18 @@
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3720,14 +3729,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>25</v>
+        <v>217</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3777,7 +3786,7 @@
         <v>222</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3803,11 +3812,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>83</v>
+        <v>224</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>25</v>
@@ -3819,14 +3828,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>70</v>
+        <v>25</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3836,14 +3845,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3852,14 +3861,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>228</v>
+        <v>73</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3869,14 +3878,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>229</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>230</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3885,14 +3894,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,14 +3911,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
+        <v>232</v>
+      </c>
+      <c t="s" r="Q76" s="12">
         <v>233</v>
-      </c>
-      <c t="s" r="Q76" s="12">
-        <v>52</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3935,14 +3944,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
         <v>236</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3958,7 +3967,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3968,14 +3977,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>238</v>
+        <v>86</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>239</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3991,7 +4000,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4001,14 +4010,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>24</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4017,14 +4026,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4034,14 +4043,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>242</v>
+        <v>23</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>243</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -4074,7 +4083,7 @@
         <v>246</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4090,13 +4099,13 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
@@ -4104,10 +4113,10 @@
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4116,28 +4125,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>25</v>
@@ -4156,7 +4165,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4166,11 +4175,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>25</v>
@@ -4182,14 +4191,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>52</v>
+        <v>256</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4199,14 +4208,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>14</v>
+        <v>257</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>101</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4215,14 +4224,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>258</v>
+        <v>55</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4232,14 +4241,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>259</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>260</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4248,14 +4257,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,14 +4274,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
         <v>263</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>203</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4288,7 +4297,7 @@
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>44</v>
+        <v>265</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4298,14 +4307,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>115</v>
+        <v>248</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>25</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4314,28 +4323,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>254</v>
+        <v>118</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>25</v>
@@ -4347,28 +4356,28 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>172</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>173</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>25</v>
@@ -4380,28 +4389,28 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>269</v>
+        <v>12</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>271</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>25</v>
@@ -4413,20 +4422,20 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>22</v>
+        <v>272</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
@@ -4453,24 +4462,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>276</v>
+        <v>22</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4492,7 +4501,7 @@
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
@@ -4500,10 +4509,10 @@
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4512,20 +4521,20 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>203</v>
+        <v>282</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
@@ -4552,21 +4561,21 @@
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>67</v>
+        <v>286</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>154</v>
+        <v>287</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>25</v>
@@ -4578,31 +4587,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>44</v>
+        <v>235</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>287</v>
+        <v>70</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>260</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4611,31 +4620,31 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>109</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q98" s="12">
-        <v>289</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" ht="25.5" customHeight="1">
@@ -4644,31 +4653,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
         <v>112</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>262</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4677,31 +4686,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>293</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>25</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4710,24 +4719,24 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
@@ -4750,21 +4759,21 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>153</v>
+        <v>298</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>25</v>
@@ -4776,28 +4785,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>238</v>
+        <v>156</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>32</v>
+        <v>301</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>25</v>
@@ -4809,28 +4818,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>25</v>
@@ -4842,31 +4851,31 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>32</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4875,31 +4884,31 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>303</v>
+        <v>30</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>271</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q106" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -4908,31 +4917,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>44</v>
+        <v>306</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>222</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4941,31 +4950,31 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>307</v>
+        <v>30</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
       <c r="K108" s="9"/>
       <c t="s" r="L108" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>120</v>
+        <v>308</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>25</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4987,15 +4996,15 @@
       <c r="J109" s="9"/>
       <c r="K109" s="9"/>
       <c t="s" r="L109" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>281</v>
+        <v>311</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>25</v>
@@ -5007,31 +5016,31 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="9"/>
       <c t="s" r="L110" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>238</v>
+        <v>283</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>313</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>203</v>
+        <v>25</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5047,24 +5056,24 @@
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>25</v>
+        <v>315</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
       <c r="K111" s="9"/>
       <c t="s" r="L111" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>25</v>
+        <v>206</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5073,28 +5082,28 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
       <c r="K112" s="9"/>
       <c t="s" r="L112" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>31</v>
+        <v>273</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>25</v>
@@ -5106,28 +5115,28 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>55</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
       <c r="K113" s="9"/>
       <c t="s" r="L113" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>144</v>
+        <v>319</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>25</v>
@@ -5139,31 +5148,31 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
       <c r="K114" s="9"/>
       <c t="s" r="L114" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>67</v>
+        <v>146</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>313</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>52</v>
+        <v>25</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5172,66 +5181,99 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>44</v>
+        <v>322</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
       <c r="K115" s="9"/>
       <c t="s" r="L115" s="10">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>25</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6051.1599999999999</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>321</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>322</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
         <v>323</v>
       </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>30</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>40</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>283</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>284</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="P117" s="13">
+        <v>6361.1599999999999</v>
+      </c>
+      <c r="Q117" s="13"/>
+    </row>
+    <row r="118" ht="16.5" customHeight="1">
+      <c t="s" r="A118" s="14">
+        <v>324</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c t="s" r="G118" s="15">
+        <v>325</v>
+      </c>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c t="s" r="K118" s="17">
+        <v>326</v>
+      </c>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="17"/>
+      <c r="O118" s="17"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="562">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5785,10 +5827,15 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="P117:Q117"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="K118:Q118"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
